--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biermapa\source\repos\cosurv-smics\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Movement" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="384">
   <si>
     <t>Impfstoff</t>
   </si>
@@ -1091,12 +1086,96 @@
   </si>
   <si>
     <t>2021-01-09T09:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-03T15:00:00</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>LA Klin.Auftrag</t>
+  </si>
+  <si>
+    <t>Herzchirurgie</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>0500</t>
+  </si>
+  <si>
+    <t>2021-01-03T19:40:00</t>
+  </si>
+  <si>
+    <t>2021-01-04T10:40:00</t>
+  </si>
+  <si>
+    <t>2021-01-06T15:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-06T17:34:00</t>
+  </si>
+  <si>
+    <t>Pneumologie</t>
+  </si>
+  <si>
+    <t>0800</t>
+  </si>
+  <si>
+    <t>2021-01-07T12:34:00</t>
+  </si>
+  <si>
+    <t>Lungen- und Bronchialheilkunde</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>2021-01-08T15:25:00</t>
+  </si>
+  <si>
+    <t>2021-01-04T15:46:00</t>
+  </si>
+  <si>
+    <t>Neurologie</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>2021-01-05T09:46:00</t>
+  </si>
+  <si>
+    <t>Strahlenheilkunde</t>
+  </si>
+  <si>
+    <t>3300</t>
+  </si>
+  <si>
+    <t>2021-01-06T10:46:00</t>
+  </si>
+  <si>
+    <t>2021-01-06T11:36:00</t>
+  </si>
+  <si>
+    <t>2021-01-02T09:45:00</t>
+  </si>
+  <si>
+    <t>2021-01-03T13:48:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1254,7 +1333,13 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1281,9 +1366,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1328,12 +1410,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="B5:J58" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="B5:J58"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="B5:K73" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="B5:K73"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="//"/>
     <tableColumn id="2" name="ehr_id"/>
-    <tableColumn id="3" name="Station" dataDxfId="11"/>
+    <tableColumn id="3" name="Station" dataDxfId="1"/>
+    <tableColumn id="10" name="code_string" dataDxfId="0"/>
     <tableColumn id="4" name="Fachabteilungsschlüssel"/>
     <tableColumn id="5" name="Beginn"/>
     <tableColumn id="6" name="Ende"/>
@@ -1372,8 +1455,8 @@
   <tableColumns count="14">
     <tableColumn id="1" name="//"/>
     <tableColumn id="2" name="ehr_id"/>
-    <tableColumn id="3" name="Bericht ID" dataDxfId="10"/>
-    <tableColumn id="4" name="Fall-Kennung" dataDxfId="9"/>
+    <tableColumn id="3" name="Bericht ID" dataDxfId="12"/>
+    <tableColumn id="4" name="Fall-Kennung" dataDxfId="11"/>
     <tableColumn id="5" name="Laborprobenidentifikator"/>
     <tableColumn id="6" name="Zeitpunkt Probeentnahme"/>
     <tableColumn id="7" name="Zeitpunkt des Probeneingangs"/>
@@ -1390,17 +1473,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B4:I19" totalsRowShown="0" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B4:I19" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="B4:I19"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="//" dataDxfId="7"/>
-    <tableColumn id="2" name="ehr_id" dataDxfId="6"/>
-    <tableColumn id="3" name="Impfstoff" dataDxfId="5"/>
-    <tableColumn id="4" name="Dosierungsreihenfolge" dataDxfId="4"/>
-    <tableColumn id="5" name="Dosiermenge" dataDxfId="3"/>
-    <tableColumn id="6" name="Impfung gegen" dataDxfId="2"/>
-    <tableColumn id="7" name="Abwesenheit" dataDxfId="1"/>
-    <tableColumn id="8" name="start_time" dataDxfId="0"/>
+    <tableColumn id="1" name="//" dataDxfId="9"/>
+    <tableColumn id="2" name="ehr_id" dataDxfId="8"/>
+    <tableColumn id="3" name="Impfstoff" dataDxfId="7"/>
+    <tableColumn id="4" name="Dosierungsreihenfolge" dataDxfId="6"/>
+    <tableColumn id="5" name="Dosiermenge" dataDxfId="5"/>
+    <tableColumn id="6" name="Impfung gegen" dataDxfId="4"/>
+    <tableColumn id="7" name="Abwesenheit" dataDxfId="3"/>
+    <tableColumn id="8" name="start_time" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1424,9 +1507,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1464,9 +1547,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1501,7 +1584,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1536,7 +1619,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1710,29 +1793,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J55"/>
+  <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>351</v>
       </c>
@@ -1742,26 +1825,27 @@
       <c r="D3" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1771,23 +1855,23 @@
       <c r="D4" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>77</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1800,716 +1884,803 @@
       <c r="D5" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="I5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="K5" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" s="26"/>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="I6" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="J6" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="K6" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>2</v>
       </c>
       <c r="D7" s="26"/>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="G7" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="I7" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="J7" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3</v>
       </c>
       <c r="D8" s="26"/>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="G8" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="I8" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="J8" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="K8" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>4</v>
       </c>
       <c r="D9" s="26"/>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="G9" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="I9" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="J9" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="K9" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>5</v>
       </c>
       <c r="D10" s="26"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="G10" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="H10" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="I10" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="J10" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="K10" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
       <c r="D11" s="26"/>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="G11" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="H11" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="I11" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="J11" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="K11" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18">
         <v>6</v>
       </c>
       <c r="D12" s="26"/>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="G12" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="H12" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="I12" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="J12" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="K12" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="18">
         <v>7</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="G13" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="H13" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="I13" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="J13" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="18">
         <v>8</v>
       </c>
       <c r="D14" s="26"/>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="G14" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="H14" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="I14" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="J14" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="K14" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="18">
         <v>9</v>
       </c>
       <c r="D15" s="26"/>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="G15" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="H15" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="I15" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="J15" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="K15" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="18">
         <v>10</v>
       </c>
       <c r="D16" s="26"/>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F16" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="G16" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="H16" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="I16" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="J16" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="K16" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="18">
         <v>10</v>
       </c>
       <c r="D17" s="26"/>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="G17" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="H17" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="I17" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="J17" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="K17" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="18">
         <v>11</v>
       </c>
       <c r="D18" s="26"/>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F18" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="G18" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="H18" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="I18" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="J18" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="J18" s="23" t="s">
+      <c r="K18" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="18">
         <v>11</v>
       </c>
       <c r="D19" s="26"/>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="G19" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="H19" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="I19" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="J19" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="K19" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="18">
         <v>12</v>
       </c>
       <c r="D20" s="26"/>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="G20" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="H20" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="I20" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="J20" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="K20" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="18">
         <v>13</v>
       </c>
       <c r="D21" s="26"/>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F21" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="G21" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="I21" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="K21" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="18">
         <v>13</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F22" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="G22" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="H22" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="I22" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="J22" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="K22" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="18">
         <v>14</v>
       </c>
       <c r="D23" s="26"/>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="G23" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="H23" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="I23" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="J23" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="K23" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="18">
         <v>15</v>
       </c>
       <c r="D24" s="26"/>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="G24" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="H24" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="I24" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="J24" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="K24" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="18">
         <v>16</v>
       </c>
       <c r="D25" s="26"/>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="G25" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="H25" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="I25" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="J25" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="K25" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>17</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="G26" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="H26" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="I26" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="J26" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="J26" s="23" t="s">
+      <c r="K26" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>18</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="G27" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="H27" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="I27" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="J27" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="K27" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>19</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="G28" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="H28" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="I28" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="J28" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="K28" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>19</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="G29" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="H29" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="I29" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="J29" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="K29" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>20</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F30" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="G30" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="H30" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="I30" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="J30" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="K30" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>21</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="G31" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="H31" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="I31" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="J31" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="K31" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>21</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F32" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="G32" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="H32" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="I32" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="26" t="s">
+      <c r="J32" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="J32" s="23" t="s">
+      <c r="K32" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>21</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F33" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="G33" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="H33" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="I33" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="J33" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="K33" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -2519,23 +2690,26 @@
       <c r="D34" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F34" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="G34" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="I34" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="J34" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="K34" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>80</v>
       </c>
@@ -2545,46 +2719,52 @@
       <c r="D35" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F35" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="G35" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="23" t="s">
+      <c r="I35" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="J35" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="J35" s="23" t="s">
+      <c r="K35" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>23</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="G36" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="I36" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I36" s="26" t="s">
+      <c r="J36" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="K36" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -2594,23 +2774,26 @@
       <c r="D37" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F37" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="G37" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="I37" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I37" s="26" t="s">
+      <c r="J37" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="J37" s="23" t="s">
+      <c r="K37" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -2620,23 +2803,26 @@
       <c r="D38" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F38" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="G38" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="I38" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="26" t="s">
+      <c r="J38" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="J38" s="23" t="s">
+      <c r="K38" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -2646,412 +2832,956 @@
       <c r="D39" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F39" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="G39" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="H39" s="23" t="s">
+      <c r="I39" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I39" s="26" t="s">
+      <c r="J39" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="K39" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>27</v>
       </c>
       <c r="D40" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="G40" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="H40" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="I40" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="J40" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="K40" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>27</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F41" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="G41" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="H41" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="I41" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I41" s="26" t="s">
+      <c r="J41" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="K41" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>27</v>
       </c>
       <c r="D42" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F42" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="G42" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="I42" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="J42" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="K42" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>28</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F43" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="G43" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="I43" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I43" s="26" t="s">
+      <c r="J43" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="K43" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>29</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F44" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F44" s="23" t="s">
+      <c r="G44" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="I44" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I44" s="26" t="s">
+      <c r="J44" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="J44" s="23" t="s">
+      <c r="K44" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>30</v>
       </c>
       <c r="D45" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F45" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="G45" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="H45" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="I45" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I45" s="26" t="s">
+      <c r="J45" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="K45" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>30</v>
       </c>
       <c r="D46" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F46" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="G46" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="I46" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I46" s="26" t="s">
+      <c r="J46" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="J46" s="23" t="s">
+      <c r="K46" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>31</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F47" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="G47" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="H47" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="I47" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I47" s="26" t="s">
+      <c r="J47" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="J47" s="23" t="s">
+      <c r="K47" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>31</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F48" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="G48" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="I48" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="J48" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="K48" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>32</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F49" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="G49" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="H49" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="I49" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="J49" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="K49" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>32</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F50" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F50" s="23" t="s">
+      <c r="G50" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="H50" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="I50" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I50" s="26" t="s">
+      <c r="J50" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="J50" s="23" t="s">
+      <c r="K50" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>32</v>
       </c>
       <c r="D51" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F51" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="G51" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="G51" s="23" t="s">
+      <c r="H51" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="I51" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I51" s="26" t="s">
+      <c r="J51" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="J51" s="23" t="s">
+      <c r="K51" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>32</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F52" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="F52" s="23" t="s">
+      <c r="G52" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="I52" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I52" s="26" t="s">
+      <c r="J52" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="J52" s="23" t="s">
+      <c r="K52" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>33</v>
       </c>
       <c r="D53" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F53" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="G53" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="I53" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I53" s="26" t="s">
+      <c r="J53" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="K53" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>34</v>
       </c>
       <c r="D54" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F54" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="G54" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="H54" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="I54" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I54" s="26" t="s">
+      <c r="J54" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="J54" s="23" t="s">
+      <c r="K54" s="23" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>34</v>
       </c>
       <c r="D55" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F55" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="G55" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="I55" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="J55" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="J55" s="23" t="s">
+      <c r="K55" s="23" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>17</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E56" s="26">
+        <v>2100</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J56" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>17</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>17</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E58" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E59" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="K59" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="18">
+        <v>20</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="18">
+        <v>20</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="18">
+        <v>20</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E62" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>27</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="K63" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="18">
+        <v>27</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="I64" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="K64" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="18">
+        <v>27</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="K65" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="18">
+        <v>27</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E66" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="I66" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="K66" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>21</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E67" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="K67" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="18">
+        <v>21</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E68" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J68" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="K68" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="18">
+        <v>21</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E69" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J69" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="K69" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>30</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E70" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="I70" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="K70" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="18">
+        <v>30</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="I71" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="K71" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="18">
+        <v>30</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="I72" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="K72" s="23" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -4017,7 +4747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-FAST\GITHub_SmICS\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Movement" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="393">
   <si>
     <t>Impfstoff</t>
   </si>
@@ -1170,12 +1175,39 @@
   </si>
   <si>
     <t>2021-01-03T13:48:00</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Severe acute respiratory syndrome coronavirus 2 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Infectious disease (disorder)</t>
+  </si>
+  <si>
+    <t>code_string2</t>
+  </si>
+  <si>
+    <t>2021-01-05T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-09T10:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-07T12:30:00Z</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid (medicinal product)</t>
+  </si>
+  <si>
+    <t>2021-01-09T12:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-08T16:35:00Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1333,12 +1365,9 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1366,6 +1395,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1410,13 +1448,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="B5:K73" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="B5:K73" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="B5:K73"/>
   <tableColumns count="10">
     <tableColumn id="1" name="//"/>
     <tableColumn id="2" name="ehr_id"/>
-    <tableColumn id="3" name="Station" dataDxfId="1"/>
-    <tableColumn id="10" name="code_string" dataDxfId="0"/>
+    <tableColumn id="3" name="Station" dataDxfId="14"/>
+    <tableColumn id="10" name="code_string" dataDxfId="13"/>
     <tableColumn id="4" name="Fachabteilungsschlüssel"/>
     <tableColumn id="5" name="Beginn"/>
     <tableColumn id="6" name="Ende"/>
@@ -1473,14 +1511,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B4:I19" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="B4:I19"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B4:K19" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="B4:K19"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="//" dataDxfId="9"/>
     <tableColumn id="2" name="ehr_id" dataDxfId="8"/>
+    <tableColumn id="9" name="code_string" dataDxfId="1"/>
     <tableColumn id="3" name="Impfstoff" dataDxfId="7"/>
     <tableColumn id="4" name="Dosierungsreihenfolge" dataDxfId="6"/>
     <tableColumn id="5" name="Dosiermenge" dataDxfId="5"/>
+    <tableColumn id="10" name="code_string2" dataDxfId="0"/>
     <tableColumn id="6" name="Impfung gegen" dataDxfId="4"/>
     <tableColumn id="7" name="Abwesenheit" dataDxfId="3"/>
     <tableColumn id="8" name="start_time" dataDxfId="2"/>
@@ -1507,9 +1547,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1547,9 +1587,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1584,7 +1624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1619,7 +1659,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1795,7 +1835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
@@ -4747,8 +4787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7359,80 +7399,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>351</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -7443,142 +7487,314 @@
         <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="23">
+        <v>116077000</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
       </c>
       <c r="F5" s="25">
         <v>1</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="25">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23">
+        <v>18624000</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="23">
+        <v>46233009</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="E6" s="25">
-        <v>1</v>
       </c>
       <c r="F6" s="25">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="23">
+        <v>6142004</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="K6" s="23" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="23">
+        <v>46233009</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
       </c>
       <c r="F7" s="25">
         <v>1</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23">
+        <v>6142004</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="K7" s="23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>14</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="23">
+        <v>46233009</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
       </c>
       <c r="F8" s="25">
         <v>1</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23">
+        <v>6142004</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="K8" s="23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>15</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="23">
+        <v>424519000</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>247</v>
-      </c>
-      <c r="E9" s="25">
-        <v>1</v>
       </c>
       <c r="F9" s="25">
         <v>1</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23">
+        <v>18624000</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="K9" s="23" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>16</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="23">
+        <v>424519000</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>247</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
       </c>
       <c r="F10" s="25">
         <v>1</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23">
+        <v>18624000</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="K10" s="23" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1119305005</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>18</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1119305005</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>19</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1119305005</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>21</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Movement" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="406">
   <si>
     <t>Impfstoff</t>
   </si>
@@ -1202,6 +1202,45 @@
   </si>
   <si>
     <t>2021-01-08T16:35:00Z</t>
+  </si>
+  <si>
+    <t>00000035</t>
+  </si>
+  <si>
+    <t>2021-01-05T10:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-10T11:30:00Z</t>
+  </si>
+  <si>
+    <t>00000036</t>
+  </si>
+  <si>
+    <t>2021-01-04T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-08T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-10T10:30:00Z</t>
+  </si>
+  <si>
+    <t>00000037</t>
+  </si>
+  <si>
+    <t>00000038</t>
+  </si>
+  <si>
+    <t>2021-01-03T10:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-06T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-07T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-09T10:10:00Z</t>
   </si>
 </sst>
 </file>
@@ -1448,8 +1487,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="B5:K73" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="B5:K73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="B5:K80" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="B5:K80"/>
   <tableColumns count="10">
     <tableColumn id="1" name="//"/>
     <tableColumn id="2" name="ehr_id"/>
@@ -1488,8 +1527,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B5:O55" totalsRowShown="0">
-  <autoFilter ref="B5:O55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B5:O68" totalsRowShown="0">
+  <autoFilter ref="B5:O68"/>
   <tableColumns count="14">
     <tableColumn id="1" name="//"/>
     <tableColumn id="2" name="ehr_id"/>
@@ -1516,14 +1555,14 @@
   <tableColumns count="10">
     <tableColumn id="1" name="//" dataDxfId="9"/>
     <tableColumn id="2" name="ehr_id" dataDxfId="8"/>
-    <tableColumn id="9" name="code_string" dataDxfId="1"/>
-    <tableColumn id="3" name="Impfstoff" dataDxfId="7"/>
-    <tableColumn id="4" name="Dosierungsreihenfolge" dataDxfId="6"/>
-    <tableColumn id="5" name="Dosiermenge" dataDxfId="5"/>
-    <tableColumn id="10" name="code_string2" dataDxfId="0"/>
-    <tableColumn id="6" name="Impfung gegen" dataDxfId="4"/>
-    <tableColumn id="7" name="Abwesenheit" dataDxfId="3"/>
-    <tableColumn id="8" name="start_time" dataDxfId="2"/>
+    <tableColumn id="9" name="code_string" dataDxfId="7"/>
+    <tableColumn id="3" name="Impfstoff" dataDxfId="6"/>
+    <tableColumn id="4" name="Dosierungsreihenfolge" dataDxfId="5"/>
+    <tableColumn id="5" name="Dosiermenge" dataDxfId="4"/>
+    <tableColumn id="10" name="code_string2" dataDxfId="3"/>
+    <tableColumn id="6" name="Impfung gegen" dataDxfId="2"/>
+    <tableColumn id="7" name="Abwesenheit" dataDxfId="1"/>
+    <tableColumn id="8" name="start_time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1833,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K72"/>
+  <dimension ref="A2:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,6 +3861,139 @@
       </c>
       <c r="K72" s="23" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E73" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="K73" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>36</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>37</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E75" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="K75" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>38</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="K76" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>38</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="E77" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J77" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="K77" s="23" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4787,8 +4959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6859,82 +7031,461 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="25"/>
+      <c r="B52">
+        <v>35</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="I52" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O52" s="25">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="25"/>
+      <c r="B53">
+        <v>35</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="I53" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O53" s="25">
+        <v>13</v>
+      </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="25"/>
+      <c r="B54">
+        <v>36</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="I54" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O54" s="25">
+        <v>33</v>
+      </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="25"/>
+      <c r="B55">
+        <v>36</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="I55" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J55" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O55" s="25">
+        <v>16</v>
+      </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="25"/>
+      <c r="B56">
+        <v>36</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="I56" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J56" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="M56" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O56" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="25"/>
+      <c r="B57">
+        <v>37</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="I57" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="M57" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O57" s="25">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="25"/>
+      <c r="B58">
+        <v>37</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="I58" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L58" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="M58" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N58" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O58" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="25"/>
+      <c r="B59">
+        <v>37</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="I59" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K59" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L59" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="M59" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N59" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O59" s="25">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="25"/>
+      <c r="B60">
+        <v>38</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="I60" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L60" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="M60" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N60" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O60" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="25"/>
+      <c r="B61">
+        <v>38</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="I61" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J61" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L61" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="M61" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N61" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O61" s="25">
+        <v>17</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="B62">
+        <v>38</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="I62" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L62" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="M62" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N62" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O62" s="25">
+        <v>33</v>
+      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D64" s="27"/>
@@ -7401,7 +7952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -7818,10 +8369,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I39"/>
+  <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8550,6 +9101,62 @@
         <v>329</v>
       </c>
     </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>35</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>36</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>37</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>38</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Movement" sheetId="1" r:id="rId1"/>
@@ -4009,8 +4009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,7 +4217,7 @@
         <v>118</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>95</v>
@@ -4959,7 +4959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Movement" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="407">
   <si>
     <t>Impfstoff</t>
   </si>
@@ -682,12 +682,6 @@
     <t>2020-02-13T16:47:45Z</t>
   </si>
   <si>
-    <t>2020-02-10T15:24:08</t>
-  </si>
-  <si>
-    <t>2020-02-17T17:24:08</t>
-  </si>
-  <si>
     <t>2020-03-13T18:59:59Z</t>
   </si>
   <si>
@@ -1241,6 +1235,15 @@
   </si>
   <si>
     <t>2021-01-09T10:10:00Z</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>2021-01-02T13:45:00</t>
+  </si>
+  <si>
+    <t>2021-01-05T09:30:00</t>
   </si>
 </sst>
 </file>
@@ -1875,7 +1878,7 @@
   <dimension ref="A2:K77"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1899,7 @@
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>13</v>
@@ -1989,9 +1992,11 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E6" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>105</v>
@@ -2006,7 +2011,7 @@
         <v>106</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>104</v>
@@ -2016,9 +2021,11 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E7" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>105</v>
@@ -2033,7 +2040,7 @@
         <v>106</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>104</v>
@@ -2043,9 +2050,11 @@
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E8" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>105</v>
@@ -2060,7 +2069,7 @@
         <v>128</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>104</v>
@@ -2070,9 +2079,11 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E9" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>105</v>
@@ -2087,7 +2098,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>104</v>
@@ -2097,9 +2108,11 @@
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E10" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>142</v>
@@ -2114,7 +2127,7 @@
         <v>145</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K10" s="23" t="s">
         <v>104</v>
@@ -2124,9 +2137,11 @@
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E11" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>142</v>
@@ -2141,7 +2156,7 @@
         <v>146</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>104</v>
@@ -2151,9 +2166,11 @@
       <c r="B12" s="18">
         <v>6</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E12" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>142</v>
@@ -2168,7 +2185,7 @@
         <v>145</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K12" s="23" t="s">
         <v>104</v>
@@ -2178,9 +2195,11 @@
       <c r="B13" s="18">
         <v>7</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E13" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>142</v>
@@ -2195,7 +2214,7 @@
         <v>145</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>104</v>
@@ -2205,9 +2224,11 @@
       <c r="B14" s="18">
         <v>8</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E14" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>142</v>
@@ -2222,7 +2243,7 @@
         <v>169</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K14" s="23" t="s">
         <v>104</v>
@@ -2232,9 +2253,11 @@
       <c r="B15" s="18">
         <v>9</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E15" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>142</v>
@@ -2249,7 +2272,7 @@
         <v>169</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K15" s="23" t="s">
         <v>104</v>
@@ -2259,9 +2282,11 @@
       <c r="B16" s="18">
         <v>10</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E16" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>157</v>
@@ -2276,7 +2301,7 @@
         <v>106</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K16" s="23" t="s">
         <v>104</v>
@@ -2286,9 +2311,11 @@
       <c r="B17" s="18">
         <v>10</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E17" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>158</v>
@@ -2300,10 +2327,10 @@
         <v>163</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>104</v>
@@ -2313,9 +2340,11 @@
       <c r="B18" s="18">
         <v>11</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E18" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>157</v>
@@ -2330,7 +2359,7 @@
         <v>106</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K18" s="23" t="s">
         <v>104</v>
@@ -2340,9 +2369,11 @@
       <c r="B19" s="18">
         <v>11</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E19" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>157</v>
@@ -2357,7 +2388,7 @@
         <v>128</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>104</v>
@@ -2367,9 +2398,11 @@
       <c r="B20" s="18">
         <v>12</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E20" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>157</v>
@@ -2384,7 +2417,7 @@
         <v>106</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>104</v>
@@ -2394,9 +2427,11 @@
       <c r="B21" s="18">
         <v>13</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E21" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>157</v>
@@ -2411,7 +2446,7 @@
         <v>106</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>104</v>
@@ -2422,7 +2457,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E22" s="26">
         <v>3700</v>
@@ -2440,7 +2475,7 @@
         <v>106</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>104</v>
@@ -2450,9 +2485,11 @@
       <c r="B23" s="18">
         <v>14</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E23" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>142</v>
@@ -2467,7 +2504,7 @@
         <v>145</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>104</v>
@@ -2477,9 +2514,11 @@
       <c r="B24" s="18">
         <v>15</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E24" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>157</v>
@@ -2494,7 +2533,7 @@
         <v>106</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K24" s="23" t="s">
         <v>104</v>
@@ -2504,9 +2543,11 @@
       <c r="B25" s="18">
         <v>16</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E25" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>157</v>
@@ -2521,7 +2562,7 @@
         <v>106</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>104</v>
@@ -2532,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E26" s="26">
         <v>3700</v>
@@ -2541,16 +2582,16 @@
         <v>159</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K26" s="23" t="s">
         <v>104</v>
@@ -2561,7 +2602,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E27" s="26">
         <v>3700</v>
@@ -2570,16 +2611,16 @@
         <v>159</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K27" s="23" t="s">
         <v>104</v>
@@ -2590,25 +2631,25 @@
         <v>19</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>142</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K28" s="23" t="s">
         <v>104</v>
@@ -2619,7 +2660,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E29" s="26">
         <v>3700</v>
@@ -2628,16 +2669,16 @@
         <v>159</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K29" s="23" t="s">
         <v>104</v>
@@ -2648,7 +2689,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E30" s="26">
         <v>3700</v>
@@ -2657,16 +2698,16 @@
         <v>159</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I30" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K30" s="23" t="s">
         <v>104</v>
@@ -2677,25 +2718,25 @@
         <v>21</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>142</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I31" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K31" s="23" t="s">
         <v>104</v>
@@ -2706,7 +2747,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E32" s="26">
         <v>3700</v>
@@ -2715,16 +2756,16 @@
         <v>159</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I32" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K32" s="23" t="s">
         <v>104</v>
@@ -2735,25 +2776,25 @@
         <v>21</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K33" s="23" t="s">
         <v>104</v>
@@ -2767,7 +2808,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E34" s="26">
         <v>3700</v>
@@ -2776,13 +2817,13 @@
         <v>159</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K34" s="23" t="s">
         <v>104</v>
@@ -2796,7 +2837,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E35" s="26">
         <v>3700</v>
@@ -2805,13 +2846,13 @@
         <v>159</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K35" s="23" t="s">
         <v>104</v>
@@ -2822,7 +2863,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E36" s="26">
         <v>3700</v>
@@ -2831,13 +2872,13 @@
         <v>159</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K36" s="23" t="s">
         <v>104</v>
@@ -2851,7 +2892,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E37" s="26">
         <v>3700</v>
@@ -2860,13 +2901,13 @@
         <v>159</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I37" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K37" s="23" t="s">
         <v>104</v>
@@ -2880,7 +2921,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E38" s="26">
         <v>3700</v>
@@ -2889,13 +2930,13 @@
         <v>159</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I38" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K38" s="23" t="s">
         <v>104</v>
@@ -2909,7 +2950,7 @@
         <v>26</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E39" s="26">
         <v>3700</v>
@@ -2918,13 +2959,13 @@
         <v>159</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I39" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K39" s="23" t="s">
         <v>104</v>
@@ -2935,25 +2976,25 @@
         <v>27</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>142</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I40" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K40" s="23" t="s">
         <v>104</v>
@@ -2964,7 +3005,7 @@
         <v>27</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E41" s="26">
         <v>3700</v>
@@ -2973,16 +3014,16 @@
         <v>159</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I41" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K41" s="23" t="s">
         <v>104</v>
@@ -2993,7 +3034,7 @@
         <v>27</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E42" s="26">
         <v>3700</v>
@@ -3002,13 +3043,13 @@
         <v>159</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I42" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K42" s="23" t="s">
         <v>104</v>
@@ -3019,7 +3060,7 @@
         <v>28</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E43" s="26">
         <v>3700</v>
@@ -3028,13 +3069,13 @@
         <v>159</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I43" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J43" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K43" s="23" t="s">
         <v>104</v>
@@ -3045,7 +3086,7 @@
         <v>29</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E44" s="26">
         <v>3700</v>
@@ -3054,13 +3095,13 @@
         <v>159</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I44" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K44" s="23" t="s">
         <v>104</v>
@@ -3071,25 +3112,25 @@
         <v>30</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>142</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I45" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K45" s="23" t="s">
         <v>104</v>
@@ -3100,7 +3141,7 @@
         <v>30</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E46" s="26">
         <v>3700</v>
@@ -3109,13 +3150,13 @@
         <v>159</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I46" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K46" s="23" t="s">
         <v>104</v>
@@ -3126,7 +3167,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E47" s="26">
         <v>3700</v>
@@ -3135,16 +3176,16 @@
         <v>159</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I47" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K47" s="23" t="s">
         <v>104</v>
@@ -3155,7 +3196,7 @@
         <v>31</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E48" s="26">
         <v>3700</v>
@@ -3164,13 +3205,13 @@
         <v>159</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I48" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K48" s="23" t="s">
         <v>104</v>
@@ -3181,25 +3222,25 @@
         <v>32</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>142</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I49" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K49" s="23" t="s">
         <v>104</v>
@@ -3210,7 +3251,7 @@
         <v>32</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E50" s="26">
         <v>3700</v>
@@ -3219,16 +3260,16 @@
         <v>159</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I50" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K50" s="23" t="s">
         <v>104</v>
@@ -3239,7 +3280,7 @@
         <v>32</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E51" s="26">
         <v>3700</v>
@@ -3248,16 +3289,16 @@
         <v>159</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I51" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K51" s="23" t="s">
         <v>104</v>
@@ -3268,22 +3309,22 @@
         <v>32</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I52" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K52" s="23" t="s">
         <v>104</v>
@@ -3294,7 +3335,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E53" s="26">
         <v>3700</v>
@@ -3303,13 +3344,13 @@
         <v>159</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I53" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K53" s="23" t="s">
         <v>104</v>
@@ -3320,7 +3361,7 @@
         <v>34</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E54" s="26">
         <v>3700</v>
@@ -3329,16 +3370,16 @@
         <v>159</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I54" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K54" s="23" t="s">
         <v>104</v>
@@ -3349,22 +3390,22 @@
         <v>34</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I55" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K55" s="23" t="s">
         <v>104</v>
@@ -3375,28 +3416,28 @@
         <v>17</v>
       </c>
       <c r="D56" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="F56" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="E56" s="26">
-        <v>2100</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>359</v>
-      </c>
       <c r="G56" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="J56" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K56" s="23" t="s">
         <v>356</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="J56" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -3404,28 +3445,28 @@
         <v>17</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>158</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -3433,7 +3474,7 @@
         <v>17</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E58" s="26">
         <v>3700</v>
@@ -3442,19 +3483,19 @@
         <v>159</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -3462,7 +3503,7 @@
         <v>20</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E59" s="26">
         <v>3700</v>
@@ -3471,19 +3512,19 @@
         <v>159</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -3491,28 +3532,28 @@
         <v>20</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -3520,28 +3561,28 @@
         <v>20</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
@@ -3549,7 +3590,7 @@
         <v>20</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E62" s="26">
         <v>3700</v>
@@ -3558,19 +3599,19 @@
         <v>159</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
@@ -3578,28 +3619,28 @@
         <v>27</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K63" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
@@ -3607,28 +3648,28 @@
         <v>27</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
@@ -3636,28 +3677,28 @@
         <v>27</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
@@ -3665,7 +3706,7 @@
         <v>27</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E66" s="26">
         <v>3700</v>
@@ -3674,19 +3715,19 @@
         <v>159</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K66" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
@@ -3694,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E67" s="26">
         <v>3700</v>
@@ -3703,19 +3744,19 @@
         <v>159</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K67" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
@@ -3723,7 +3764,7 @@
         <v>21</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E68" s="26">
         <v>3700</v>
@@ -3732,19 +3773,19 @@
         <v>159</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K68" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
@@ -3752,7 +3793,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E69" s="26">
         <v>3700</v>
@@ -3761,19 +3802,19 @@
         <v>159</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K69" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
@@ -3781,7 +3822,7 @@
         <v>30</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E70" s="26">
         <v>3700</v>
@@ -3790,19 +3831,19 @@
         <v>159</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
@@ -3810,28 +3851,28 @@
         <v>30</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K71" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -3839,28 +3880,28 @@
         <v>30</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K72" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
@@ -3868,7 +3909,7 @@
         <v>35</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E73" s="26">
         <v>3700</v>
@@ -3877,13 +3918,13 @@
         <v>159</v>
       </c>
       <c r="G73" s="23" t="s">
-        <v>394</v>
+        <v>267</v>
       </c>
       <c r="I73" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J73" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K73" s="23" t="s">
         <v>104</v>
@@ -3894,22 +3935,22 @@
         <v>36</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>142</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I74" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J74" s="26" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K74" s="23" t="s">
         <v>104</v>
@@ -3920,7 +3961,7 @@
         <v>37</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E75" s="26">
         <v>3700</v>
@@ -3929,13 +3970,13 @@
         <v>159</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I75" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J75" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K75" s="23" t="s">
         <v>104</v>
@@ -3946,7 +3987,7 @@
         <v>38</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E76" s="26">
         <v>3700</v>
@@ -3955,16 +3996,16 @@
         <v>159</v>
       </c>
       <c r="G76" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H76" s="23" t="s">
-        <v>283</v>
+        <v>403</v>
       </c>
       <c r="I76" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J76" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K76" s="23" t="s">
         <v>104</v>
@@ -3975,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E77" s="26">
         <v>3700</v>
@@ -3984,13 +4025,13 @@
         <v>159</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I77" s="23" t="s">
         <v>128</v>
       </c>
       <c r="J77" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K77" s="23" t="s">
         <v>104</v>
@@ -4009,7 +4050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -4052,7 +4093,7 @@
     </row>
     <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>13</v>
@@ -4635,10 +4676,10 @@
         <v>10</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>136</v>
@@ -4650,7 +4691,7 @@
         <v>97</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -4658,13 +4699,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>221</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>223</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>96</v>
@@ -4673,7 +4714,7 @@
         <v>97</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -4681,13 +4722,13 @@
         <v>10</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>96</v>
@@ -4696,7 +4737,7 @@
         <v>97</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -4704,13 +4745,13 @@
         <v>11</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>96</v>
@@ -4719,7 +4760,7 @@
         <v>97</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -4727,13 +4768,13 @@
         <v>11</v>
       </c>
       <c r="D31" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>229</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>96</v>
@@ -4742,7 +4783,7 @@
         <v>97</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -4750,13 +4791,13 @@
         <v>11</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>96</v>
@@ -4765,7 +4806,7 @@
         <v>120</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4776,10 +4817,10 @@
         <v>12</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>136</v>
@@ -4791,7 +4832,7 @@
         <v>97</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4799,10 +4840,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>139</v>
@@ -4814,7 +4855,7 @@
         <v>97</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4822,10 +4863,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>181</v>
@@ -4837,7 +4878,7 @@
         <v>97</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4845,10 +4886,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>136</v>
@@ -4860,7 +4901,7 @@
         <v>97</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4868,10 +4909,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>139</v>
@@ -4883,7 +4924,7 @@
         <v>97</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4891,7 +4932,7 @@
         <v>15</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J38" s="23" t="s">
         <v>214</v>
@@ -4905,7 +4946,7 @@
         <v>15</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J39" s="23" t="s">
         <v>214</v>
@@ -4919,7 +4960,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J40" s="23" t="s">
         <v>214</v>
@@ -4933,13 +4974,13 @@
         <v>16</v>
       </c>
       <c r="D41" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="M41" s="23" t="s">
         <v>252</v>
-      </c>
-      <c r="L41" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="M41" s="23" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4959,8 +5000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4988,7 +5029,7 @@
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>13</v>
@@ -5123,10 +5164,10 @@
         <v>171</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>135</v>
@@ -5164,13 +5205,13 @@
         <v>186</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>187</v>
@@ -5205,10 +5246,10 @@
         <v>186</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>195</v>
@@ -5246,10 +5287,10 @@
         <v>200</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>203</v>
@@ -5287,10 +5328,10 @@
         <v>210</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>212</v>
@@ -5328,10 +5369,10 @@
         <v>216</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>218</v>
@@ -5366,19 +5407,19 @@
         <v>11</v>
       </c>
       <c r="D12" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>235</v>
-      </c>
       <c r="H12" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I12" s="23">
         <v>119342007</v>
@@ -5390,7 +5431,7 @@
         <v>188</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M12" s="23" t="s">
         <v>173</v>
@@ -5407,19 +5448,19 @@
         <v>15</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>251</v>
-      </c>
       <c r="H13" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I13" s="23">
         <v>119342007</v>
@@ -5431,7 +5472,7 @@
         <v>174</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M13" s="23" t="s">
         <v>173</v>
@@ -5448,19 +5489,19 @@
         <v>16</v>
       </c>
       <c r="D14" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>258</v>
-      </c>
       <c r="H14" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I14" s="23">
         <v>119342007</v>
@@ -5472,7 +5513,7 @@
         <v>174</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M14" s="23" t="s">
         <v>173</v>
@@ -5492,16 +5533,16 @@
         <v>171</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G15" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>263</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>265</v>
       </c>
       <c r="I15" s="23">
         <v>119342007</v>
@@ -5513,7 +5554,7 @@
         <v>188</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>173</v>
@@ -5533,16 +5574,16 @@
         <v>171</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G16" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>266</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>268</v>
       </c>
       <c r="I16" s="23">
         <v>119342007</v>
@@ -5554,7 +5595,7 @@
         <v>174</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M16" s="23" t="s">
         <v>173</v>
@@ -5574,16 +5615,16 @@
         <v>171</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G17" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>269</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="I17" s="23">
         <v>119342007</v>
@@ -5595,7 +5636,7 @@
         <v>174</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M17" s="23" t="s">
         <v>173</v>
@@ -5615,16 +5656,16 @@
         <v>171</v>
       </c>
       <c r="E18" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>275</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>277</v>
       </c>
       <c r="I18" s="23">
         <v>119342007</v>
@@ -5636,7 +5677,7 @@
         <v>188</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M18" s="23" t="s">
         <v>173</v>
@@ -5656,16 +5697,16 @@
         <v>171</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I19" s="23">
         <v>119342007</v>
@@ -5677,7 +5718,7 @@
         <v>174</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M19" s="23" t="s">
         <v>173</v>
@@ -5691,7 +5732,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -5700,16 +5741,16 @@
         <v>171</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I20" s="23">
         <v>119342007</v>
@@ -5718,10 +5759,10 @@
         <v>172</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M20" s="23" t="s">
         <v>173</v>
@@ -5744,16 +5785,16 @@
         <v>171</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F21" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="23" t="s">
         <v>266</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>268</v>
       </c>
       <c r="I21" s="23">
         <v>119342007</v>
@@ -5765,7 +5806,7 @@
         <v>188</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M21" s="23" t="s">
         <v>173</v>
@@ -5779,7 +5820,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -5788,16 +5829,16 @@
         <v>171</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I22" s="23">
         <v>119342007</v>
@@ -5809,7 +5850,7 @@
         <v>174</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M22" s="23" t="s">
         <v>173</v>
@@ -5832,16 +5873,16 @@
         <v>171</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I23" s="23">
         <v>119342007</v>
@@ -5850,10 +5891,10 @@
         <v>172</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M23" s="23" t="s">
         <v>173</v>
@@ -5873,16 +5914,16 @@
         <v>171</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F24" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="H24" s="23" t="s">
         <v>266</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>268</v>
       </c>
       <c r="I24" s="23">
         <v>119342007</v>
@@ -5894,7 +5935,7 @@
         <v>188</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M24" s="23" t="s">
         <v>173</v>
@@ -5915,16 +5956,16 @@
         <v>171</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I25" s="23">
         <v>119342007</v>
@@ -5936,7 +5977,7 @@
         <v>174</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>173</v>
@@ -5956,16 +5997,16 @@
         <v>171</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I26" s="23">
         <v>119342007</v>
@@ -5974,10 +6015,10 @@
         <v>172</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M26" s="23" t="s">
         <v>173</v>
@@ -5998,16 +6039,16 @@
         <v>171</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I27" s="23">
         <v>119342007</v>
@@ -6019,7 +6060,7 @@
         <v>188</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M27" s="23" t="s">
         <v>173</v>
@@ -6040,16 +6081,16 @@
         <v>171</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I28" s="23">
         <v>119342007</v>
@@ -6061,7 +6102,7 @@
         <v>174</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M28" s="23" t="s">
         <v>173</v>
@@ -6082,16 +6123,16 @@
         <v>171</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I29" s="23">
         <v>119342007</v>
@@ -6103,7 +6144,7 @@
         <v>188</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M29" s="23" t="s">
         <v>173</v>
@@ -6124,16 +6165,16 @@
         <v>171</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I30" s="23">
         <v>119342007</v>
@@ -6145,7 +6186,7 @@
         <v>174</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M30" s="23" t="s">
         <v>173</v>
@@ -6166,16 +6207,16 @@
         <v>171</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G31" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31" s="23" t="s">
         <v>269</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="I31" s="23">
         <v>119342007</v>
@@ -6187,7 +6228,7 @@
         <v>188</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M31" s="23" t="s">
         <v>173</v>
@@ -6208,16 +6249,16 @@
         <v>171</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I32" s="23">
         <v>119342007</v>
@@ -6229,7 +6270,7 @@
         <v>174</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M32" s="23" t="s">
         <v>173</v>
@@ -6250,16 +6291,16 @@
         <v>171</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I33" s="23">
         <v>119342007</v>
@@ -6271,7 +6312,7 @@
         <v>188</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M33" s="23" t="s">
         <v>173</v>
@@ -6294,16 +6335,16 @@
         <v>171</v>
       </c>
       <c r="E34" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>304</v>
-      </c>
       <c r="H34" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I34" s="23">
         <v>119342007</v>
@@ -6315,7 +6356,7 @@
         <v>174</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M34" s="23" t="s">
         <v>173</v>
@@ -6338,16 +6379,16 @@
         <v>171</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I35" s="23">
         <v>119342007</v>
@@ -6359,7 +6400,7 @@
         <v>188</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M35" s="23" t="s">
         <v>173</v>
@@ -6382,16 +6423,16 @@
         <v>171</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I36" s="23">
         <v>119342007</v>
@@ -6403,7 +6444,7 @@
         <v>174</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M36" s="23" t="s">
         <v>173</v>
@@ -6423,16 +6464,16 @@
         <v>171</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I37" s="23">
         <v>119342007</v>
@@ -6444,7 +6485,7 @@
         <v>188</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M37" s="23" t="s">
         <v>173</v>
@@ -6464,16 +6505,16 @@
         <v>171</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I38" s="23">
         <v>119342007</v>
@@ -6485,7 +6526,7 @@
         <v>174</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M38" s="23" t="s">
         <v>173</v>
@@ -6505,16 +6546,16 @@
         <v>171</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I39" s="23">
         <v>119342007</v>
@@ -6526,7 +6567,7 @@
         <v>188</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M39" s="23" t="s">
         <v>173</v>
@@ -6546,16 +6587,16 @@
         <v>171</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I40" s="23">
         <v>119342007</v>
@@ -6567,7 +6608,7 @@
         <v>174</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M40" s="23" t="s">
         <v>173</v>
@@ -6587,16 +6628,16 @@
         <v>171</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I41" s="23">
         <v>119342007</v>
@@ -6608,7 +6649,7 @@
         <v>188</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M41" s="23" t="s">
         <v>173</v>
@@ -6628,16 +6669,16 @@
         <v>171</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I42" s="23">
         <v>119342007</v>
@@ -6649,7 +6690,7 @@
         <v>174</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M42" s="23" t="s">
         <v>173</v>
@@ -6669,16 +6710,16 @@
         <v>171</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I43" s="23">
         <v>119342007</v>
@@ -6690,7 +6731,7 @@
         <v>188</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M43" s="23" t="s">
         <v>173</v>
@@ -6710,16 +6751,16 @@
         <v>171</v>
       </c>
       <c r="E44" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>317</v>
-      </c>
       <c r="H44" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I44" s="23">
         <v>119342007</v>
@@ -6731,7 +6772,7 @@
         <v>174</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M44" s="23" t="s">
         <v>173</v>
@@ -6751,16 +6792,16 @@
         <v>171</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I45" s="23">
         <v>119342007</v>
@@ -6772,7 +6813,7 @@
         <v>188</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M45" s="23" t="s">
         <v>173</v>
@@ -6792,16 +6833,16 @@
         <v>171</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I46" s="23">
         <v>119342007</v>
@@ -6813,7 +6854,7 @@
         <v>174</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M46" s="23" t="s">
         <v>173</v>
@@ -6833,16 +6874,16 @@
         <v>171</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I47" s="23">
         <v>119342007</v>
@@ -6854,7 +6895,7 @@
         <v>188</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M47" s="23" t="s">
         <v>173</v>
@@ -6874,16 +6915,16 @@
         <v>171</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I48" s="23">
         <v>119342007</v>
@@ -6895,7 +6936,7 @@
         <v>174</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M48" s="23" t="s">
         <v>173</v>
@@ -6915,16 +6956,16 @@
         <v>171</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I49" s="23">
         <v>119342007</v>
@@ -6936,7 +6977,7 @@
         <v>188</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M49" s="23" t="s">
         <v>173</v>
@@ -6956,16 +6997,16 @@
         <v>171</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I50" s="23">
         <v>119342007</v>
@@ -6977,7 +7018,7 @@
         <v>188</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M50" s="23" t="s">
         <v>173</v>
@@ -6997,16 +7038,16 @@
         <v>171</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I51" s="23">
         <v>119342007</v>
@@ -7018,7 +7059,7 @@
         <v>188</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M51" s="23" t="s">
         <v>173</v>
@@ -7038,16 +7079,16 @@
         <v>171</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I52" s="23">
         <v>119342007</v>
@@ -7059,7 +7100,7 @@
         <v>188</v>
       </c>
       <c r="L52" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M52" s="23" t="s">
         <v>173</v>
@@ -7079,16 +7120,16 @@
         <v>171</v>
       </c>
       <c r="E53" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" s="23" t="s">
         <v>393</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>395</v>
       </c>
       <c r="I53" s="23">
         <v>119342007</v>
@@ -7100,7 +7141,7 @@
         <v>188</v>
       </c>
       <c r="L53" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M53" s="23" t="s">
         <v>173</v>
@@ -7120,16 +7161,16 @@
         <v>171</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="I54" s="23">
         <v>119342007</v>
@@ -7141,7 +7182,7 @@
         <v>188</v>
       </c>
       <c r="L54" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M54" s="23" t="s">
         <v>173</v>
@@ -7161,16 +7202,16 @@
         <v>171</v>
       </c>
       <c r="E55" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H55" s="23" t="s">
         <v>396</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="H55" s="23" t="s">
-        <v>398</v>
       </c>
       <c r="I55" s="23">
         <v>119342007</v>
@@ -7182,7 +7223,7 @@
         <v>188</v>
       </c>
       <c r="L55" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M55" s="23" t="s">
         <v>173</v>
@@ -7202,16 +7243,16 @@
         <v>171</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I56" s="23">
         <v>119342007</v>
@@ -7223,7 +7264,7 @@
         <v>174</v>
       </c>
       <c r="L56" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M56" s="23" t="s">
         <v>173</v>
@@ -7243,16 +7284,16 @@
         <v>171</v>
       </c>
       <c r="E57" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="H57" s="23" t="s">
         <v>400</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G57" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>402</v>
       </c>
       <c r="I57" s="23">
         <v>119342007</v>
@@ -7264,7 +7305,7 @@
         <v>188</v>
       </c>
       <c r="L57" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M57" s="23" t="s">
         <v>173</v>
@@ -7284,16 +7325,16 @@
         <v>171</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I58" s="23">
         <v>119342007</v>
@@ -7305,7 +7346,7 @@
         <v>174</v>
       </c>
       <c r="L58" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M58" s="23" t="s">
         <v>173</v>
@@ -7325,16 +7366,16 @@
         <v>171</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I59" s="23">
         <v>119342007</v>
@@ -7346,7 +7387,7 @@
         <v>188</v>
       </c>
       <c r="L59" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M59" s="23" t="s">
         <v>173</v>
@@ -7366,16 +7407,16 @@
         <v>171</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I60" s="23">
         <v>119342007</v>
@@ -7387,7 +7428,7 @@
         <v>174</v>
       </c>
       <c r="L60" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M60" s="23" t="s">
         <v>173</v>
@@ -7407,16 +7448,16 @@
         <v>171</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I61" s="23">
         <v>119342007</v>
@@ -7428,7 +7469,7 @@
         <v>188</v>
       </c>
       <c r="L61" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M61" s="23" t="s">
         <v>173</v>
@@ -7448,16 +7489,16 @@
         <v>171</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I62" s="23">
         <v>119342007</v>
@@ -7469,7 +7510,7 @@
         <v>188</v>
       </c>
       <c r="L62" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M62" s="23" t="s">
         <v>173</v>
@@ -7953,7 +7994,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7978,7 +8019,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>13</v>
@@ -8050,7 +8091,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>3</v>
@@ -8174,7 +8215,7 @@
         <v>424519000</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F9" s="25">
         <v>1</v>
@@ -8189,7 +8230,7 @@
         <v>134</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8200,7 +8241,7 @@
         <v>424519000</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F10" s="25">
         <v>1</v>
@@ -8215,7 +8256,7 @@
         <v>134</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8226,7 +8267,7 @@
         <v>1119305005</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F11" s="25">
         <v>1</v>
@@ -8238,10 +8279,10 @@
         <v>40733004</v>
       </c>
       <c r="I11" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K11" s="23" t="s">
         <v>385</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8252,7 +8293,7 @@
         <v>1119305005</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F12" s="25">
         <v>1</v>
@@ -8264,10 +8305,10 @@
         <v>40733004</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8278,7 +8319,7 @@
         <v>1119305005</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F13" s="25">
         <v>1</v>
@@ -8290,10 +8331,10 @@
         <v>40733004</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8304,7 +8345,7 @@
         <v>1119349007</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F14" s="25">
         <v>1</v>
@@ -8316,10 +8357,10 @@
         <v>40733004</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8330,7 +8371,7 @@
         <v>1119349007</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F15" s="25">
         <v>1</v>
@@ -8342,10 +8383,10 @@
         <v>40733004</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -8371,8 +8412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8393,7 +8434,7 @@
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>13</v>
@@ -8459,7 +8500,7 @@
         <v>103</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8476,13 +8517,13 @@
         <v>116</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>103</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8505,7 +8546,7 @@
         <v>103</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8528,7 +8569,7 @@
         <v>103</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8551,7 +8592,7 @@
         <v>144</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8574,7 +8615,7 @@
         <v>160</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -8597,7 +8638,7 @@
         <v>160</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8620,7 +8661,7 @@
         <v>161</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -8643,7 +8684,7 @@
         <v>162</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -8660,13 +8701,13 @@
         <v>116</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -8689,7 +8730,7 @@
         <v>163</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -8712,7 +8753,7 @@
         <v>164</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -8735,7 +8776,7 @@
         <v>165</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -8758,7 +8799,7 @@
         <v>166</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -8781,7 +8822,7 @@
         <v>168</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -8804,7 +8845,7 @@
         <v>165</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -8821,13 +8862,13 @@
         <v>116</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -8844,13 +8885,13 @@
         <v>116</v>
       </c>
       <c r="G23" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>273</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -8867,13 +8908,13 @@
         <v>116</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -8890,13 +8931,13 @@
         <v>116</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -8909,10 +8950,10 @@
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -8925,10 +8966,10 @@
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -8941,10 +8982,10 @@
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -8955,10 +8996,10 @@
         <v>114</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -8969,10 +9010,10 @@
         <v>114</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -8983,10 +9024,10 @@
         <v>114</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -8997,10 +9038,10 @@
         <v>114</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -9011,10 +9052,10 @@
         <v>114</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -9025,10 +9066,10 @@
         <v>114</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -9039,10 +9080,10 @@
         <v>114</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -9053,10 +9094,10 @@
         <v>114</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -9067,10 +9108,10 @@
         <v>114</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -9081,10 +9122,10 @@
         <v>114</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -9095,10 +9136,10 @@
         <v>114</v>
       </c>
       <c r="G39" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="I39" s="26" t="s">
         <v>327</v>
-      </c>
-      <c r="I39" s="26" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -9109,10 +9150,10 @@
         <v>114</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>269</v>
+        <v>406</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -9123,10 +9164,10 @@
         <v>114</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -9137,10 +9178,10 @@
         <v>114</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -9151,10 +9192,10 @@
         <v>114</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-FAST\GITHub_SmICS\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Movement" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="407">
   <si>
     <t>Impfstoff</t>
   </si>
@@ -677,12 +682,6 @@
     <t>2020-02-13T16:47:45Z</t>
   </si>
   <si>
-    <t>2020-02-10T15:24:08</t>
-  </si>
-  <si>
-    <t>2020-02-17T17:24:08</t>
-  </si>
-  <si>
     <t>2020-03-13T18:59:59Z</t>
   </si>
   <si>
@@ -1170,12 +1169,87 @@
   </si>
   <si>
     <t>2021-01-03T13:48:00</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Severe acute respiratory syndrome coronavirus 2 antigen (medicinal product)</t>
+  </si>
+  <si>
+    <t>Infectious disease (disorder)</t>
+  </si>
+  <si>
+    <t>code_string2</t>
+  </si>
+  <si>
+    <t>2021-01-05T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-09T10:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-07T12:30:00Z</t>
+  </si>
+  <si>
+    <t>Vaccine product containing only Severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid (medicinal product)</t>
+  </si>
+  <si>
+    <t>2021-01-09T12:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-08T16:35:00Z</t>
+  </si>
+  <si>
+    <t>00000035</t>
+  </si>
+  <si>
+    <t>2021-01-05T10:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-10T11:30:00Z</t>
+  </si>
+  <si>
+    <t>00000036</t>
+  </si>
+  <si>
+    <t>2021-01-04T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-08T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-10T10:30:00Z</t>
+  </si>
+  <si>
+    <t>00000037</t>
+  </si>
+  <si>
+    <t>00000038</t>
+  </si>
+  <si>
+    <t>2021-01-03T10:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-06T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-07T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-09T10:10:00Z</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>2021-01-02T13:45:00</t>
+  </si>
+  <si>
+    <t>2021-01-05T09:30:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1333,12 +1407,9 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1366,6 +1437,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1410,13 +1490,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="B5:K73" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="B5:K73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="B5:K80" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="B5:K80"/>
   <tableColumns count="10">
     <tableColumn id="1" name="//"/>
     <tableColumn id="2" name="ehr_id"/>
-    <tableColumn id="3" name="Station" dataDxfId="1"/>
-    <tableColumn id="10" name="code_string" dataDxfId="0"/>
+    <tableColumn id="3" name="Station" dataDxfId="14"/>
+    <tableColumn id="10" name="code_string" dataDxfId="13"/>
     <tableColumn id="4" name="Fachabteilungsschlüssel"/>
     <tableColumn id="5" name="Beginn"/>
     <tableColumn id="6" name="Ende"/>
@@ -1450,8 +1530,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B5:O55" totalsRowShown="0">
-  <autoFilter ref="B5:O55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B5:O68" totalsRowShown="0">
+  <autoFilter ref="B5:O68"/>
   <tableColumns count="14">
     <tableColumn id="1" name="//"/>
     <tableColumn id="2" name="ehr_id"/>
@@ -1473,17 +1553,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B4:I19" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="B4:I19"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B4:K19" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="B4:K19"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="//" dataDxfId="9"/>
     <tableColumn id="2" name="ehr_id" dataDxfId="8"/>
-    <tableColumn id="3" name="Impfstoff" dataDxfId="7"/>
-    <tableColumn id="4" name="Dosierungsreihenfolge" dataDxfId="6"/>
-    <tableColumn id="5" name="Dosiermenge" dataDxfId="5"/>
-    <tableColumn id="6" name="Impfung gegen" dataDxfId="4"/>
-    <tableColumn id="7" name="Abwesenheit" dataDxfId="3"/>
-    <tableColumn id="8" name="start_time" dataDxfId="2"/>
+    <tableColumn id="9" name="code_string" dataDxfId="7"/>
+    <tableColumn id="3" name="Impfstoff" dataDxfId="6"/>
+    <tableColumn id="4" name="Dosierungsreihenfolge" dataDxfId="5"/>
+    <tableColumn id="5" name="Dosiermenge" dataDxfId="4"/>
+    <tableColumn id="10" name="code_string2" dataDxfId="3"/>
+    <tableColumn id="6" name="Impfung gegen" dataDxfId="2"/>
+    <tableColumn id="7" name="Abwesenheit" dataDxfId="1"/>
+    <tableColumn id="8" name="start_time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1507,9 +1589,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1547,9 +1629,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1584,7 +1666,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1619,7 +1701,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1793,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K72"/>
+  <dimension ref="A2:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,7 +1899,7 @@
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>13</v>
@@ -1910,9 +1992,11 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E6" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>105</v>
@@ -1927,7 +2011,7 @@
         <v>106</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K6" s="23" t="s">
         <v>104</v>
@@ -1937,9 +2021,11 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E7" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>105</v>
@@ -1954,7 +2040,7 @@
         <v>106</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K7" s="23" t="s">
         <v>104</v>
@@ -1964,9 +2050,11 @@
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E8" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>105</v>
@@ -1981,7 +2069,7 @@
         <v>128</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>104</v>
@@ -1991,9 +2079,11 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E9" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>105</v>
@@ -2008,7 +2098,7 @@
         <v>128</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>104</v>
@@ -2018,9 +2108,11 @@
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E10" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>142</v>
@@ -2035,7 +2127,7 @@
         <v>145</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K10" s="23" t="s">
         <v>104</v>
@@ -2045,9 +2137,11 @@
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E11" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>142</v>
@@ -2062,7 +2156,7 @@
         <v>146</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K11" s="23" t="s">
         <v>104</v>
@@ -2072,9 +2166,11 @@
       <c r="B12" s="18">
         <v>6</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E12" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F12" s="23" t="s">
         <v>142</v>
@@ -2089,7 +2185,7 @@
         <v>145</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K12" s="23" t="s">
         <v>104</v>
@@ -2099,9 +2195,11 @@
       <c r="B13" s="18">
         <v>7</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E13" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>142</v>
@@ -2116,7 +2214,7 @@
         <v>145</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K13" s="23" t="s">
         <v>104</v>
@@ -2126,9 +2224,11 @@
       <c r="B14" s="18">
         <v>8</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E14" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>142</v>
@@ -2143,7 +2243,7 @@
         <v>169</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K14" s="23" t="s">
         <v>104</v>
@@ -2153,9 +2253,11 @@
       <c r="B15" s="18">
         <v>9</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E15" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>142</v>
@@ -2170,7 +2272,7 @@
         <v>169</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K15" s="23" t="s">
         <v>104</v>
@@ -2180,9 +2282,11 @@
       <c r="B16" s="18">
         <v>10</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E16" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>157</v>
@@ -2197,7 +2301,7 @@
         <v>106</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K16" s="23" t="s">
         <v>104</v>
@@ -2207,9 +2311,11 @@
       <c r="B17" s="18">
         <v>10</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E17" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>158</v>
@@ -2221,10 +2327,10 @@
         <v>163</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K17" s="23" t="s">
         <v>104</v>
@@ -2234,9 +2340,11 @@
       <c r="B18" s="18">
         <v>11</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E18" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>157</v>
@@ -2251,7 +2359,7 @@
         <v>106</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K18" s="23" t="s">
         <v>104</v>
@@ -2261,9 +2369,11 @@
       <c r="B19" s="18">
         <v>11</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E19" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>157</v>
@@ -2278,7 +2388,7 @@
         <v>128</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>104</v>
@@ -2288,9 +2398,11 @@
       <c r="B20" s="18">
         <v>12</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E20" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F20" s="23" t="s">
         <v>157</v>
@@ -2305,7 +2417,7 @@
         <v>106</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>104</v>
@@ -2315,9 +2427,11 @@
       <c r="B21" s="18">
         <v>13</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E21" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F21" s="23" t="s">
         <v>157</v>
@@ -2332,7 +2446,7 @@
         <v>106</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>104</v>
@@ -2343,7 +2457,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E22" s="26">
         <v>3700</v>
@@ -2361,7 +2475,7 @@
         <v>106</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>104</v>
@@ -2371,9 +2485,11 @@
       <c r="B23" s="18">
         <v>14</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E23" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>142</v>
@@ -2388,7 +2504,7 @@
         <v>145</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>104</v>
@@ -2398,9 +2514,11 @@
       <c r="B24" s="18">
         <v>15</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E24" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>157</v>
@@ -2415,7 +2533,7 @@
         <v>106</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K24" s="23" t="s">
         <v>104</v>
@@ -2425,9 +2543,11 @@
       <c r="B25" s="18">
         <v>16</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="26" t="s">
+        <v>351</v>
+      </c>
       <c r="E25" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>157</v>
@@ -2442,7 +2562,7 @@
         <v>106</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>104</v>
@@ -2453,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E26" s="26">
         <v>3700</v>
@@ -2462,16 +2582,16 @@
         <v>159</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K26" s="23" t="s">
         <v>104</v>
@@ -2482,7 +2602,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E27" s="26">
         <v>3700</v>
@@ -2491,16 +2611,16 @@
         <v>159</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K27" s="23" t="s">
         <v>104</v>
@@ -2511,25 +2631,25 @@
         <v>19</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>142</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K28" s="23" t="s">
         <v>104</v>
@@ -2540,7 +2660,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E29" s="26">
         <v>3700</v>
@@ -2549,16 +2669,16 @@
         <v>159</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J29" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K29" s="23" t="s">
         <v>104</v>
@@ -2569,7 +2689,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E30" s="26">
         <v>3700</v>
@@ -2578,16 +2698,16 @@
         <v>159</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I30" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J30" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K30" s="23" t="s">
         <v>104</v>
@@ -2598,25 +2718,25 @@
         <v>21</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>142</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I31" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J31" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K31" s="23" t="s">
         <v>104</v>
@@ -2627,7 +2747,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E32" s="26">
         <v>3700</v>
@@ -2636,16 +2756,16 @@
         <v>159</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I32" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K32" s="23" t="s">
         <v>104</v>
@@ -2656,25 +2776,25 @@
         <v>21</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K33" s="23" t="s">
         <v>104</v>
@@ -2688,7 +2808,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E34" s="26">
         <v>3700</v>
@@ -2697,13 +2817,13 @@
         <v>159</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I34" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J34" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K34" s="23" t="s">
         <v>104</v>
@@ -2717,7 +2837,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E35" s="26">
         <v>3700</v>
@@ -2726,13 +2846,13 @@
         <v>159</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K35" s="23" t="s">
         <v>104</v>
@@ -2743,7 +2863,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E36" s="26">
         <v>3700</v>
@@ -2752,13 +2872,13 @@
         <v>159</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I36" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J36" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K36" s="23" t="s">
         <v>104</v>
@@ -2772,7 +2892,7 @@
         <v>24</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E37" s="26">
         <v>3700</v>
@@ -2781,13 +2901,13 @@
         <v>159</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I37" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K37" s="23" t="s">
         <v>104</v>
@@ -2801,7 +2921,7 @@
         <v>25</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E38" s="26">
         <v>3700</v>
@@ -2810,13 +2930,13 @@
         <v>159</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I38" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J38" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K38" s="23" t="s">
         <v>104</v>
@@ -2830,7 +2950,7 @@
         <v>26</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E39" s="26">
         <v>3700</v>
@@ -2839,13 +2959,13 @@
         <v>159</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I39" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K39" s="23" t="s">
         <v>104</v>
@@ -2856,25 +2976,25 @@
         <v>27</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>142</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I40" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K40" s="23" t="s">
         <v>104</v>
@@ -2885,7 +3005,7 @@
         <v>27</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E41" s="26">
         <v>3700</v>
@@ -2894,16 +3014,16 @@
         <v>159</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I41" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K41" s="23" t="s">
         <v>104</v>
@@ -2914,7 +3034,7 @@
         <v>27</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E42" s="26">
         <v>3700</v>
@@ -2923,13 +3043,13 @@
         <v>159</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I42" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K42" s="23" t="s">
         <v>104</v>
@@ -2940,7 +3060,7 @@
         <v>28</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E43" s="26">
         <v>3700</v>
@@ -2949,13 +3069,13 @@
         <v>159</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I43" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J43" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K43" s="23" t="s">
         <v>104</v>
@@ -2966,7 +3086,7 @@
         <v>29</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E44" s="26">
         <v>3700</v>
@@ -2975,13 +3095,13 @@
         <v>159</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I44" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K44" s="23" t="s">
         <v>104</v>
@@ -2992,25 +3112,25 @@
         <v>30</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F45" s="23" t="s">
         <v>142</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I45" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K45" s="23" t="s">
         <v>104</v>
@@ -3021,7 +3141,7 @@
         <v>30</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E46" s="26">
         <v>3700</v>
@@ -3030,13 +3150,13 @@
         <v>159</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I46" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K46" s="23" t="s">
         <v>104</v>
@@ -3047,7 +3167,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E47" s="26">
         <v>3700</v>
@@ -3056,16 +3176,16 @@
         <v>159</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I47" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K47" s="23" t="s">
         <v>104</v>
@@ -3076,7 +3196,7 @@
         <v>31</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E48" s="26">
         <v>3700</v>
@@ -3085,13 +3205,13 @@
         <v>159</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I48" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K48" s="23" t="s">
         <v>104</v>
@@ -3102,25 +3222,25 @@
         <v>32</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>142</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I49" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J49" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K49" s="23" t="s">
         <v>104</v>
@@ -3131,7 +3251,7 @@
         <v>32</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E50" s="26">
         <v>3700</v>
@@ -3140,16 +3260,16 @@
         <v>159</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I50" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J50" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K50" s="23" t="s">
         <v>104</v>
@@ -3160,7 +3280,7 @@
         <v>32</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E51" s="26">
         <v>3700</v>
@@ -3169,16 +3289,16 @@
         <v>159</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I51" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J51" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K51" s="23" t="s">
         <v>104</v>
@@ -3189,22 +3309,22 @@
         <v>32</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I52" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J52" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K52" s="23" t="s">
         <v>104</v>
@@ -3215,7 +3335,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E53" s="26">
         <v>3700</v>
@@ -3224,13 +3344,13 @@
         <v>159</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I53" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K53" s="23" t="s">
         <v>104</v>
@@ -3241,7 +3361,7 @@
         <v>34</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E54" s="26">
         <v>3700</v>
@@ -3250,16 +3370,16 @@
         <v>159</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I54" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J54" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K54" s="23" t="s">
         <v>104</v>
@@ -3270,22 +3390,22 @@
         <v>34</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I55" s="23" t="s">
         <v>106</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K55" s="23" t="s">
         <v>104</v>
@@ -3296,28 +3416,28 @@
         <v>17</v>
       </c>
       <c r="D56" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="F56" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="E56" s="26">
-        <v>2100</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>359</v>
-      </c>
       <c r="G56" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="J56" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K56" s="23" t="s">
         <v>356</v>
-      </c>
-      <c r="H56" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="J56" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -3325,28 +3445,28 @@
         <v>17</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>158</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H57" s="23" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J57" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K57" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -3354,7 +3474,7 @@
         <v>17</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E58" s="26">
         <v>3700</v>
@@ -3363,19 +3483,19 @@
         <v>159</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K58" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -3383,7 +3503,7 @@
         <v>20</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E59" s="26">
         <v>3700</v>
@@ -3392,19 +3512,19 @@
         <v>159</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J59" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K59" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -3412,28 +3532,28 @@
         <v>20</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I60" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J60" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K60" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -3441,28 +3561,28 @@
         <v>20</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I61" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J61" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K61" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
@@ -3470,7 +3590,7 @@
         <v>20</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E62" s="26">
         <v>3700</v>
@@ -3479,19 +3599,19 @@
         <v>159</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H62" s="23" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J62" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K62" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
@@ -3499,28 +3619,28 @@
         <v>27</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I63" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J63" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K63" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
@@ -3528,28 +3648,28 @@
         <v>27</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I64" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J64" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K64" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
@@ -3557,28 +3677,28 @@
         <v>27</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I65" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J65" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K65" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
@@ -3586,7 +3706,7 @@
         <v>27</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E66" s="26">
         <v>3700</v>
@@ -3595,19 +3715,19 @@
         <v>159</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J66" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K66" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
@@ -3615,7 +3735,7 @@
         <v>21</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E67" s="26">
         <v>3700</v>
@@ -3624,19 +3744,19 @@
         <v>159</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="I67" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J67" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K67" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
@@ -3644,7 +3764,7 @@
         <v>21</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E68" s="26">
         <v>3700</v>
@@ -3653,19 +3773,19 @@
         <v>159</v>
       </c>
       <c r="G68" s="23" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="I68" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J68" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K68" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
@@ -3673,7 +3793,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E69" s="26">
         <v>3700</v>
@@ -3682,19 +3802,19 @@
         <v>159</v>
       </c>
       <c r="G69" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I69" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J69" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K69" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
@@ -3702,7 +3822,7 @@
         <v>30</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E70" s="26">
         <v>3700</v>
@@ -3711,19 +3831,19 @@
         <v>159</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I70" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J70" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K70" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
@@ -3731,28 +3851,28 @@
         <v>30</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J71" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K71" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -3760,28 +3880,161 @@
         <v>30</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G72" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J72" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K72" s="23" t="s">
-        <v>358</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E73" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="K73" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>36</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="I74" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="K74" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>37</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E75" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="K75" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>38</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="E76" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="I76" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="K76" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>38</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="E77" s="26">
+        <v>3700</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J77" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="K77" s="23" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3798,7 +4051,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,7 +4093,7 @@
     </row>
     <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>13</v>
@@ -4005,7 +4258,7 @@
         <v>118</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>95</v>
@@ -4423,10 +4676,10 @@
         <v>10</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>136</v>
@@ -4438,7 +4691,7 @@
         <v>97</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -4446,13 +4699,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="23" t="s">
         <v>221</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>223</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>96</v>
@@ -4461,7 +4714,7 @@
         <v>97</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -4469,13 +4722,13 @@
         <v>10</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>96</v>
@@ -4484,7 +4737,7 @@
         <v>97</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -4492,13 +4745,13 @@
         <v>11</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>96</v>
@@ -4507,7 +4760,7 @@
         <v>97</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -4515,13 +4768,13 @@
         <v>11</v>
       </c>
       <c r="D31" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" s="23" t="s">
         <v>227</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>229</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>96</v>
@@ -4530,7 +4783,7 @@
         <v>97</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -4538,13 +4791,13 @@
         <v>11</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>96</v>
@@ -4553,7 +4806,7 @@
         <v>120</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4564,10 +4817,10 @@
         <v>12</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>136</v>
@@ -4579,7 +4832,7 @@
         <v>97</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4587,10 +4840,10 @@
         <v>12</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>139</v>
@@ -4602,7 +4855,7 @@
         <v>97</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4610,10 +4863,10 @@
         <v>13</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>181</v>
@@ -4625,7 +4878,7 @@
         <v>97</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4633,10 +4886,10 @@
         <v>13</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>136</v>
@@ -4648,7 +4901,7 @@
         <v>97</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4656,10 +4909,10 @@
         <v>13</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>139</v>
@@ -4671,7 +4924,7 @@
         <v>97</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -4679,7 +4932,7 @@
         <v>15</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J38" s="23" t="s">
         <v>214</v>
@@ -4693,7 +4946,7 @@
         <v>15</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J39" s="23" t="s">
         <v>214</v>
@@ -4707,7 +4960,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J40" s="23" t="s">
         <v>214</v>
@@ -4721,13 +4974,13 @@
         <v>16</v>
       </c>
       <c r="D41" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="M41" s="23" t="s">
         <v>252</v>
-      </c>
-      <c r="L41" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="M41" s="23" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4747,8 +5000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4776,7 +5029,7 @@
     </row>
     <row r="3" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>13</v>
@@ -4911,10 +5164,10 @@
         <v>171</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G6" s="23" t="s">
         <v>135</v>
@@ -4952,13 +5205,13 @@
         <v>186</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>187</v>
@@ -4993,10 +5246,10 @@
         <v>186</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>195</v>
@@ -5034,10 +5287,10 @@
         <v>200</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>203</v>
@@ -5075,10 +5328,10 @@
         <v>210</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G10" s="23" t="s">
         <v>212</v>
@@ -5116,10 +5369,10 @@
         <v>216</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>218</v>
@@ -5154,19 +5407,19 @@
         <v>11</v>
       </c>
       <c r="D12" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>235</v>
-      </c>
       <c r="H12" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I12" s="23">
         <v>119342007</v>
@@ -5178,7 +5431,7 @@
         <v>188</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M12" s="23" t="s">
         <v>173</v>
@@ -5195,19 +5448,19 @@
         <v>15</v>
       </c>
       <c r="D13" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>251</v>
-      </c>
       <c r="H13" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I13" s="23">
         <v>119342007</v>
@@ -5219,7 +5472,7 @@
         <v>174</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M13" s="23" t="s">
         <v>173</v>
@@ -5236,19 +5489,19 @@
         <v>16</v>
       </c>
       <c r="D14" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>258</v>
-      </c>
       <c r="H14" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I14" s="23">
         <v>119342007</v>
@@ -5260,7 +5513,7 @@
         <v>174</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M14" s="23" t="s">
         <v>173</v>
@@ -5280,16 +5533,16 @@
         <v>171</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G15" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="23" t="s">
         <v>263</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>265</v>
       </c>
       <c r="I15" s="23">
         <v>119342007</v>
@@ -5301,7 +5554,7 @@
         <v>188</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>173</v>
@@ -5321,16 +5574,16 @@
         <v>171</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G16" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="23" t="s">
         <v>266</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>268</v>
       </c>
       <c r="I16" s="23">
         <v>119342007</v>
@@ -5342,7 +5595,7 @@
         <v>174</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M16" s="23" t="s">
         <v>173</v>
@@ -5362,16 +5615,16 @@
         <v>171</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G17" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="23" t="s">
         <v>269</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="I17" s="23">
         <v>119342007</v>
@@ -5383,7 +5636,7 @@
         <v>174</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M17" s="23" t="s">
         <v>173</v>
@@ -5403,16 +5656,16 @@
         <v>171</v>
       </c>
       <c r="E18" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>275</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>277</v>
       </c>
       <c r="I18" s="23">
         <v>119342007</v>
@@ -5424,7 +5677,7 @@
         <v>188</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M18" s="23" t="s">
         <v>173</v>
@@ -5444,16 +5697,16 @@
         <v>171</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I19" s="23">
         <v>119342007</v>
@@ -5465,7 +5718,7 @@
         <v>174</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M19" s="23" t="s">
         <v>173</v>
@@ -5479,7 +5732,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -5488,16 +5741,16 @@
         <v>171</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I20" s="23">
         <v>119342007</v>
@@ -5506,10 +5759,10 @@
         <v>172</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M20" s="23" t="s">
         <v>173</v>
@@ -5532,16 +5785,16 @@
         <v>171</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F21" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="H21" s="23" t="s">
         <v>266</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>268</v>
       </c>
       <c r="I21" s="23">
         <v>119342007</v>
@@ -5553,7 +5806,7 @@
         <v>188</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M21" s="23" t="s">
         <v>173</v>
@@ -5567,7 +5820,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -5576,16 +5829,16 @@
         <v>171</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I22" s="23">
         <v>119342007</v>
@@ -5597,7 +5850,7 @@
         <v>174</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M22" s="23" t="s">
         <v>173</v>
@@ -5620,16 +5873,16 @@
         <v>171</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I23" s="23">
         <v>119342007</v>
@@ -5638,10 +5891,10 @@
         <v>172</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M23" s="23" t="s">
         <v>173</v>
@@ -5661,16 +5914,16 @@
         <v>171</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F24" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="H24" s="23" t="s">
         <v>266</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>268</v>
       </c>
       <c r="I24" s="23">
         <v>119342007</v>
@@ -5682,7 +5935,7 @@
         <v>188</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M24" s="23" t="s">
         <v>173</v>
@@ -5703,16 +5956,16 @@
         <v>171</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I25" s="23">
         <v>119342007</v>
@@ -5724,7 +5977,7 @@
         <v>174</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M25" s="23" t="s">
         <v>173</v>
@@ -5744,16 +5997,16 @@
         <v>171</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I26" s="23">
         <v>119342007</v>
@@ -5762,10 +6015,10 @@
         <v>172</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M26" s="23" t="s">
         <v>173</v>
@@ -5786,16 +6039,16 @@
         <v>171</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I27" s="23">
         <v>119342007</v>
@@ -5807,7 +6060,7 @@
         <v>188</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M27" s="23" t="s">
         <v>173</v>
@@ -5828,16 +6081,16 @@
         <v>171</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G28" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I28" s="23">
         <v>119342007</v>
@@ -5849,7 +6102,7 @@
         <v>174</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M28" s="23" t="s">
         <v>173</v>
@@ -5870,16 +6123,16 @@
         <v>171</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I29" s="23">
         <v>119342007</v>
@@ -5891,7 +6144,7 @@
         <v>188</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M29" s="23" t="s">
         <v>173</v>
@@ -5912,16 +6165,16 @@
         <v>171</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I30" s="23">
         <v>119342007</v>
@@ -5933,7 +6186,7 @@
         <v>174</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M30" s="23" t="s">
         <v>173</v>
@@ -5954,16 +6207,16 @@
         <v>171</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G31" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="H31" s="23" t="s">
         <v>269</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>271</v>
       </c>
       <c r="I31" s="23">
         <v>119342007</v>
@@ -5975,7 +6228,7 @@
         <v>188</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M31" s="23" t="s">
         <v>173</v>
@@ -5996,16 +6249,16 @@
         <v>171</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I32" s="23">
         <v>119342007</v>
@@ -6017,7 +6270,7 @@
         <v>174</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M32" s="23" t="s">
         <v>173</v>
@@ -6038,16 +6291,16 @@
         <v>171</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H33" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I33" s="23">
         <v>119342007</v>
@@ -6059,7 +6312,7 @@
         <v>188</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M33" s="23" t="s">
         <v>173</v>
@@ -6082,16 +6335,16 @@
         <v>171</v>
       </c>
       <c r="E34" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>304</v>
-      </c>
       <c r="H34" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I34" s="23">
         <v>119342007</v>
@@ -6103,7 +6356,7 @@
         <v>174</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M34" s="23" t="s">
         <v>173</v>
@@ -6126,16 +6379,16 @@
         <v>171</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I35" s="23">
         <v>119342007</v>
@@ -6147,7 +6400,7 @@
         <v>188</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M35" s="23" t="s">
         <v>173</v>
@@ -6170,16 +6423,16 @@
         <v>171</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I36" s="23">
         <v>119342007</v>
@@ -6191,7 +6444,7 @@
         <v>174</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M36" s="23" t="s">
         <v>173</v>
@@ -6211,16 +6464,16 @@
         <v>171</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I37" s="23">
         <v>119342007</v>
@@ -6232,7 +6485,7 @@
         <v>188</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M37" s="23" t="s">
         <v>173</v>
@@ -6252,16 +6505,16 @@
         <v>171</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H38" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I38" s="23">
         <v>119342007</v>
@@ -6273,7 +6526,7 @@
         <v>174</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M38" s="23" t="s">
         <v>173</v>
@@ -6293,16 +6546,16 @@
         <v>171</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H39" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I39" s="23">
         <v>119342007</v>
@@ -6314,7 +6567,7 @@
         <v>188</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M39" s="23" t="s">
         <v>173</v>
@@ -6334,16 +6587,16 @@
         <v>171</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I40" s="23">
         <v>119342007</v>
@@ -6355,7 +6608,7 @@
         <v>174</v>
       </c>
       <c r="L40" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M40" s="23" t="s">
         <v>173</v>
@@ -6375,16 +6628,16 @@
         <v>171</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I41" s="23">
         <v>119342007</v>
@@ -6396,7 +6649,7 @@
         <v>188</v>
       </c>
       <c r="L41" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M41" s="23" t="s">
         <v>173</v>
@@ -6416,16 +6669,16 @@
         <v>171</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I42" s="23">
         <v>119342007</v>
@@ -6437,7 +6690,7 @@
         <v>174</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M42" s="23" t="s">
         <v>173</v>
@@ -6457,16 +6710,16 @@
         <v>171</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I43" s="23">
         <v>119342007</v>
@@ -6478,7 +6731,7 @@
         <v>188</v>
       </c>
       <c r="L43" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M43" s="23" t="s">
         <v>173</v>
@@ -6498,16 +6751,16 @@
         <v>171</v>
       </c>
       <c r="E44" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G44" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>317</v>
-      </c>
       <c r="H44" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I44" s="23">
         <v>119342007</v>
@@ -6519,7 +6772,7 @@
         <v>174</v>
       </c>
       <c r="L44" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M44" s="23" t="s">
         <v>173</v>
@@ -6539,16 +6792,16 @@
         <v>171</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I45" s="23">
         <v>119342007</v>
@@ -6560,7 +6813,7 @@
         <v>188</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M45" s="23" t="s">
         <v>173</v>
@@ -6580,16 +6833,16 @@
         <v>171</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I46" s="23">
         <v>119342007</v>
@@ -6601,7 +6854,7 @@
         <v>174</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M46" s="23" t="s">
         <v>173</v>
@@ -6621,16 +6874,16 @@
         <v>171</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I47" s="23">
         <v>119342007</v>
@@ -6642,7 +6895,7 @@
         <v>188</v>
       </c>
       <c r="L47" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M47" s="23" t="s">
         <v>173</v>
@@ -6662,16 +6915,16 @@
         <v>171</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I48" s="23">
         <v>119342007</v>
@@ -6683,7 +6936,7 @@
         <v>174</v>
       </c>
       <c r="L48" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M48" s="23" t="s">
         <v>173</v>
@@ -6703,16 +6956,16 @@
         <v>171</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I49" s="23">
         <v>119342007</v>
@@ -6724,7 +6977,7 @@
         <v>188</v>
       </c>
       <c r="L49" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M49" s="23" t="s">
         <v>173</v>
@@ -6744,16 +6997,16 @@
         <v>171</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I50" s="23">
         <v>119342007</v>
@@ -6765,7 +7018,7 @@
         <v>188</v>
       </c>
       <c r="L50" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M50" s="23" t="s">
         <v>173</v>
@@ -6785,16 +7038,16 @@
         <v>171</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I51" s="23">
         <v>119342007</v>
@@ -6806,7 +7059,7 @@
         <v>188</v>
       </c>
       <c r="L51" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M51" s="23" t="s">
         <v>173</v>
@@ -6819,82 +7072,461 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="25"/>
+      <c r="B52">
+        <v>35</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="I52" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O52" s="25">
+        <v>30</v>
+      </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="25"/>
+      <c r="B53">
+        <v>35</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="I53" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J53" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O53" s="25">
+        <v>13</v>
+      </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="25"/>
+      <c r="B54">
+        <v>36</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="I54" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O54" s="25">
+        <v>33</v>
+      </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="25"/>
+      <c r="B55">
+        <v>36</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="I55" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J55" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O55" s="25">
+        <v>16</v>
+      </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="25"/>
+      <c r="B56">
+        <v>36</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="I56" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J56" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="M56" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O56" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="25"/>
+      <c r="B57">
+        <v>37</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="I57" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M57" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O57" s="25">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="25"/>
+      <c r="B58">
+        <v>37</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="I58" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L58" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="M58" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N58" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O58" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="25"/>
+      <c r="B59">
+        <v>37</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="I59" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J59" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K59" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L59" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="M59" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N59" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O59" s="25">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="25"/>
+      <c r="B60">
+        <v>38</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="I60" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K60" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L60" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="M60" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N60" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O60" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="25"/>
+      <c r="B61">
+        <v>38</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="I61" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J61" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K61" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L61" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="M61" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N61" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O61" s="25">
+        <v>17</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="B62">
+        <v>38</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="I62" s="23">
+        <v>119342007</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K62" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L62" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="M62" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N62" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O62" s="25">
+        <v>33</v>
+      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D64" s="27"/>
@@ -7359,80 +7991,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -7443,142 +8079,314 @@
         <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="23">
+        <v>116077000</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
       </c>
       <c r="F5" s="25">
         <v>1</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="25">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23">
+        <v>18624000</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="23">
+        <v>46233009</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="E6" s="25">
-        <v>1</v>
       </c>
       <c r="F6" s="25">
         <v>1</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="23">
+        <v>6142004</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="K6" s="23" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="23">
+        <v>46233009</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
       </c>
       <c r="F7" s="25">
         <v>1</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23">
+        <v>6142004</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="K7" s="23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>14</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="23">
+        <v>46233009</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
       </c>
       <c r="F8" s="25">
         <v>1</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23">
+        <v>6142004</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="K8" s="23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>15</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" s="25">
-        <v>1</v>
+      <c r="D9" s="23">
+        <v>424519000</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="F9" s="25">
         <v>1</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="23">
+        <v>18624000</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>16</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E10" s="25">
-        <v>1</v>
+      <c r="D10" s="23">
+        <v>424519000</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="F10" s="25">
         <v>1</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23">
+        <v>18624000</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="23" t="s">
-        <v>246</v>
+      <c r="K10" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1119305005</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>18</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1119305005</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>19</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1119305005</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>21</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -7602,10 +8410,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I39"/>
+  <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7626,7 +8434,7 @@
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>13</v>
@@ -7692,7 +8500,7 @@
         <v>103</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -7709,13 +8517,13 @@
         <v>116</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>103</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -7738,7 +8546,7 @@
         <v>103</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -7761,7 +8569,7 @@
         <v>103</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -7784,7 +8592,7 @@
         <v>144</v>
       </c>
       <c r="I10" s="26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -7807,7 +8615,7 @@
         <v>160</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -7830,7 +8638,7 @@
         <v>160</v>
       </c>
       <c r="I12" s="26" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -7853,7 +8661,7 @@
         <v>161</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -7876,7 +8684,7 @@
         <v>162</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -7893,13 +8701,13 @@
         <v>116</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -7922,7 +8730,7 @@
         <v>163</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -7945,7 +8753,7 @@
         <v>164</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -7968,7 +8776,7 @@
         <v>165</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -7991,7 +8799,7 @@
         <v>166</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -8014,7 +8822,7 @@
         <v>168</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -8037,7 +8845,7 @@
         <v>165</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -8054,13 +8862,13 @@
         <v>116</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -8077,13 +8885,13 @@
         <v>116</v>
       </c>
       <c r="G23" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>273</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -8100,13 +8908,13 @@
         <v>116</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -8123,13 +8931,13 @@
         <v>116</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -8142,10 +8950,10 @@
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -8158,10 +8966,10 @@
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -8174,10 +8982,10 @@
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -8188,10 +8996,10 @@
         <v>114</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I29" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -8202,10 +9010,10 @@
         <v>114</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -8216,10 +9024,10 @@
         <v>114</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I31" s="26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -8230,10 +9038,10 @@
         <v>114</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -8244,10 +9052,10 @@
         <v>114</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -8258,10 +9066,10 @@
         <v>114</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -8272,10 +9080,10 @@
         <v>114</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -8286,10 +9094,10 @@
         <v>114</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -8300,10 +9108,10 @@
         <v>114</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -8314,10 +9122,10 @@
         <v>114</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -8328,10 +9136,66 @@
         <v>114</v>
       </c>
       <c r="G39" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="I39" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="I39" s="26" t="s">
-        <v>329</v>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>35</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>36</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>37</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>38</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -5001,7 +5001,7 @@
   <dimension ref="A1:O176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Movement" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="416">
   <si>
     <t>Impfstoff</t>
   </si>
@@ -1244,6 +1244,33 @@
   </si>
   <si>
     <t>2021-01-05T09:30:00</t>
+  </si>
+  <si>
+    <t>2021-02-08T16:35:00Z</t>
+  </si>
+  <si>
+    <t>2021-02-08T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-03-25T11:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-14T09:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-03-23T09:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-19T09:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-21T09:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-04-05T09:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-16T09:30:00Z</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1312,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1316,6 +1343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1340,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1401,6 +1434,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1553,8 +1589,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B4:K19" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="B4:K19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B4:K38" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="B4:K38"/>
   <tableColumns count="10">
     <tableColumn id="1" name="//" dataDxfId="9"/>
     <tableColumn id="2" name="ehr_id" dataDxfId="8"/>
@@ -1877,7 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
@@ -4050,8 +4086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4070,21 +4106,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="30" t="s">
+      <c r="K1" s="32"/>
+      <c r="L1" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="30"/>
+      <c r="M1" s="31"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -5000,8 +5036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7991,10 +8027,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8389,13 +8425,361 @@
         <v>390</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="1">
+        <v>21</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F16" s="25">
+        <v>2</v>
+      </c>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+      <c r="H16" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="1">
+        <v>22</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="1">
+        <v>22</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F18" s="25">
+        <v>2</v>
+      </c>
+      <c r="G18" s="25">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="D19" s="23">
+        <v>1119305005</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F19" s="25">
+        <v>1</v>
+      </c>
+      <c r="G19" s="25">
+        <v>1</v>
+      </c>
+      <c r="H19" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="1">
+        <v>23</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="25">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25">
+        <v>1</v>
+      </c>
+      <c r="H20" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="1">
+        <v>24</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="25">
+        <v>1</v>
+      </c>
+      <c r="G21" s="25">
+        <v>1</v>
+      </c>
+      <c r="H21" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="1">
+        <v>25</v>
+      </c>
+      <c r="D22" s="23">
+        <v>1119305005</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F22" s="25">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25">
+        <v>1</v>
+      </c>
+      <c r="H22" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="1">
+        <v>25</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="25">
+        <v>2</v>
+      </c>
+      <c r="G23" s="25">
+        <v>1</v>
+      </c>
+      <c r="H23" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="1">
+        <v>29</v>
+      </c>
+      <c r="D24" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="25">
+        <v>1</v>
+      </c>
+      <c r="G24" s="25">
+        <v>1</v>
+      </c>
+      <c r="H24" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="1">
+        <v>30</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1119305005</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" s="25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="1">
+        <v>30</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1119305005</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F26" s="25">
+        <v>2</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="1">
+        <v>31</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1119349007</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F27" s="25">
+        <v>1</v>
+      </c>
+      <c r="G27" s="25">
+        <v>1</v>
+      </c>
+      <c r="H27" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1">
+        <v>38</v>
+      </c>
+      <c r="D28" s="23">
+        <v>1119305005</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F28" s="25">
+        <v>1</v>
+      </c>
+      <c r="G28" s="25">
+        <v>1</v>
+      </c>
+      <c r="H28" s="23">
+        <v>40733004</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -8412,8 +8796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Movement" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="431">
   <si>
     <t>Impfstoff</t>
   </si>
@@ -1180,24 +1180,12 @@
     <t>code_string2</t>
   </si>
   <si>
-    <t>2021-01-05T11:30:00Z</t>
-  </si>
-  <si>
-    <t>2021-01-09T10:30:00Z</t>
-  </si>
-  <si>
     <t>2021-01-07T12:30:00Z</t>
   </si>
   <si>
     <t>Vaccine product containing only Severe acute respiratory syndrome coronavirus 2 messenger ribonucleic acid (medicinal product)</t>
   </si>
   <si>
-    <t>2021-01-09T12:30:00Z</t>
-  </si>
-  <si>
-    <t>2021-01-08T16:35:00Z</t>
-  </si>
-  <si>
     <t>00000035</t>
   </si>
   <si>
@@ -1244,33 +1232,6 @@
   </si>
   <si>
     <t>2021-01-05T09:30:00</t>
-  </si>
-  <si>
-    <t>2021-02-08T16:35:00Z</t>
-  </si>
-  <si>
-    <t>2021-02-08T11:30:00Z</t>
-  </si>
-  <si>
-    <t>2021-03-25T11:30:00Z</t>
-  </si>
-  <si>
-    <t>2021-01-14T09:30:00Z</t>
-  </si>
-  <si>
-    <t>2021-03-23T09:30:00Z</t>
-  </si>
-  <si>
-    <t>2021-01-19T09:30:00Z</t>
-  </si>
-  <si>
-    <t>2021-01-21T09:30:00Z</t>
-  </si>
-  <si>
-    <t>2021-04-05T09:30:00Z</t>
-  </si>
-  <si>
-    <t>2021-01-16T09:30:00Z</t>
   </si>
   <si>
     <t>2020-12-01T12:13:00Z</t>
@@ -1396,7 +1357,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1427,12 +1388,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1457,7 +1412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1517,7 +1472,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1668,8 +1622,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B4:K37" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="B4:K37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B4:K20" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="B4:K20"/>
   <tableColumns count="10">
     <tableColumn id="1" name="//" dataDxfId="9"/>
     <tableColumn id="2" name="ehr_id" dataDxfId="8"/>
@@ -1992,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3534,7 +3488,7 @@
         <v>355</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>357</v>
@@ -3888,10 +3842,10 @@
         <v>159</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I68" s="22" t="s">
         <v>355</v>
@@ -4039,7 +3993,7 @@
         <v>106</v>
       </c>
       <c r="J73" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K73" s="22" t="s">
         <v>104</v>
@@ -4065,7 +4019,7 @@
         <v>106</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K74" s="22" t="s">
         <v>104</v>
@@ -4091,7 +4045,7 @@
         <v>106</v>
       </c>
       <c r="J75" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K75" s="22" t="s">
         <v>104</v>
@@ -4114,13 +4068,13 @@
         <v>278</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I76" s="22" t="s">
         <v>106</v>
       </c>
       <c r="J76" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K76" s="22" t="s">
         <v>104</v>
@@ -4140,13 +4094,13 @@
         <v>159</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I77" s="22" t="s">
         <v>128</v>
       </c>
       <c r="J77" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K77" s="22" t="s">
         <v>104</v>
@@ -4165,7 +4119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -5115,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,7 +7148,7 @@
         <v>171</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>262</v>
@@ -7203,7 +7157,7 @@
         <v>267</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="I52" s="22">
         <v>119342007</v>
@@ -7235,7 +7189,7 @@
         <v>171</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>265</v>
@@ -7244,7 +7198,7 @@
         <v>302</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I53" s="22">
         <v>119342007</v>
@@ -7276,7 +7230,7 @@
         <v>171</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F54" s="25" t="s">
         <v>262</v>
@@ -7285,7 +7239,7 @@
         <v>276</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I54" s="22">
         <v>119342007</v>
@@ -7317,7 +7271,7 @@
         <v>171</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>265</v>
@@ -7326,7 +7280,7 @@
         <v>294</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I55" s="22">
         <v>119342007</v>
@@ -7358,7 +7312,7 @@
         <v>171</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>268</v>
@@ -7367,7 +7321,7 @@
         <v>302</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I56" s="22">
         <v>119342007</v>
@@ -7399,7 +7353,7 @@
         <v>171</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F57" s="25" t="s">
         <v>262</v>
@@ -7408,7 +7362,7 @@
         <v>264</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I57" s="22">
         <v>119342007</v>
@@ -7440,7 +7394,7 @@
         <v>171</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>265</v>
@@ -7449,7 +7403,7 @@
         <v>286</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I58" s="22">
         <v>119342007</v>
@@ -7481,7 +7435,7 @@
         <v>171</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>268</v>
@@ -7490,7 +7444,7 @@
         <v>294</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I59" s="22">
         <v>119342007</v>
@@ -7522,7 +7476,7 @@
         <v>171</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>262</v>
@@ -7531,7 +7485,7 @@
         <v>278</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I60" s="22">
         <v>119342007</v>
@@ -7563,7 +7517,7 @@
         <v>171</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>265</v>
@@ -7604,7 +7558,7 @@
         <v>171</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>268</v>
@@ -7638,7 +7592,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
+      <c r="A63" s="17"/>
       <c r="B63">
         <v>1</v>
       </c>
@@ -7652,10 +7606,10 @@
         <v>262</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="I63" s="22">
         <v>119342007</v>
@@ -7667,7 +7621,7 @@
         <v>174</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="M63" s="22" t="s">
         <v>173</v>
@@ -7680,7 +7634,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
+      <c r="A64" s="17"/>
       <c r="B64">
         <v>1</v>
       </c>
@@ -7694,10 +7648,10 @@
         <v>265</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="I64" s="22">
         <v>119342007</v>
@@ -7709,7 +7663,7 @@
         <v>188</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="M64" s="22" t="s">
         <v>173</v>
@@ -7722,7 +7676,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
+      <c r="A65" s="17"/>
       <c r="B65">
         <v>2</v>
       </c>
@@ -7736,10 +7690,10 @@
         <v>262</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="I65" s="22">
         <v>119342007</v>
@@ -7751,7 +7705,7 @@
         <v>174</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="M65" s="22" t="s">
         <v>173</v>
@@ -7764,7 +7718,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
+      <c r="A66" s="17"/>
       <c r="B66">
         <v>2</v>
       </c>
@@ -7778,10 +7732,10 @@
         <v>265</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="I66" s="22">
         <v>119342007</v>
@@ -7793,7 +7747,7 @@
         <v>188</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="M66" s="22" t="s">
         <v>173</v>
@@ -7806,7 +7760,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
+      <c r="A67" s="17"/>
       <c r="B67">
         <v>3</v>
       </c>
@@ -7820,10 +7774,10 @@
         <v>262</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="I67" s="22">
         <v>119342007</v>
@@ -7835,7 +7789,7 @@
         <v>174</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="M67" s="22" t="s">
         <v>173</v>
@@ -7848,7 +7802,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
+      <c r="A68" s="17"/>
       <c r="B68">
         <v>3</v>
       </c>
@@ -7862,10 +7816,10 @@
         <v>265</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="I68" s="22">
         <v>119342007</v>
@@ -7877,7 +7831,7 @@
         <v>188</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="M68" s="22" t="s">
         <v>173</v>
@@ -7904,10 +7858,10 @@
         <v>262</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="I69" s="22">
         <v>119342007</v>
@@ -7919,7 +7873,7 @@
         <v>174</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="M69" s="22" t="s">
         <v>173</v>
@@ -7946,10 +7900,10 @@
         <v>265</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="I70" s="22">
         <v>119342007</v>
@@ -7961,7 +7915,7 @@
         <v>188</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="M70" s="22" t="s">
         <v>173</v>
@@ -7988,10 +7942,10 @@
         <v>265</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="I71" s="22">
         <v>119342007</v>
@@ -8003,7 +7957,7 @@
         <v>188</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M71" s="22" t="s">
         <v>173</v>
@@ -8030,10 +7984,10 @@
         <v>265</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="I72" s="22">
         <v>119342007</v>
@@ -8045,7 +7999,7 @@
         <v>174</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="M72" s="22" t="s">
         <v>173</v>
@@ -8072,10 +8026,10 @@
         <v>265</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="I73" s="22">
         <v>119342007</v>
@@ -8087,7 +8041,7 @@
         <v>188</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="M73" s="22" t="s">
         <v>173</v>
@@ -8114,10 +8068,10 @@
         <v>265</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="I74" s="22">
         <v>119342007</v>
@@ -8129,7 +8083,7 @@
         <v>174</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="M74" s="22" t="s">
         <v>173</v>
@@ -8156,10 +8110,10 @@
         <v>262</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="I75" s="22">
         <v>119342007</v>
@@ -8171,7 +8125,7 @@
         <v>174</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="M75" s="22" t="s">
         <v>173</v>
@@ -8198,10 +8152,10 @@
         <v>265</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="I76" s="22">
         <v>119342007</v>
@@ -8213,7 +8167,7 @@
         <v>188</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="M76" s="22" t="s">
         <v>173</v>
@@ -8240,10 +8194,10 @@
         <v>265</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="I77" s="22">
         <v>119342007</v>
@@ -8255,7 +8209,7 @@
         <v>188</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="M77" s="22" t="s">
         <v>173</v>
@@ -8683,10 +8637,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A8:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8952,8 +8906,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B11" s="1">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D11" s="22">
         <v>1119305005</v>
@@ -8978,14 +8935,17 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B12" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D12" s="22">
-        <v>1119305005</v>
+        <v>1119349007</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F12" s="24">
         <v>1</v>
@@ -9000,18 +8960,18 @@
         <v>383</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D13" s="22">
-        <v>1119305005</v>
+        <v>1119349007</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F13" s="24">
         <v>1</v>
@@ -9026,18 +8986,18 @@
         <v>383</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>386</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D14" s="22">
         <v>1119349007</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F14" s="24">
         <v>1</v>
@@ -9052,18 +9012,18 @@
         <v>383</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>389</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D15" s="22">
         <v>1119349007</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F15" s="24">
         <v>1</v>
@@ -9078,455 +9038,7 @@
         <v>383</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <v>21</v>
-      </c>
-      <c r="D16" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F16" s="24">
-        <v>2</v>
-      </c>
-      <c r="G16" s="24">
-        <v>1</v>
-      </c>
-      <c r="H16" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <v>22</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F17" s="24">
-        <v>1</v>
-      </c>
-      <c r="G17" s="24">
-        <v>1</v>
-      </c>
-      <c r="H17" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K17" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <v>22</v>
-      </c>
-      <c r="D18" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F18" s="24">
-        <v>2</v>
-      </c>
-      <c r="G18" s="24">
-        <v>1</v>
-      </c>
-      <c r="H18" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <v>23</v>
-      </c>
-      <c r="D19" s="22">
-        <v>1119305005</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="F19" s="24">
-        <v>1</v>
-      </c>
-      <c r="G19" s="24">
-        <v>1</v>
-      </c>
-      <c r="H19" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>23</v>
-      </c>
-      <c r="D20" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F20" s="24">
-        <v>2</v>
-      </c>
-      <c r="G20" s="24">
-        <v>1</v>
-      </c>
-      <c r="H20" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <v>24</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F21" s="24">
-        <v>1</v>
-      </c>
-      <c r="G21" s="24">
-        <v>1</v>
-      </c>
-      <c r="H21" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K21" s="22" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <v>25</v>
-      </c>
-      <c r="D22" s="22">
-        <v>1119305005</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="F22" s="24">
-        <v>1</v>
-      </c>
-      <c r="G22" s="24">
-        <v>1</v>
-      </c>
-      <c r="H22" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <v>25</v>
-      </c>
-      <c r="D23" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F23" s="24">
-        <v>2</v>
-      </c>
-      <c r="G23" s="24">
-        <v>1</v>
-      </c>
-      <c r="H23" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <v>29</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F24" s="24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <v>30</v>
-      </c>
-      <c r="D25" s="22">
-        <v>1119305005</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="F25" s="24">
-        <v>1</v>
-      </c>
-      <c r="G25" s="24">
-        <v>1</v>
-      </c>
-      <c r="H25" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>30</v>
-      </c>
-      <c r="D26" s="22">
-        <v>1119305005</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="F26" s="24">
-        <v>2</v>
-      </c>
-      <c r="G26" s="24">
-        <v>1</v>
-      </c>
-      <c r="H26" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <v>31</v>
-      </c>
-      <c r="D27" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F27" s="24">
-        <v>1</v>
-      </c>
-      <c r="G27" s="24">
-        <v>1</v>
-      </c>
-      <c r="H27" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1">
-        <v>38</v>
-      </c>
-      <c r="D28" s="22">
-        <v>1119305005</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="F28" s="24">
-        <v>1</v>
-      </c>
-      <c r="G28" s="24">
-        <v>1</v>
-      </c>
-      <c r="H28" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F29" s="24">
-        <v>1</v>
-      </c>
-      <c r="G29" s="24">
-        <v>1</v>
-      </c>
-      <c r="H29" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K29" s="22" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <v>5</v>
-      </c>
-      <c r="D30" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F30" s="24">
-        <v>1</v>
-      </c>
-      <c r="G30" s="24">
-        <v>1</v>
-      </c>
-      <c r="H30" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K30" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="1">
-        <v>7</v>
-      </c>
-      <c r="D31" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F31" s="24">
-        <v>1</v>
-      </c>
-      <c r="G31" s="24">
-        <v>1</v>
-      </c>
-      <c r="H31" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K31" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="1">
-        <v>10</v>
-      </c>
-      <c r="D32" s="22">
-        <v>1119349007</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="F32" s="24">
-        <v>1</v>
-      </c>
-      <c r="G32" s="24">
-        <v>1</v>
-      </c>
-      <c r="H32" s="22">
-        <v>40733004</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="K32" s="22" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9542,7 +9054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -10280,10 +9792,10 @@
         <v>114</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -10297,7 +9809,7 @@
         <v>276</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -10311,7 +9823,7 @@
         <v>264</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -10325,7 +9837,7 @@
         <v>278</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -1946,7 +1946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
@@ -5069,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8640,7 +8640,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9054,8 +9054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Movement" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="425">
   <si>
     <t>Impfstoff</t>
   </si>
@@ -331,12 +331,6 @@
     <t>2020-12-04T12:34:20Z</t>
   </si>
   <si>
-    <t>2020-11-28T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-12-12T12:13:00</t>
-  </si>
-  <si>
     <t>Diagn./Therap.</t>
   </si>
   <si>
@@ -391,9 +385,6 @@
     <t>2020-12-04T01:34:20Z</t>
   </si>
   <si>
-    <t>2020-11-26T12:13:00</t>
-  </si>
-  <si>
     <t>2020-12-03T09:47:45Z</t>
   </si>
   <si>
@@ -406,9 +397,6 @@
     <t>2020-12-04T00:34:20Z</t>
   </si>
   <si>
-    <t>2020-11-27T12:13:00</t>
-  </si>
-  <si>
     <t>Zimmerkennung 102</t>
   </si>
   <si>
@@ -418,9 +406,6 @@
     <t>2020-12-06T00:34:20Z</t>
   </si>
   <si>
-    <t>2020-12-01T12:13:00</t>
-  </si>
-  <si>
     <t>2020-08-13T10:24:08Z</t>
   </si>
   <si>
@@ -448,54 +433,15 @@
     <t>2020-03-14T10:35:20Z</t>
   </si>
   <si>
-    <t>2020-02-05T12:13:00</t>
-  </si>
-  <si>
     <t>Kardiologie</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-02-23T12:13:00</t>
-  </si>
-  <si>
     <t>Zimmerkennung 204</t>
   </si>
   <si>
     <t>Zimmerkennung 202</t>
   </si>
   <si>
-    <t>2020-02-08T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-02-09T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-02-10T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-05T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-14T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-08T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-17T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-10T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-18T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-09T12:13:00</t>
-  </si>
-  <si>
     <t>Hämatologie und internistische Onkologie</t>
   </si>
   <si>
@@ -505,33 +451,6 @@
     <t>Sonstige Fachabteilung</t>
   </si>
   <si>
-    <t>2020-02-20T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-03T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-04T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-20T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-27T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-25T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-29T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-02-17T12:13:00</t>
-  </si>
-  <si>
-    <t>2020-03-21T12:13:00</t>
-  </si>
-  <si>
     <t>Zimmerkennung 203</t>
   </si>
   <si>
@@ -586,9 +505,6 @@
     <t>0002</t>
   </si>
   <si>
-    <t>2020-02-08T11:13:00</t>
-  </si>
-  <si>
     <t>Detected (qualifier value)</t>
   </si>
   <si>
@@ -799,12 +715,6 @@
     <t>00000001</t>
   </si>
   <si>
-    <t>2021-01-01T09:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-05T15:00:00</t>
-  </si>
-  <si>
     <t>Coronastation</t>
   </si>
   <si>
@@ -838,12 +748,6 @@
     <t>00000003</t>
   </si>
   <si>
-    <t>2021-01-02T09:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-07T15:00:00</t>
-  </si>
-  <si>
     <t>00000002</t>
   </si>
   <si>
@@ -865,9 +769,6 @@
     <t>2021-01-07T10:00:00Z</t>
   </si>
   <si>
-    <t>2021-01-03T11:00:00</t>
-  </si>
-  <si>
     <t>2021-01-09T09:30:00Z</t>
   </si>
   <si>
@@ -877,12 +778,6 @@
     <t>00000004</t>
   </si>
   <si>
-    <t>2021-01-09T15:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-03T09:00:00</t>
-  </si>
-  <si>
     <t>2021-01-06T09:30:00Z</t>
   </si>
   <si>
@@ -892,18 +787,6 @@
     <t>00000005</t>
   </si>
   <si>
-    <t>2021-01-04T11:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-04T15:30:00</t>
-  </si>
-  <si>
-    <t>2021-01-06T16:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-08T14:00:00</t>
-  </si>
-  <si>
     <t>Intensivstation</t>
   </si>
   <si>
@@ -916,21 +799,12 @@
     <t>00000006</t>
   </si>
   <si>
-    <t>2021-01-04T09:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-05T09:00:00</t>
-  </si>
-  <si>
     <t>00000007</t>
   </si>
   <si>
     <t>00000008</t>
   </si>
   <si>
-    <t>2021-01-06T09:00:00</t>
-  </si>
-  <si>
     <t>2021-01-10T09:30:00Z</t>
   </si>
   <si>
@@ -946,12 +820,6 @@
     <t>00000011</t>
   </si>
   <si>
-    <t>2021-01-06T08:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-07T16:00:00</t>
-  </si>
-  <si>
     <t>Radiologie</t>
   </si>
   <si>
@@ -967,9 +835,6 @@
     <t>00000013</t>
   </si>
   <si>
-    <t>2021-01-07T09:00:00</t>
-  </si>
-  <si>
     <t>2021-01-12T09:30:00Z</t>
   </si>
   <si>
@@ -979,39 +844,18 @@
     <t>00000014</t>
   </si>
   <si>
-    <t>2021-01-07T14:00:00</t>
-  </si>
-  <si>
     <t>00000015</t>
   </si>
   <si>
-    <t>2021-01-08T13:00:00</t>
-  </si>
-  <si>
     <t>00000016</t>
   </si>
   <si>
-    <t>2021-01-03T12:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-09T13:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-10T20:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-10T09:00:00</t>
-  </si>
-  <si>
     <t>00000017</t>
   </si>
   <si>
     <t>00000018</t>
   </si>
   <si>
-    <t>2021-01-10T18:00:00</t>
-  </si>
-  <si>
     <t>00000019</t>
   </si>
   <si>
@@ -1084,12 +928,6 @@
     <t>Stationskennung Y</t>
   </si>
   <si>
-    <t>2021-01-09T09:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-03T15:00:00</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -1111,66 +949,30 @@
     <t>0500</t>
   </si>
   <si>
-    <t>2021-01-03T19:40:00</t>
-  </si>
-  <si>
-    <t>2021-01-04T10:40:00</t>
-  </si>
-  <si>
-    <t>2021-01-06T15:00:00</t>
-  </si>
-  <si>
-    <t>2021-01-06T17:34:00</t>
-  </si>
-  <si>
     <t>Pneumologie</t>
   </si>
   <si>
     <t>0800</t>
   </si>
   <si>
-    <t>2021-01-07T12:34:00</t>
-  </si>
-  <si>
     <t>Lungen- und Bronchialheilkunde</t>
   </si>
   <si>
     <t>1400</t>
   </si>
   <si>
-    <t>2021-01-08T15:25:00</t>
-  </si>
-  <si>
-    <t>2021-01-04T15:46:00</t>
-  </si>
-  <si>
     <t>Neurologie</t>
   </si>
   <si>
     <t>2800</t>
   </si>
   <si>
-    <t>2021-01-05T09:46:00</t>
-  </si>
-  <si>
     <t>Strahlenheilkunde</t>
   </si>
   <si>
     <t>3300</t>
   </si>
   <si>
-    <t>2021-01-06T10:46:00</t>
-  </si>
-  <si>
-    <t>2021-01-06T11:36:00</t>
-  </si>
-  <si>
-    <t>2021-01-02T09:45:00</t>
-  </si>
-  <si>
-    <t>2021-01-03T13:48:00</t>
-  </si>
-  <si>
     <t>Vaccine product containing only Severe acute respiratory syndrome coronavirus 2 antigen (medicinal product)</t>
   </si>
   <si>
@@ -1228,12 +1030,6 @@
     <t>2100</t>
   </si>
   <si>
-    <t>2021-01-02T13:45:00</t>
-  </si>
-  <si>
-    <t>2021-01-05T09:30:00</t>
-  </si>
-  <si>
     <t>2020-12-01T12:13:00Z</t>
   </si>
   <si>
@@ -1316,6 +1112,192 @@
   </si>
   <si>
     <t>2020-12-01T09:13:09Z</t>
+  </si>
+  <si>
+    <t>2020-11-26T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-02-05T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-02-08T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-02-09T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-02-10T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-08T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-17T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-09T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-01T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-02T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-03T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-04T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-05T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-06T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-07T16:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-07T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-09T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-10T09:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-12-12T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-02-23T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-02-20T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-03T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-04T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-02-17T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-20T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-27T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-25T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-29T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-21T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-05T15:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-07T15:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-09T15:00:00Z</t>
+  </si>
+  <si>
+    <t>2020-02-08T11:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-02-11T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-14T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-18T12:13:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-03T11:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-04T15:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-06T16:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-08T14:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-06T08:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-07T14:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-08T13:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-03T12:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-09T13:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-10T20:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-10T18:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-03T15:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-03T19:40:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-04T10:40:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-06T15:00:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-06T17:34:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-07T12:34:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-08T15:25:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-04T15:46:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-05T09:46:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-06T10:46:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-06T11:36:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-02T09:45:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-02T13:45:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-03T13:48:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-04T11:00:00Z</t>
   </si>
 </sst>
 </file>
@@ -1946,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1937,7 @@
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19.28515625" style="26" customWidth="1"/>
     <col min="6" max="6" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.85546875" customWidth="1"/>
     <col min="11" max="11" width="24.140625" customWidth="1"/>
@@ -1968,7 +1950,7 @@
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>13</v>
@@ -2062,28 +2044,28 @@
         <v>1</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G6" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="K6" s="22" t="s">
         <v>102</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2091,28 +2073,28 @@
         <v>2</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>122</v>
+        <v>363</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2120,28 +2102,28 @@
         <v>3</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2149,28 +2131,28 @@
         <v>4</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2178,28 +2160,28 @@
         <v>5</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>141</v>
+        <v>364</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>143</v>
+        <v>396</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2207,28 +2189,28 @@
         <v>5</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>143</v>
+        <v>396</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>144</v>
+        <v>382</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2236,28 +2218,28 @@
         <v>6</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>147</v>
+        <v>365</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2265,28 +2247,28 @@
         <v>7</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>148</v>
+        <v>366</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2294,28 +2276,28 @@
         <v>8</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F14" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="I14" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="J14" s="25" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2323,28 +2305,28 @@
         <v>9</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F15" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="I15" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="J15" s="25" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2352,28 +2334,28 @@
         <v>10</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>150</v>
+        <v>349</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>151</v>
+        <v>397</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J16" s="25" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -2381,28 +2363,28 @@
         <v>10</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>151</v>
+        <v>397</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>163</v>
+        <v>387</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -2410,28 +2392,28 @@
         <v>11</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>153</v>
+        <v>369</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J18" s="25" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -2439,28 +2421,28 @@
         <v>11</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>153</v>
+        <v>369</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>164</v>
+        <v>388</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -2468,28 +2450,28 @@
         <v>12</v>
       </c>
       <c r="D20" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>154</v>
-      </c>
       <c r="H20" s="22" t="s">
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -2497,28 +2479,28 @@
         <v>13</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>153</v>
+        <v>369</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>155</v>
+        <v>398</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J21" s="25" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -2526,28 +2508,28 @@
         <v>13</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="E22" s="25">
         <v>3700</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>155</v>
+        <v>398</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>166</v>
+        <v>390</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -2555,28 +2537,28 @@
         <v>14</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>149</v>
+        <v>367</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>167</v>
+        <v>386</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -2584,28 +2566,28 @@
         <v>15</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>156</v>
+        <v>370</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>168</v>
+        <v>391</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -2613,28 +2595,28 @@
         <v>16</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>153</v>
+        <v>369</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J25" s="25" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -2642,28 +2624,28 @@
         <v>17</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E26" s="25">
         <v>3700</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>259</v>
+        <v>392</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -2671,28 +2653,28 @@
         <v>18</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E27" s="25">
         <v>3700</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -2700,28 +2682,28 @@
         <v>19</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -2729,28 +2711,28 @@
         <v>19</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E29" s="25">
         <v>3700</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J29" s="25" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -2758,28 +2740,28 @@
         <v>20</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E30" s="25">
         <v>3700</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -2787,28 +2769,28 @@
         <v>21</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>289</v>
+        <v>424</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -2816,28 +2798,28 @@
         <v>21</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E32" s="25">
         <v>3700</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>291</v>
+        <v>401</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2845,28 +2827,28 @@
         <v>21</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>291</v>
+        <v>401</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2877,25 +2859,25 @@
         <v>21</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E34" s="25">
         <v>3700</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2906,25 +2888,25 @@
         <v>22</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E35" s="25">
         <v>3700</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2932,25 +2914,25 @@
         <v>23</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E36" s="25">
         <v>3700</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2961,25 +2943,25 @@
         <v>24</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E37" s="25">
         <v>3700</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2990,25 +2972,25 @@
         <v>25</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E38" s="25">
         <v>3700</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3019,25 +3001,25 @@
         <v>26</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E39" s="25">
         <v>3700</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3045,28 +3027,28 @@
         <v>27</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>307</v>
+        <v>403</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3074,28 +3056,28 @@
         <v>27</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="E41" s="25">
         <v>3700</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>307</v>
+        <v>403</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3103,25 +3085,25 @@
         <v>27</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E42" s="25">
         <v>3700</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3129,25 +3111,25 @@
         <v>28</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E43" s="25">
         <v>3700</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>291</v>
+        <v>401</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3155,25 +3137,25 @@
         <v>29</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E44" s="25">
         <v>3700</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3181,28 +3163,28 @@
         <v>30</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3210,25 +3192,25 @@
         <v>30</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E46" s="25">
         <v>3700</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3236,28 +3218,28 @@
         <v>31</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="E47" s="25">
         <v>3700</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>320</v>
+        <v>405</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3265,25 +3247,25 @@
         <v>31</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E48" s="25">
         <v>3700</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>320</v>
+        <v>405</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
@@ -3291,28 +3273,28 @@
         <v>32</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -3320,28 +3302,28 @@
         <v>32</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="E50" s="25">
         <v>3700</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
       <c r="I50" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -3349,28 +3331,28 @@
         <v>32</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E51" s="25">
         <v>3700</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>324</v>
+        <v>408</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -3378,25 +3360,25 @@
         <v>32</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>324</v>
+        <v>408</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -3404,25 +3386,25 @@
         <v>33</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E53" s="25">
         <v>3700</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -3430,28 +3412,28 @@
         <v>34</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E54" s="25">
         <v>3700</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -3459,25 +3441,25 @@
         <v>34</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J55" s="25" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
@@ -3485,28 +3467,28 @@
         <v>17</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -3514,28 +3496,28 @@
         <v>17</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
@@ -3543,28 +3525,28 @@
         <v>17</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E58" s="25">
         <v>3700</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -3572,28 +3554,28 @@
         <v>20</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E59" s="25">
         <v>3700</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="I59" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
@@ -3601,28 +3583,28 @@
         <v>20</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="I60" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -3630,28 +3612,28 @@
         <v>20</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="I61" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
@@ -3659,28 +3641,28 @@
         <v>20</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E62" s="25">
         <v>3700</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="I62" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
@@ -3688,28 +3670,28 @@
         <v>27</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="I63" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J63" s="25" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
@@ -3717,28 +3699,28 @@
         <v>27</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
@@ -3746,28 +3728,28 @@
         <v>27</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>373</v>
+        <v>312</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="I65" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J65" s="25" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
@@ -3775,28 +3757,28 @@
         <v>27</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E66" s="25">
         <v>3700</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="I66" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
@@ -3804,28 +3786,28 @@
         <v>21</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E67" s="25">
         <v>3700</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="I67" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J67" s="25" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
@@ -3833,28 +3815,28 @@
         <v>21</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E68" s="25">
         <v>3700</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="I68" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
@@ -3862,28 +3844,28 @@
         <v>21</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E69" s="25">
         <v>3700</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J69" s="25" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
@@ -3891,28 +3873,28 @@
         <v>30</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E70" s="25">
         <v>3700</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
@@ -3920,28 +3902,28 @@
         <v>30</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -3949,28 +3931,28 @@
         <v>30</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="J72" s="25" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
@@ -3978,25 +3960,25 @@
         <v>35</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E73" s="25">
         <v>3700</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J73" s="25" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
@@ -4004,25 +3986,25 @@
         <v>36</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>360</v>
+        <v>306</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
@@ -4030,25 +4012,25 @@
         <v>37</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E75" s="25">
         <v>3700</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J75" s="25" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
@@ -4056,28 +4038,28 @@
         <v>38</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="E76" s="25">
         <v>3700</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J76" s="25" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
@@ -4085,25 +4067,25 @@
         <v>38</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="E77" s="25">
         <v>3700</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J77" s="25" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +4101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -4162,7 +4144,7 @@
     </row>
     <row r="3" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>13</v>
@@ -4324,10 +4306,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>95</v>
@@ -4339,7 +4321,7 @@
         <v>97</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -4347,10 +4329,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>100</v>
@@ -4359,10 +4341,10 @@
         <v>96</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4370,10 +4352,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>95</v>
@@ -4385,7 +4367,7 @@
         <v>97</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4393,10 +4375,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>100</v>
@@ -4405,10 +4387,10 @@
         <v>96</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4416,10 +4398,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>100</v>
@@ -4428,10 +4410,10 @@
         <v>96</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4439,22 +4421,22 @@
         <v>5</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>96</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4462,22 +4444,22 @@
         <v>5</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>96</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4485,22 +4467,22 @@
         <v>6</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>96</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4508,13 +4490,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>96</v>
@@ -4523,7 +4505,7 @@
         <v>97</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -4531,13 +4513,13 @@
         <v>6</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>96</v>
@@ -4546,7 +4528,7 @@
         <v>97</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -4554,13 +4536,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>96</v>
@@ -4569,7 +4551,7 @@
         <v>97</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -4577,13 +4559,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>96</v>
@@ -4592,7 +4574,7 @@
         <v>97</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -4600,13 +4582,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>96</v>
@@ -4615,7 +4597,7 @@
         <v>97</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -4623,13 +4605,13 @@
         <v>8</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>96</v>
@@ -4638,7 +4620,7 @@
         <v>97</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -4646,22 +4628,22 @@
         <v>8</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>96</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -4669,13 +4651,13 @@
         <v>9</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>96</v>
@@ -4684,7 +4666,7 @@
         <v>97</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -4692,22 +4674,22 @@
         <v>9</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>96</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -4715,14 +4697,14 @@
         <v>14</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="G25" s="22"/>
       <c r="J25" s="22" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
@@ -4730,14 +4712,14 @@
         <v>14</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="G26" s="22"/>
       <c r="J26" s="22" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -4745,13 +4727,13 @@
         <v>10</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>96</v>
@@ -4760,7 +4742,7 @@
         <v>97</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
@@ -4768,13 +4750,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>96</v>
@@ -4783,7 +4765,7 @@
         <v>97</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -4791,13 +4773,13 @@
         <v>10</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>96</v>
@@ -4806,7 +4788,7 @@
         <v>97</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -4814,13 +4796,13 @@
         <v>11</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>96</v>
@@ -4829,7 +4811,7 @@
         <v>97</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
@@ -4837,13 +4819,13 @@
         <v>11</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>96</v>
@@ -4852,7 +4834,7 @@
         <v>97</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -4860,22 +4842,22 @@
         <v>11</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>96</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -4886,13 +4868,13 @@
         <v>12</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>96</v>
@@ -4901,7 +4883,7 @@
         <v>97</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -4909,13 +4891,13 @@
         <v>12</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>96</v>
@@ -4924,7 +4906,7 @@
         <v>97</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -4932,13 +4914,13 @@
         <v>13</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>96</v>
@@ -4947,7 +4929,7 @@
         <v>97</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -4955,13 +4937,13 @@
         <v>13</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G36" s="22" t="s">
         <v>96</v>
@@ -4970,7 +4952,7 @@
         <v>97</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -4978,13 +4960,13 @@
         <v>13</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>96</v>
@@ -4993,7 +4975,7 @@
         <v>97</v>
       </c>
       <c r="I37" s="22" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -5001,13 +4983,13 @@
         <v>15</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -5015,13 +4997,13 @@
         <v>15</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5029,13 +5011,13 @@
         <v>16</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5043,13 +5025,13 @@
         <v>16</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5069,8 +5051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5098,7 +5080,7 @@
     </row>
     <row r="3" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>13</v>
@@ -5230,34 +5212,34 @@
         <v>5</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="I6" s="22">
         <v>119342007</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N6" s="22" t="s">
         <v>49</v>
@@ -5271,34 +5253,34 @@
         <v>6</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>187</v>
+        <v>395</v>
       </c>
       <c r="I7" s="22">
         <v>119342007</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>147</v>
+        <v>365</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N7" s="22" t="s">
         <v>49</v>
@@ -5312,34 +5294,34 @@
         <v>7</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="I8" s="22">
         <v>119342007</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N8" s="22" t="s">
         <v>49</v>
@@ -5353,34 +5335,34 @@
         <v>8</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="I9" s="22">
         <v>119342007</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N9" s="22" t="s">
         <v>49</v>
@@ -5394,34 +5376,34 @@
         <v>9</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="I10" s="22">
         <v>119342007</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N10" s="22" t="s">
         <v>49</v>
@@ -5435,34 +5417,34 @@
         <v>14</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="I11" s="22">
         <v>119342007</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N11" s="22" t="s">
         <v>49</v>
@@ -5476,34 +5458,34 @@
         <v>11</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="I12" s="22">
         <v>119342007</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N12" s="22" t="s">
         <v>49</v>
@@ -5517,34 +5499,34 @@
         <v>15</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="I13" s="22">
         <v>119342007</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N13" s="22" t="s">
         <v>49</v>
@@ -5558,34 +5540,34 @@
         <v>16</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="I14" s="22">
         <v>119342007</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N14" s="22" t="s">
         <v>49</v>
@@ -5599,34 +5581,34 @@
         <v>17</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="I15" s="22">
         <v>119342007</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N15" s="22" t="s">
         <v>49</v>
@@ -5640,34 +5622,34 @@
         <v>17</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="I16" s="22">
         <v>119342007</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N16" s="22" t="s">
         <v>49</v>
@@ -5681,34 +5663,34 @@
         <v>17</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="I17" s="22">
         <v>119342007</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N17" s="22" t="s">
         <v>49</v>
@@ -5722,34 +5704,34 @@
         <v>18</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="I18" s="22">
         <v>119342007</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N18" s="22" t="s">
         <v>49</v>
@@ -5763,34 +5745,34 @@
         <v>18</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="I19" s="22">
         <v>119342007</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N19" s="22" t="s">
         <v>49</v>
@@ -5801,40 +5783,40 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="I20" s="22">
         <v>119342007</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="L20" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N20" s="22" t="s">
         <v>49</v>
@@ -5851,34 +5833,34 @@
         <v>19</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="I21" s="22">
         <v>119342007</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N21" s="22" t="s">
         <v>49</v>
@@ -5889,40 +5871,40 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="B22">
         <v>19</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="I22" s="22">
         <v>119342007</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>49</v>
@@ -5939,34 +5921,34 @@
         <v>19</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="I23" s="22">
         <v>119342007</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K23" s="22" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="L23" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N23" s="22" t="s">
         <v>49</v>
@@ -5980,34 +5962,34 @@
         <v>20</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="I24" s="22">
         <v>119342007</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N24" s="22" t="s">
         <v>49</v>
@@ -6022,34 +6004,34 @@
         <v>20</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="I25" s="22">
         <v>119342007</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L25" s="22" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="M25" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>49</v>
@@ -6063,34 +6045,34 @@
         <v>20</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="I26" s="22">
         <v>119342007</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="M26" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>49</v>
@@ -6105,34 +6087,34 @@
         <v>21</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="I27" s="22">
         <v>119342007</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L27" s="22" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="M27" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N27" s="22" t="s">
         <v>49</v>
@@ -6147,34 +6129,34 @@
         <v>21</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="I28" s="22">
         <v>119342007</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="M28" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N28" s="22" t="s">
         <v>49</v>
@@ -6189,34 +6171,34 @@
         <v>22</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="I29" s="22">
         <v>119342007</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="M29" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>49</v>
@@ -6231,34 +6213,34 @@
         <v>22</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="I30" s="22">
         <v>119342007</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="M30" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N30" s="22" t="s">
         <v>49</v>
@@ -6273,34 +6255,34 @@
         <v>23</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="I31" s="22">
         <v>119342007</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N31" s="22" t="s">
         <v>49</v>
@@ -6315,34 +6297,34 @@
         <v>23</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="I32" s="22">
         <v>119342007</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>49</v>
@@ -6357,34 +6339,34 @@
         <v>24</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="I33" s="22">
         <v>119342007</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L33" s="22" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N33" s="22" t="s">
         <v>49</v>
@@ -6401,34 +6383,34 @@
         <v>24</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="I34" s="22">
         <v>119342007</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L34" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N34" s="22" t="s">
         <v>49</v>
@@ -6445,34 +6427,34 @@
         <v>25</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="I35" s="22">
         <v>119342007</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K35" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N35" s="22" t="s">
         <v>49</v>
@@ -6489,34 +6471,34 @@
         <v>25</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="I36" s="22">
         <v>119342007</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N36" s="22" t="s">
         <v>49</v>
@@ -6530,34 +6512,34 @@
         <v>26</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="I37" s="22">
         <v>119342007</v>
       </c>
       <c r="J37" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N37" s="22" t="s">
         <v>49</v>
@@ -6571,34 +6553,34 @@
         <v>26</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="I38" s="22">
         <v>119342007</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="M38" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N38" s="22" t="s">
         <v>49</v>
@@ -6612,34 +6594,34 @@
         <v>27</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="I39" s="22">
         <v>119342007</v>
       </c>
       <c r="J39" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N39" s="22" t="s">
         <v>49</v>
@@ -6653,34 +6635,34 @@
         <v>27</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="I40" s="22">
         <v>119342007</v>
       </c>
       <c r="J40" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N40" s="22" t="s">
         <v>49</v>
@@ -6694,34 +6676,34 @@
         <v>28</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="I41" s="22">
         <v>119342007</v>
       </c>
       <c r="J41" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K41" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L41" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N41" s="22" t="s">
         <v>49</v>
@@ -6735,34 +6717,34 @@
         <v>28</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="I42" s="22">
         <v>119342007</v>
       </c>
       <c r="J42" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L42" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N42" s="22" t="s">
         <v>49</v>
@@ -6776,34 +6758,34 @@
         <v>29</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="I43" s="22">
         <v>119342007</v>
       </c>
       <c r="J43" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L43" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N43" s="22" t="s">
         <v>49</v>
@@ -6817,34 +6799,34 @@
         <v>29</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="I44" s="22">
         <v>119342007</v>
       </c>
       <c r="J44" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K44" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L44" s="22" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="M44" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N44" s="22" t="s">
         <v>49</v>
@@ -6858,34 +6840,34 @@
         <v>30</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="I45" s="22">
         <v>119342007</v>
       </c>
       <c r="J45" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L45" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N45" s="22" t="s">
         <v>49</v>
@@ -6899,34 +6881,34 @@
         <v>30</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="I46" s="22">
         <v>119342007</v>
       </c>
       <c r="J46" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L46" s="22" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N46" s="22" t="s">
         <v>49</v>
@@ -6940,34 +6922,34 @@
         <v>31</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="I47" s="22">
         <v>119342007</v>
       </c>
       <c r="J47" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>49</v>
@@ -6981,34 +6963,34 @@
         <v>31</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="I48" s="22">
         <v>119342007</v>
       </c>
       <c r="J48" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K48" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L48" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N48" s="22" t="s">
         <v>49</v>
@@ -7022,34 +7004,34 @@
         <v>32</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="I49" s="22">
         <v>119342007</v>
       </c>
       <c r="J49" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L49" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N49" s="22" t="s">
         <v>49</v>
@@ -7063,34 +7045,34 @@
         <v>33</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="I50" s="22">
         <v>119342007</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K50" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L50" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N50" s="22" t="s">
         <v>49</v>
@@ -7104,34 +7086,34 @@
         <v>34</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="I51" s="22">
         <v>119342007</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N51" s="22" t="s">
         <v>49</v>
@@ -7145,34 +7127,34 @@
         <v>35</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="I52" s="22">
         <v>119342007</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N52" s="22" t="s">
         <v>49</v>
@@ -7186,34 +7168,34 @@
         <v>35</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="I53" s="22">
         <v>119342007</v>
       </c>
       <c r="J53" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L53" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N53" s="22" t="s">
         <v>49</v>
@@ -7227,34 +7209,34 @@
         <v>36</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="I54" s="22">
         <v>119342007</v>
       </c>
       <c r="J54" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L54" s="22" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="M54" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N54" s="22" t="s">
         <v>49</v>
@@ -7268,34 +7250,34 @@
         <v>36</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="I55" s="22">
         <v>119342007</v>
       </c>
       <c r="J55" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N55" s="22" t="s">
         <v>49</v>
@@ -7309,34 +7291,34 @@
         <v>36</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="I56" s="22">
         <v>119342007</v>
       </c>
       <c r="J56" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N56" s="22" t="s">
         <v>49</v>
@@ -7350,34 +7332,34 @@
         <v>37</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="I57" s="22">
         <v>119342007</v>
       </c>
       <c r="J57" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K57" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L57" s="22" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="M57" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N57" s="22" t="s">
         <v>49</v>
@@ -7391,34 +7373,34 @@
         <v>37</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="I58" s="22">
         <v>119342007</v>
       </c>
       <c r="J58" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="M58" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N58" s="22" t="s">
         <v>49</v>
@@ -7432,34 +7414,34 @@
         <v>37</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="I59" s="22">
         <v>119342007</v>
       </c>
       <c r="J59" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="M59" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N59" s="22" t="s">
         <v>49</v>
@@ -7473,34 +7455,34 @@
         <v>38</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="I60" s="22">
         <v>119342007</v>
       </c>
       <c r="J60" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K60" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L60" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="M60" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N60" s="22" t="s">
         <v>49</v>
@@ -7514,34 +7496,34 @@
         <v>38</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="I61" s="22">
         <v>119342007</v>
       </c>
       <c r="J61" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L61" s="22" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="M61" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N61" s="22" t="s">
         <v>49</v>
@@ -7555,34 +7537,34 @@
         <v>38</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="I62" s="22">
         <v>119342007</v>
       </c>
       <c r="J62" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L62" s="22" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="M62" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N62" s="22" t="s">
         <v>49</v>
@@ -7597,34 +7579,34 @@
         <v>1</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="I63" s="22">
         <v>119342007</v>
       </c>
       <c r="J63" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K63" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L63" s="22" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="M63" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N63" s="22" t="s">
         <v>49</v>
@@ -7639,34 +7621,34 @@
         <v>1</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="I64" s="22">
         <v>119342007</v>
       </c>
       <c r="J64" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N64" s="22" t="s">
         <v>49</v>
@@ -7681,34 +7663,34 @@
         <v>2</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="I65" s="22">
         <v>119342007</v>
       </c>
       <c r="J65" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="M65" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N65" s="22" t="s">
         <v>49</v>
@@ -7723,34 +7705,34 @@
         <v>2</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="I66" s="22">
         <v>119342007</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K66" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L66" s="22" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="M66" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N66" s="22" t="s">
         <v>49</v>
@@ -7765,34 +7747,34 @@
         <v>3</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>405</v>
+        <v>337</v>
       </c>
       <c r="I67" s="22">
         <v>119342007</v>
       </c>
       <c r="J67" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K67" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L67" s="22" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
       <c r="M67" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N67" s="22" t="s">
         <v>49</v>
@@ -7807,34 +7789,34 @@
         <v>3</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="I68" s="22">
         <v>119342007</v>
       </c>
       <c r="J68" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="M68" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N68" s="22" t="s">
         <v>49</v>
@@ -7849,34 +7831,34 @@
         <v>4</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>406</v>
+        <v>338</v>
       </c>
       <c r="I69" s="22">
         <v>119342007</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="M69" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N69" s="22" t="s">
         <v>49</v>
@@ -7891,34 +7873,34 @@
         <v>5</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>407</v>
+        <v>339</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>408</v>
+        <v>340</v>
       </c>
       <c r="I70" s="22">
         <v>119342007</v>
       </c>
       <c r="J70" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K70" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L70" s="22" t="s">
-        <v>407</v>
+        <v>339</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N70" s="22" t="s">
         <v>49</v>
@@ -7933,34 +7915,34 @@
         <v>6</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="I71" s="22">
         <v>119342007</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
       <c r="M71" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N71" s="22" t="s">
         <v>49</v>
@@ -7975,34 +7957,34 @@
         <v>7</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>411</v>
+        <v>343</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>412</v>
+        <v>344</v>
       </c>
       <c r="I72" s="22">
         <v>119342007</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>411</v>
+        <v>343</v>
       </c>
       <c r="M72" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N72" s="22" t="s">
         <v>49</v>
@@ -8017,34 +7999,34 @@
         <v>8</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>413</v>
+        <v>345</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>414</v>
+        <v>346</v>
       </c>
       <c r="I73" s="22">
         <v>119342007</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>413</v>
+        <v>345</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N73" s="22" t="s">
         <v>49</v>
@@ -8059,34 +8041,34 @@
         <v>9</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="I74" s="22">
         <v>119342007</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="M74" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N74" s="22" t="s">
         <v>49</v>
@@ -8101,34 +8083,34 @@
         <v>10</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>418</v>
+        <v>350</v>
       </c>
       <c r="I75" s="22">
         <v>119342007</v>
       </c>
       <c r="J75" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="M75" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N75" s="22" t="s">
         <v>49</v>
@@ -8143,34 +8125,34 @@
         <v>10</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>419</v>
+        <v>351</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="I76" s="22">
         <v>119342007</v>
       </c>
       <c r="J76" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K76" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L76" s="22" t="s">
-        <v>419</v>
+        <v>351</v>
       </c>
       <c r="M76" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N76" s="22" t="s">
         <v>49</v>
@@ -8185,34 +8167,34 @@
         <v>11</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="I77" s="22">
         <v>119342007</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="M77" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="N77" s="22" t="s">
         <v>49</v>
@@ -8639,7 +8621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -8665,7 +8647,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>13</v>
@@ -8737,7 +8719,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>3</v>
@@ -8757,7 +8739,7 @@
         <v>116077000</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F5" s="24">
         <v>1</v>
@@ -8769,10 +8751,10 @@
         <v>18624000</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8783,7 +8765,7 @@
         <v>46233009</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="F6" s="24">
         <v>1</v>
@@ -8795,10 +8777,10 @@
         <v>6142004</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -8809,7 +8791,7 @@
         <v>46233009</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="F7" s="24">
         <v>1</v>
@@ -8821,10 +8803,10 @@
         <v>6142004</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8835,7 +8817,7 @@
         <v>46233009</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="F8" s="24">
         <v>1</v>
@@ -8847,10 +8829,10 @@
         <v>6142004</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8861,7 +8843,7 @@
         <v>424519000</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="F9" s="24">
         <v>1</v>
@@ -8873,10 +8855,10 @@
         <v>18624000</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8887,7 +8869,7 @@
         <v>424519000</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="F10" s="24">
         <v>1</v>
@@ -8899,10 +8881,10 @@
         <v>18624000</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8916,7 +8898,7 @@
         <v>1119305005</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="F11" s="24">
         <v>1</v>
@@ -8928,10 +8910,10 @@
         <v>40733004</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8945,7 +8927,7 @@
         <v>1119349007</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="F12" s="24">
         <v>1</v>
@@ -8957,10 +8939,10 @@
         <v>40733004</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>404</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8971,7 +8953,7 @@
         <v>1119349007</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="F13" s="24">
         <v>1</v>
@@ -8983,10 +8965,10 @@
         <v>40733004</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8997,7 +8979,7 @@
         <v>1119349007</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="F14" s="24">
         <v>1</v>
@@ -9009,10 +8991,10 @@
         <v>40733004</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="K14" s="22" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9023,7 +9005,7 @@
         <v>1119349007</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="F15" s="24">
         <v>1</v>
@@ -9035,10 +9017,10 @@
         <v>40733004</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -9054,8 +9036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9076,16 +9058,16 @@
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -9104,19 +9086,19 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
         <v>109</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>110</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" t="s">
-        <v>113</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
@@ -9127,22 +9109,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G6" s="22" t="s">
-        <v>102</v>
+        <v>355</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>329</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9150,22 +9132,22 @@
         <v>2</v>
       </c>
       <c r="D7" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G7" s="22" t="s">
-        <v>122</v>
+        <v>363</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9173,22 +9155,22 @@
         <v>3</v>
       </c>
       <c r="D8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G8" s="22" t="s">
-        <v>127</v>
+        <v>336</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>331</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9196,22 +9178,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G9" s="22" t="s">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>103</v>
+        <v>381</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>332</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9219,22 +9201,22 @@
         <v>5</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G10" s="22" t="s">
-        <v>141</v>
+        <v>364</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>144</v>
+        <v>382</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>333</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9242,22 +9224,22 @@
         <v>6</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G11" s="22" t="s">
-        <v>147</v>
+        <v>365</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9265,22 +9247,22 @@
         <v>7</v>
       </c>
       <c r="D12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G12" s="22" t="s">
-        <v>148</v>
+        <v>366</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>160</v>
+        <v>383</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9288,22 +9270,22 @@
         <v>8</v>
       </c>
       <c r="D13" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G13" s="22" t="s">
-        <v>149</v>
+        <v>367</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>161</v>
+        <v>384</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -9311,22 +9293,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G14" s="22" t="s">
-        <v>148</v>
+        <v>366</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>162</v>
+        <v>385</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9334,22 +9316,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G15" s="22" t="s">
-        <v>149</v>
+        <v>367</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>167</v>
+        <v>386</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -9357,22 +9339,22 @@
         <v>10</v>
       </c>
       <c r="D16" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G16" s="22" t="s">
-        <v>150</v>
+        <v>349</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>163</v>
+        <v>387</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -9380,22 +9362,22 @@
         <v>11</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G17" s="22" t="s">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>164</v>
+        <v>388</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -9403,22 +9385,22 @@
         <v>12</v>
       </c>
       <c r="D18" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G18" s="22" t="s">
-        <v>154</v>
+        <v>351</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -9426,22 +9408,22 @@
         <v>13</v>
       </c>
       <c r="D19" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G19" s="22" t="s">
-        <v>153</v>
+        <v>369</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>166</v>
+        <v>390</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -9449,22 +9431,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G20" s="22" t="s">
-        <v>156</v>
+        <v>370</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>168</v>
+        <v>391</v>
       </c>
       <c r="I20" s="25" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -9472,22 +9454,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G21" s="22" t="s">
-        <v>153</v>
+        <v>369</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>165</v>
+        <v>389</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -9495,22 +9477,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G22" s="22" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>259</v>
+        <v>392</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -9518,22 +9500,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G23" s="22" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -9541,22 +9523,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G24" s="22" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -9564,22 +9546,22 @@
         <v>20</v>
       </c>
       <c r="D25" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>116</v>
-      </c>
       <c r="G25" s="22" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
@@ -9587,15 +9569,15 @@
         <v>21</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -9603,15 +9585,15 @@
         <v>22</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
@@ -9619,15 +9601,15 @@
         <v>23</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
@@ -9635,13 +9617,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I29" s="25" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
@@ -9649,13 +9631,13 @@
         <v>25</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I30" s="25" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
@@ -9663,13 +9645,13 @@
         <v>26</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
@@ -9677,13 +9659,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -9691,13 +9673,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -9705,13 +9687,13 @@
         <v>29</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
       <c r="I34" s="25" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -9719,13 +9701,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -9733,13 +9715,13 @@
         <v>31</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>314</v>
+        <v>378</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -9747,13 +9729,13 @@
         <v>32</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -9761,13 +9743,13 @@
         <v>33</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -9775,13 +9757,13 @@
         <v>34</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>325</v>
+        <v>380</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -9789,13 +9771,13 @@
         <v>35</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>402</v>
+        <v>237</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -9803,13 +9785,13 @@
         <v>36</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -9817,13 +9799,13 @@
         <v>37</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="I42" s="25" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -9831,13 +9813,13 @@
         <v>38</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="I43" s="25" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-FAST\TestDataNEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-FAST\GITHub_SmICS\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="8265" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Movement" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="526">
   <si>
     <t>Impfstoff</t>
   </si>
@@ -1219,228 +1219,69 @@
     <t>2020-02-11T12:13:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:01Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:02Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:03Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:04Z</t>
-  </si>
-  <si>
     <t>2020-03-14T12:13:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:05Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:06Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:07Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:08Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:09Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:10Z</t>
-  </si>
-  <si>
     <t>2020-03-18T12:13:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:11Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:12Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:13Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:14Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:15Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:16Z</t>
-  </si>
-  <si>
     <t>2021-01-03T11:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:17Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:18Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:19Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:20Z</t>
-  </si>
-  <si>
     <t>2021-01-04T11:00:00Z</t>
   </si>
   <si>
     <t>2021-01-06T16:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:21Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:22Z</t>
-  </si>
-  <si>
     <t>2021-01-08T14:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:23Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:24Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:25Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:26Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:27Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:28Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:29Z</t>
-  </si>
-  <si>
     <t>2021-01-06T08:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:30Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:31Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:32Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:33Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:34Z</t>
-  </si>
-  <si>
     <t>2021-01-07T14:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:35Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:36Z</t>
-  </si>
-  <si>
     <t>2021-01-08T13:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:37Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:38Z</t>
-  </si>
-  <si>
     <t>2021-01-03T12:00:00Z</t>
   </si>
   <si>
     <t>2021-01-09T13:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:39Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:40Z</t>
-  </si>
-  <si>
     <t>2021-01-10T20:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:41Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:42Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:43Z</t>
-  </si>
-  <si>
     <t>2021-01-10T18:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:44Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:45Z</t>
-  </si>
-  <si>
     <t>2021-01-03T15:00:00Z</t>
   </si>
   <si>
     <t>2021-01-03T19:40:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:46Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:47Z</t>
-  </si>
-  <si>
     <t>2021-01-04T10:40:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:48Z</t>
-  </si>
-  <si>
     <t>2021-01-06T15:00:00Z</t>
   </si>
   <si>
     <t>2021-01-06T17:34:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:49Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:50Z</t>
-  </si>
-  <si>
     <t>2021-01-07T12:34:00Z</t>
   </si>
   <si>
     <t>2021-01-08T15:25:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:51Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:52Z</t>
-  </si>
-  <si>
     <t>2021-01-04T15:46:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:53Z</t>
-  </si>
-  <si>
     <t>2021-01-05T09:46:00Z</t>
   </si>
   <si>
@@ -1459,45 +1300,6 @@
     <t>2021-01-03T13:48:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:61Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:60Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:59Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:58Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:57Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:56Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:55Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:54Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:62Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:63Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:64Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:65Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:66Z</t>
-  </si>
-  <si>
     <t>00000039</t>
   </si>
   <si>
@@ -1676,6 +1478,129 @@
   </si>
   <si>
     <t>2021-01-28T10:30:00Z</t>
+  </si>
+  <si>
+    <t>2020-03-08T12:13:00</t>
+  </si>
+  <si>
+    <t>2020-03-17T12:13:00</t>
+  </si>
+  <si>
+    <t>2020-03-10T12:13:00</t>
+  </si>
+  <si>
+    <t>2020-03-18T12:13:00</t>
+  </si>
+  <si>
+    <t>2020-02-10T12:13:00</t>
+  </si>
+  <si>
+    <t>2020-03-09T12:13:00</t>
+  </si>
+  <si>
+    <t>2021-01-01T09:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-02T09:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-03T11:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-03T09:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-04T15:30:00</t>
+  </si>
+  <si>
+    <t>2021-01-06T16:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-08T14:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-04T09:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-05T09:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-06T09:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-06T08:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-07T16:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-07T09:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-07T14:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-08T13:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-03T12:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-09T13:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-10T20:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-09T09:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-10T09:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-10T18:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-03T15:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-03T19:40:00</t>
+  </si>
+  <si>
+    <t>2021-01-04T10:40:00</t>
+  </si>
+  <si>
+    <t>2021-01-06T15:00:00</t>
+  </si>
+  <si>
+    <t>2021-01-06T17:34:00</t>
+  </si>
+  <si>
+    <t>2021-01-07T12:34:00</t>
+  </si>
+  <si>
+    <t>2021-01-08T15:25:00</t>
+  </si>
+  <si>
+    <t>2021-01-04T15:46:00</t>
+  </si>
+  <si>
+    <t>2021-01-05T09:46:00</t>
+  </si>
+  <si>
+    <t>2021-01-06T10:46:00</t>
+  </si>
+  <si>
+    <t>2021-01-06T11:36:00</t>
+  </si>
+  <si>
+    <t>2021-01-02T09:45:00</t>
+  </si>
+  <si>
+    <t>2021-01-02T13:45:00</t>
+  </si>
+  <si>
+    <t>2021-01-03T13:48:00</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1642,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1748,12 +1673,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1778,7 +1697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1836,7 +1755,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -2313,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2530,7 @@
         <v>136</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>393</v>
@@ -2641,7 +2559,7 @@
         <v>136</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>393</v>
@@ -2670,7 +2588,7 @@
         <v>136</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>392</v>
@@ -2699,7 +2617,7 @@
         <v>136</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="H15" s="22" t="s">
         <v>391</v>
@@ -2728,10 +2646,10 @@
         <v>139</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>104</v>
@@ -2757,7 +2675,7 @@
         <v>140</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>389</v>
@@ -2786,7 +2704,7 @@
         <v>139</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>405</v>
+        <v>485</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>369</v>
@@ -2815,7 +2733,7 @@
         <v>139</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>406</v>
+        <v>486</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>388</v>
@@ -2844,7 +2762,7 @@
         <v>139</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>407</v>
+        <v>487</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>384</v>
@@ -2873,10 +2791,10 @@
         <v>139</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>408</v>
+        <v>486</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>104</v>
@@ -2902,7 +2820,7 @@
         <v>141</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>387</v>
@@ -2931,7 +2849,7 @@
         <v>136</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>390</v>
@@ -2960,7 +2878,7 @@
         <v>139</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>412</v>
+        <v>490</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>386</v>
@@ -2989,7 +2907,7 @@
         <v>139</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>384</v>
@@ -3018,7 +2936,7 @@
         <v>141</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>383</v>
@@ -3047,7 +2965,7 @@
         <v>141</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>415</v>
+        <v>492</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>382</v>
@@ -3076,10 +2994,10 @@
         <v>136</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>104</v>
@@ -3105,7 +3023,7 @@
         <v>141</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>381</v>
@@ -3134,7 +3052,7 @@
         <v>141</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>381</v>
@@ -3163,10 +3081,10 @@
         <v>136</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>420</v>
+        <v>492</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>104</v>
@@ -3192,10 +3110,10 @@
         <v>141</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>423</v>
+        <v>495</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="I32" s="22" t="s">
         <v>104</v>
@@ -3221,10 +3139,10 @@
         <v>254</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>424</v>
+        <v>496</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="I33" s="22" t="s">
         <v>104</v>
@@ -3253,7 +3171,7 @@
         <v>141</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>104</v>
@@ -3282,7 +3200,7 @@
         <v>141</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="I35" s="22" t="s">
         <v>104</v>
@@ -3308,7 +3226,7 @@
         <v>141</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
       <c r="I36" s="22" t="s">
         <v>104</v>
@@ -3337,7 +3255,7 @@
         <v>141</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="I37" s="22" t="s">
         <v>104</v>
@@ -3366,7 +3284,7 @@
         <v>141</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="I38" s="22" t="s">
         <v>104</v>
@@ -3395,7 +3313,7 @@
         <v>141</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="I39" s="22" t="s">
         <v>104</v>
@@ -3421,10 +3339,10 @@
         <v>136</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="I40" s="22" t="s">
         <v>104</v>
@@ -3450,7 +3368,7 @@
         <v>141</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="H41" s="22" t="s">
         <v>375</v>
@@ -3479,7 +3397,7 @@
         <v>141</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
       <c r="I42" s="22" t="s">
         <v>104</v>
@@ -3505,7 +3423,7 @@
         <v>141</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>104</v>
@@ -3531,7 +3449,7 @@
         <v>141</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="I44" s="22" t="s">
         <v>104</v>
@@ -3557,10 +3475,10 @@
         <v>136</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="I45" s="22" t="s">
         <v>104</v>
@@ -3586,7 +3504,7 @@
         <v>141</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>104</v>
@@ -3612,10 +3530,10 @@
         <v>141</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>104</v>
@@ -3641,7 +3559,7 @@
         <v>141</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="I48" s="22" t="s">
         <v>104</v>
@@ -3667,10 +3585,10 @@
         <v>136</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>104</v>
@@ -3696,10 +3614,10 @@
         <v>141</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>104</v>
@@ -3725,10 +3643,10 @@
         <v>141</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="I51" s="22" t="s">
         <v>104</v>
@@ -3754,7 +3672,7 @@
         <v>254</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="I52" s="22" t="s">
         <v>104</v>
@@ -3780,7 +3698,7 @@
         <v>141</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="I53" s="22" t="s">
         <v>104</v>
@@ -3806,10 +3724,10 @@
         <v>141</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>453</v>
+        <v>410</v>
       </c>
       <c r="I54" s="22" t="s">
         <v>104</v>
@@ -3835,7 +3753,7 @@
         <v>254</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="I55" s="22" t="s">
         <v>104</v>
@@ -3861,10 +3779,10 @@
         <v>303</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="I56" s="22" t="s">
         <v>301</v>
@@ -3890,10 +3808,10 @@
         <v>140</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="I57" s="22" t="s">
         <v>301</v>
@@ -3919,10 +3837,10 @@
         <v>141</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>460</v>
+        <v>413</v>
       </c>
       <c r="I58" s="22" t="s">
         <v>301</v>
@@ -3948,10 +3866,10 @@
         <v>141</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>462</v>
+        <v>414</v>
       </c>
       <c r="I59" s="22" t="s">
         <v>301</v>
@@ -3977,10 +3895,10 @@
         <v>308</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>463</v>
+        <v>415</v>
       </c>
       <c r="I60" s="22" t="s">
         <v>301</v>
@@ -4006,10 +3924,10 @@
         <v>310</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="I61" s="22" t="s">
         <v>301</v>
@@ -4035,10 +3953,10 @@
         <v>141</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="I62" s="22" t="s">
         <v>301</v>
@@ -4064,10 +3982,10 @@
         <v>312</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="I63" s="22" t="s">
         <v>301</v>
@@ -4093,10 +4011,10 @@
         <v>314</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="I64" s="22" t="s">
         <v>301</v>
@@ -4122,10 +4040,10 @@
         <v>312</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>473</v>
+        <v>420</v>
       </c>
       <c r="I65" s="22" t="s">
         <v>301</v>
@@ -4151,10 +4069,10 @@
         <v>141</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
       <c r="I66" s="22" t="s">
         <v>301</v>
@@ -4180,10 +4098,10 @@
         <v>141</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>475</v>
+        <v>422</v>
       </c>
       <c r="I67" s="22" t="s">
         <v>301</v>
@@ -4209,10 +4127,10 @@
         <v>141</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>476</v>
+        <v>423</v>
       </c>
       <c r="I68" s="22" t="s">
         <v>301</v>
@@ -4238,10 +4156,10 @@
         <v>141</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>477</v>
+        <v>424</v>
       </c>
       <c r="I69" s="22" t="s">
         <v>301</v>
@@ -4267,10 +4185,10 @@
         <v>141</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
       <c r="I70" s="22" t="s">
         <v>301</v>
@@ -4296,10 +4214,10 @@
         <v>314</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>472</v>
+        <v>419</v>
       </c>
       <c r="I71" s="22" t="s">
         <v>301</v>
@@ -4325,10 +4243,10 @@
         <v>310</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="I72" s="22" t="s">
         <v>301</v>
@@ -4354,7 +4272,7 @@
         <v>141</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>486</v>
+        <v>237</v>
       </c>
       <c r="I73" s="22" t="s">
         <v>104</v>
@@ -4380,7 +4298,7 @@
         <v>136</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>487</v>
+        <v>244</v>
       </c>
       <c r="I74" s="22" t="s">
         <v>104</v>
@@ -4406,7 +4324,7 @@
         <v>141</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>488</v>
+        <v>234</v>
       </c>
       <c r="I75" s="22" t="s">
         <v>104</v>
@@ -4432,7 +4350,7 @@
         <v>141</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>489</v>
+        <v>246</v>
       </c>
       <c r="H76" s="22" t="s">
         <v>333</v>
@@ -4461,7 +4379,7 @@
         <v>141</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>490</v>
+        <v>333</v>
       </c>
       <c r="I77" s="22" t="s">
         <v>124</v>
@@ -4474,7 +4392,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="17"/>
       <c r="B78">
         <v>39</v>
       </c>
@@ -4491,13 +4409,13 @@
         <v>266</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="I78" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="K78" s="22" t="s">
         <v>102</v>
@@ -4520,13 +4438,13 @@
         <v>270</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
       <c r="I79" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="K79" s="22" t="s">
         <v>102</v>
@@ -4546,16 +4464,16 @@
         <v>141</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="I80" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
       <c r="K80" s="22" t="s">
         <v>102</v>
@@ -4575,16 +4493,16 @@
         <v>141</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="I81" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J81" s="25" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
       <c r="K81" s="22" t="s">
         <v>102</v>
@@ -4604,16 +4522,16 @@
         <v>141</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="I82" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J82" s="25" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
       <c r="K82" s="22" t="s">
         <v>102</v>
@@ -4633,16 +4551,16 @@
         <v>141</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="I83" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J83" s="25" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
       <c r="K83" s="22" t="s">
         <v>102</v>
@@ -4662,16 +4580,16 @@
         <v>141</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="I84" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="K84" s="22" t="s">
         <v>102</v>
@@ -4691,16 +4609,16 @@
         <v>141</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="I85" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J85" s="25" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
       <c r="K85" s="22" t="s">
         <v>102</v>
@@ -4720,16 +4638,16 @@
         <v>141</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>535</v>
+        <v>469</v>
       </c>
       <c r="I86" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J86" s="25" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
       <c r="K86" s="22" t="s">
         <v>102</v>
@@ -4749,16 +4667,16 @@
         <v>141</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="I87" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J87" s="25" t="s">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="K87" s="22" t="s">
         <v>102</v>
@@ -4778,16 +4696,16 @@
         <v>141</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
       <c r="I88" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J88" s="25" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="K88" s="22" t="s">
         <v>102</v>
@@ -4807,16 +4725,16 @@
         <v>141</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
       <c r="I89" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J89" s="25" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="K89" s="22" t="s">
         <v>102</v>
@@ -4836,13 +4754,13 @@
         <v>141</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="I90" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J90" s="25" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="K90" s="22" t="s">
         <v>102</v>
@@ -4862,13 +4780,13 @@
         <v>141</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
       <c r="I91" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J91" s="25" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="K91" s="22" t="s">
         <v>102</v>
@@ -4888,13 +4806,13 @@
         <v>141</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="I92" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J92" s="25" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
       <c r="K92" s="22" t="s">
         <v>102</v>
@@ -4914,13 +4832,13 @@
         <v>141</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="I93" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J93" s="25" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="K93" s="22" t="s">
         <v>102</v>
@@ -4940,13 +4858,13 @@
         <v>141</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="I94" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J94" s="25" t="s">
-        <v>507</v>
+        <v>441</v>
       </c>
       <c r="K94" s="22" t="s">
         <v>102</v>
@@ -4966,13 +4884,13 @@
         <v>141</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="I95" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J95" s="25" t="s">
-        <v>508</v>
+        <v>442</v>
       </c>
       <c r="K95" s="22" t="s">
         <v>102</v>
@@ -4992,13 +4910,13 @@
         <v>141</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="I96" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J96" s="25" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="K96" s="22" t="s">
         <v>102</v>
@@ -5024,7 +4942,7 @@
         <v>104</v>
       </c>
       <c r="J97" s="25" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="K97" s="22" t="s">
         <v>102</v>
@@ -5044,13 +4962,13 @@
         <v>141</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="I98" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J98" s="25" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
       <c r="K98" s="22" t="s">
         <v>102</v>
@@ -5089,21 +5007,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="30" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="30"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -6019,8 +5937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6213,7 +6131,7 @@
         <v>49</v>
       </c>
       <c r="O6" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -6254,7 +6172,7 @@
         <v>49</v>
       </c>
       <c r="O7" s="24">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6295,7 +6213,7 @@
         <v>49</v>
       </c>
       <c r="O8" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -6336,7 +6254,7 @@
         <v>49</v>
       </c>
       <c r="O9" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6377,7 +6295,7 @@
         <v>49</v>
       </c>
       <c r="O10" s="24">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -6418,7 +6336,7 @@
         <v>49</v>
       </c>
       <c r="O11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -6459,7 +6377,7 @@
         <v>49</v>
       </c>
       <c r="O12" s="24">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -6500,7 +6418,7 @@
         <v>49</v>
       </c>
       <c r="O13" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -6541,7 +6459,7 @@
         <v>49</v>
       </c>
       <c r="O14" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -6582,7 +6500,7 @@
         <v>49</v>
       </c>
       <c r="O15" s="24">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -6623,7 +6541,7 @@
         <v>49</v>
       </c>
       <c r="O16" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -6664,7 +6582,7 @@
         <v>49</v>
       </c>
       <c r="O17" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -6705,7 +6623,7 @@
         <v>49</v>
       </c>
       <c r="O18" s="24">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -6746,7 +6664,7 @@
         <v>49</v>
       </c>
       <c r="O19" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -6790,7 +6708,7 @@
         <v>49</v>
       </c>
       <c r="O20" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -6834,7 +6752,7 @@
         <v>49</v>
       </c>
       <c r="O21" s="24">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -6878,7 +6796,7 @@
         <v>49</v>
       </c>
       <c r="O22" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -6922,7 +6840,7 @@
         <v>49</v>
       </c>
       <c r="O23" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -6963,7 +6881,7 @@
         <v>49</v>
       </c>
       <c r="O24" s="24">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -7005,7 +6923,7 @@
         <v>49</v>
       </c>
       <c r="O25" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -7046,7 +6964,7 @@
         <v>49</v>
       </c>
       <c r="O26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -7088,7 +7006,7 @@
         <v>49</v>
       </c>
       <c r="O27" s="24">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -7130,7 +7048,7 @@
         <v>49</v>
       </c>
       <c r="O28" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -7172,7 +7090,7 @@
         <v>49</v>
       </c>
       <c r="O29" s="24">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -7214,7 +7132,7 @@
         <v>49</v>
       </c>
       <c r="O30" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -7226,7 +7144,7 @@
         <v>144</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>232</v>
@@ -7256,7 +7174,7 @@
         <v>49</v>
       </c>
       <c r="O31" s="24">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -7298,7 +7216,7 @@
         <v>49</v>
       </c>
       <c r="O32" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -7340,7 +7258,7 @@
         <v>49</v>
       </c>
       <c r="O33" s="24">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -7384,7 +7302,7 @@
         <v>49</v>
       </c>
       <c r="O34" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -7428,7 +7346,7 @@
         <v>49</v>
       </c>
       <c r="O35" s="24">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -7472,7 +7390,7 @@
         <v>49</v>
       </c>
       <c r="O36" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -7513,7 +7431,7 @@
         <v>49</v>
       </c>
       <c r="O37" s="24">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -7530,7 +7448,7 @@
         <v>235</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>256</v>
@@ -7554,7 +7472,7 @@
         <v>49</v>
       </c>
       <c r="O38" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -7595,7 +7513,7 @@
         <v>49</v>
       </c>
       <c r="O39" s="24">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -7636,7 +7554,7 @@
         <v>49</v>
       </c>
       <c r="O40" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -7677,7 +7595,7 @@
         <v>49</v>
       </c>
       <c r="O41" s="24">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -7718,7 +7636,7 @@
         <v>49</v>
       </c>
       <c r="O42" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -7759,7 +7677,7 @@
         <v>49</v>
       </c>
       <c r="O43" s="24">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -7800,7 +7718,7 @@
         <v>49</v>
       </c>
       <c r="O44" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -7841,7 +7759,7 @@
         <v>49</v>
       </c>
       <c r="O45" s="24">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -7882,7 +7800,7 @@
         <v>49</v>
       </c>
       <c r="O46" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -7923,7 +7841,7 @@
         <v>49</v>
       </c>
       <c r="O47" s="24">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -7964,7 +7882,7 @@
         <v>49</v>
       </c>
       <c r="O48" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -8005,7 +7923,7 @@
         <v>49</v>
       </c>
       <c r="O49" s="24">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -8046,7 +7964,7 @@
         <v>49</v>
       </c>
       <c r="O50" s="24">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -8087,7 +8005,7 @@
         <v>49</v>
       </c>
       <c r="O51" s="24">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -9172,7 +9090,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="17"/>
       <c r="B78">
         <v>39</v>
       </c>
@@ -9180,7 +9098,7 @@
         <v>144</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>491</v>
+        <v>425</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>232</v>
@@ -9189,7 +9107,7 @@
         <v>266</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="I78" s="22">
         <v>119342007</v>
@@ -9222,7 +9140,7 @@
         <v>144</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>232</v>
@@ -9231,7 +9149,7 @@
         <v>270</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>539</v>
+        <v>473</v>
       </c>
       <c r="I79" s="22">
         <v>119342007</v>
@@ -9263,16 +9181,16 @@
         <v>144</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="I80" s="22">
         <v>119342007</v>
@@ -9284,7 +9202,7 @@
         <v>160</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="M80" s="22" t="s">
         <v>146</v>
@@ -9304,16 +9222,16 @@
         <v>144</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="I81" s="22">
         <v>119342007</v>
@@ -9325,7 +9243,7 @@
         <v>160</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="M81" s="22" t="s">
         <v>146</v>
@@ -9345,16 +9263,16 @@
         <v>144</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="I82" s="22">
         <v>119342007</v>
@@ -9366,7 +9284,7 @@
         <v>160</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="M82" s="22" t="s">
         <v>146</v>
@@ -9386,16 +9304,16 @@
         <v>144</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="I83" s="22">
         <v>119342007</v>
@@ -9407,7 +9325,7 @@
         <v>160</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="M83" s="22" t="s">
         <v>146</v>
@@ -9427,16 +9345,16 @@
         <v>144</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
       <c r="I84" s="22">
         <v>119342007</v>
@@ -9448,7 +9366,7 @@
         <v>160</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="M84" s="22" t="s">
         <v>146</v>
@@ -9468,16 +9386,16 @@
         <v>144</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>541</v>
+        <v>475</v>
       </c>
       <c r="I85" s="22">
         <v>119342007</v>
@@ -9489,7 +9407,7 @@
         <v>160</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
       <c r="M85" s="22" t="s">
         <v>146</v>
@@ -9509,16 +9427,16 @@
         <v>144</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="I86" s="22">
         <v>119342007</v>
@@ -9530,7 +9448,7 @@
         <v>160</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
       <c r="M86" s="22" t="s">
         <v>146</v>
@@ -9550,16 +9468,16 @@
         <v>144</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
       <c r="I87" s="22">
         <v>119342007</v>
@@ -9571,7 +9489,7 @@
         <v>160</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="M87" s="22" t="s">
         <v>146</v>
@@ -9591,16 +9509,16 @@
         <v>144</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="I88" s="22">
         <v>119342007</v>
@@ -9612,7 +9530,7 @@
         <v>160</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="M88" s="22" t="s">
         <v>146</v>
@@ -9632,16 +9550,16 @@
         <v>144</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="I89" s="22">
         <v>119342007</v>
@@ -9653,7 +9571,7 @@
         <v>160</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="M89" s="22" t="s">
         <v>146</v>
@@ -9673,16 +9591,16 @@
         <v>144</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="I90" s="22">
         <v>119342007</v>
@@ -9694,7 +9612,7 @@
         <v>160</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="M90" s="22" t="s">
         <v>146</v>
@@ -9714,16 +9632,16 @@
         <v>144</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="I91" s="22">
         <v>119342007</v>
@@ -9735,7 +9653,7 @@
         <v>160</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
       <c r="M91" s="22" t="s">
         <v>146</v>
@@ -9755,16 +9673,16 @@
         <v>144</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="I92" s="22">
         <v>119342007</v>
@@ -9776,7 +9694,7 @@
         <v>160</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="M92" s="22" t="s">
         <v>146</v>
@@ -9796,16 +9714,16 @@
         <v>144</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>546</v>
+        <v>480</v>
       </c>
       <c r="I93" s="22">
         <v>119342007</v>
@@ -9817,7 +9735,7 @@
         <v>160</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="M93" s="22" t="s">
         <v>146</v>
@@ -9837,16 +9755,16 @@
         <v>144</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>507</v>
+        <v>441</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="I94" s="22">
         <v>119342007</v>
@@ -9858,7 +9776,7 @@
         <v>160</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="M94" s="22" t="s">
         <v>146</v>
@@ -9878,16 +9796,16 @@
         <v>144</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>508</v>
+        <v>442</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>547</v>
+        <v>481</v>
       </c>
       <c r="I95" s="22">
         <v>119342007</v>
@@ -9899,7 +9817,7 @@
         <v>160</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="M95" s="22" t="s">
         <v>146</v>
@@ -9919,16 +9837,16 @@
         <v>144</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="I96" s="22">
         <v>119342007</v>
@@ -9940,7 +9858,7 @@
         <v>160</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="M96" s="22" t="s">
         <v>146</v>
@@ -9960,7 +9878,7 @@
         <v>144</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>232</v>
@@ -9969,7 +9887,7 @@
         <v>385</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>549</v>
+        <v>483</v>
       </c>
       <c r="I97" s="22">
         <v>119342007</v>
@@ -10001,16 +9919,16 @@
         <v>144</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>550</v>
+        <v>484</v>
       </c>
       <c r="I98" s="22">
         <v>119342007</v>
@@ -10022,7 +9940,7 @@
         <v>160</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="M98" s="22" t="s">
         <v>146</v>
@@ -10781,8 +10699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44:H55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11407,7 +11325,7 @@
         <v>112</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I32" s="25" t="s">
         <v>264</v>
@@ -11421,7 +11339,7 @@
         <v>112</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="I33" s="25" t="s">
         <v>268</v>
@@ -11584,12 +11502,12 @@
         <v>266</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="J44" s="29"/>
+        <v>425</v>
+      </c>
+      <c r="J44" s="17"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -11608,10 +11526,10 @@
         <v>270</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>492</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -11628,13 +11546,13 @@
         <v>114</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -11651,13 +11569,13 @@
         <v>114</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>494</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -11674,13 +11592,13 @@
         <v>114</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -11697,13 +11615,13 @@
         <v>114</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>533</v>
+        <v>467</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>496</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -11720,13 +11638,13 @@
         <v>114</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>532</v>
+        <v>466</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>497</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -11743,13 +11661,13 @@
         <v>114</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>498</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -11766,13 +11684,13 @@
         <v>114</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>518</v>
+        <v>452</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>535</v>
+        <v>469</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -11789,13 +11707,13 @@
         <v>114</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>534</v>
+        <v>468</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>500</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -11812,13 +11730,13 @@
         <v>114</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>520</v>
+        <v>454</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>536</v>
+        <v>470</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>501</v>
+        <v>435</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -11835,13 +11753,13 @@
         <v>114</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>521</v>
+        <v>455</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>502</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -11852,10 +11770,10 @@
         <v>112</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>522</v>
+        <v>456</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>503</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -11866,10 +11784,10 @@
         <v>112</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>523</v>
+        <v>457</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>504</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -11880,10 +11798,10 @@
         <v>112</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>524</v>
+        <v>458</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>505</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -11894,10 +11812,10 @@
         <v>112</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>525</v>
+        <v>459</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>506</v>
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -11908,10 +11826,10 @@
         <v>112</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>507</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -11922,10 +11840,10 @@
         <v>112</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>508</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -11936,10 +11854,10 @@
         <v>112</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>528</v>
+        <v>462</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -11953,7 +11871,7 @@
         <v>385</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -11964,16 +11882,17 @@
         <v>112</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>529</v>
+        <v>463</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-FAST\TestDataNEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-FAST\GITHub_SmICS\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="550">
   <si>
     <t>Impfstoff</t>
   </si>
@@ -1112,9 +1112,6 @@
   </si>
   <si>
     <t>2020-12-01T09:13:09Z</t>
-  </si>
-  <si>
-    <t>2020-11-26T12:13:00Z</t>
   </si>
   <si>
     <t>2020-02-05T12:13:00Z</t>
@@ -2313,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2438,7 @@
         <v>355</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>104</v>
@@ -2467,10 +2464,10 @@
         <v>103</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>104</v>
@@ -2499,7 +2496,7 @@
         <v>336</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>124</v>
@@ -2528,7 +2525,7 @@
         <v>335</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>124</v>
@@ -2554,10 +2551,10 @@
         <v>136</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>137</v>
@@ -2583,10 +2580,10 @@
         <v>136</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>138</v>
@@ -2612,10 +2609,10 @@
         <v>136</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>137</v>
@@ -2641,10 +2638,10 @@
         <v>136</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>137</v>
@@ -2670,10 +2667,10 @@
         <v>136</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>142</v>
@@ -2699,10 +2696,10 @@
         <v>136</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>142</v>
@@ -2728,10 +2725,10 @@
         <v>139</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>104</v>
@@ -2757,10 +2754,10 @@
         <v>140</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>137</v>
@@ -2786,10 +2783,10 @@
         <v>139</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>104</v>
@@ -2815,10 +2812,10 @@
         <v>139</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>124</v>
@@ -2844,10 +2841,10 @@
         <v>139</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>104</v>
@@ -2873,10 +2870,10 @@
         <v>139</v>
       </c>
       <c r="G21" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>408</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>409</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>104</v>
@@ -2902,10 +2899,10 @@
         <v>141</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I22" s="22" t="s">
         <v>104</v>
@@ -2931,10 +2928,10 @@
         <v>136</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>137</v>
@@ -2960,10 +2957,10 @@
         <v>139</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>104</v>
@@ -2989,10 +2986,10 @@
         <v>139</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>104</v>
@@ -3018,10 +3015,10 @@
         <v>141</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>104</v>
@@ -3047,10 +3044,10 @@
         <v>141</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>104</v>
@@ -3076,10 +3073,10 @@
         <v>136</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>104</v>
@@ -3105,10 +3102,10 @@
         <v>141</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>104</v>
@@ -3134,10 +3131,10 @@
         <v>141</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>104</v>
@@ -3163,10 +3160,10 @@
         <v>136</v>
       </c>
       <c r="G31" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>420</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>421</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>104</v>
@@ -3192,10 +3189,10 @@
         <v>141</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I32" s="22" t="s">
         <v>104</v>
@@ -3221,10 +3218,10 @@
         <v>254</v>
       </c>
       <c r="G33" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="H33" s="22" t="s">
         <v>424</v>
-      </c>
-      <c r="H33" s="22" t="s">
-        <v>425</v>
       </c>
       <c r="I33" s="22" t="s">
         <v>104</v>
@@ -3253,7 +3250,7 @@
         <v>141</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>104</v>
@@ -3282,7 +3279,7 @@
         <v>141</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I35" s="22" t="s">
         <v>104</v>
@@ -3308,7 +3305,7 @@
         <v>141</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I36" s="22" t="s">
         <v>104</v>
@@ -3337,7 +3334,7 @@
         <v>141</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I37" s="22" t="s">
         <v>104</v>
@@ -3366,7 +3363,7 @@
         <v>141</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I38" s="22" t="s">
         <v>104</v>
@@ -3395,7 +3392,7 @@
         <v>141</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I39" s="22" t="s">
         <v>104</v>
@@ -3421,10 +3418,10 @@
         <v>136</v>
       </c>
       <c r="G40" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="H40" s="22" t="s">
         <v>432</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>433</v>
       </c>
       <c r="I40" s="22" t="s">
         <v>104</v>
@@ -3450,10 +3447,10 @@
         <v>141</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I41" s="22" t="s">
         <v>104</v>
@@ -3479,7 +3476,7 @@
         <v>141</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I42" s="22" t="s">
         <v>104</v>
@@ -3505,7 +3502,7 @@
         <v>141</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>104</v>
@@ -3531,7 +3528,7 @@
         <v>141</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I44" s="22" t="s">
         <v>104</v>
@@ -3557,10 +3554,10 @@
         <v>136</v>
       </c>
       <c r="G45" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="H45" s="22" t="s">
         <v>438</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>439</v>
       </c>
       <c r="I45" s="22" t="s">
         <v>104</v>
@@ -3586,7 +3583,7 @@
         <v>141</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>104</v>
@@ -3612,10 +3609,10 @@
         <v>141</v>
       </c>
       <c r="G47" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="H47" s="22" t="s">
         <v>441</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>442</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>104</v>
@@ -3641,7 +3638,7 @@
         <v>141</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I48" s="22" t="s">
         <v>104</v>
@@ -3667,10 +3664,10 @@
         <v>136</v>
       </c>
       <c r="G49" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="H49" s="22" t="s">
         <v>444</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>445</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>104</v>
@@ -3696,10 +3693,10 @@
         <v>141</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>104</v>
@@ -3725,10 +3722,10 @@
         <v>141</v>
       </c>
       <c r="G51" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="H51" s="22" t="s">
         <v>448</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>449</v>
       </c>
       <c r="I51" s="22" t="s">
         <v>104</v>
@@ -3754,7 +3751,7 @@
         <v>254</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I52" s="22" t="s">
         <v>104</v>
@@ -3780,7 +3777,7 @@
         <v>141</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I53" s="22" t="s">
         <v>104</v>
@@ -3806,10 +3803,10 @@
         <v>141</v>
       </c>
       <c r="G54" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="H54" s="22" t="s">
         <v>452</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>453</v>
       </c>
       <c r="I54" s="22" t="s">
         <v>104</v>
@@ -3835,7 +3832,7 @@
         <v>254</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I55" s="22" t="s">
         <v>104</v>
@@ -3861,10 +3858,10 @@
         <v>303</v>
       </c>
       <c r="G56" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="H56" s="22" t="s">
         <v>455</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>456</v>
       </c>
       <c r="I56" s="22" t="s">
         <v>301</v>
@@ -3890,10 +3887,10 @@
         <v>140</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I57" s="22" t="s">
         <v>301</v>
@@ -3919,10 +3916,10 @@
         <v>141</v>
       </c>
       <c r="G58" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="H58" s="22" t="s">
         <v>459</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>460</v>
       </c>
       <c r="I58" s="22" t="s">
         <v>301</v>
@@ -3948,10 +3945,10 @@
         <v>141</v>
       </c>
       <c r="G59" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="H59" s="22" t="s">
         <v>461</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>462</v>
       </c>
       <c r="I59" s="22" t="s">
         <v>301</v>
@@ -3977,10 +3974,10 @@
         <v>308</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I60" s="22" t="s">
         <v>301</v>
@@ -4006,10 +4003,10 @@
         <v>310</v>
       </c>
       <c r="G61" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="H61" s="22" t="s">
         <v>465</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>466</v>
       </c>
       <c r="I61" s="22" t="s">
         <v>301</v>
@@ -4035,10 +4032,10 @@
         <v>141</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I62" s="22" t="s">
         <v>301</v>
@@ -4064,10 +4061,10 @@
         <v>312</v>
       </c>
       <c r="G63" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="H63" s="22" t="s">
         <v>469</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>470</v>
       </c>
       <c r="I63" s="22" t="s">
         <v>301</v>
@@ -4093,10 +4090,10 @@
         <v>314</v>
       </c>
       <c r="G64" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="H64" s="22" t="s">
         <v>471</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>472</v>
       </c>
       <c r="I64" s="22" t="s">
         <v>301</v>
@@ -4122,10 +4119,10 @@
         <v>312</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I65" s="22" t="s">
         <v>301</v>
@@ -4151,10 +4148,10 @@
         <v>141</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I66" s="22" t="s">
         <v>301</v>
@@ -4180,10 +4177,10 @@
         <v>141</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I67" s="22" t="s">
         <v>301</v>
@@ -4209,10 +4206,10 @@
         <v>141</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I68" s="22" t="s">
         <v>301</v>
@@ -4238,10 +4235,10 @@
         <v>141</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I69" s="22" t="s">
         <v>301</v>
@@ -4267,10 +4264,10 @@
         <v>141</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I70" s="22" t="s">
         <v>301</v>
@@ -4296,10 +4293,10 @@
         <v>314</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I71" s="22" t="s">
         <v>301</v>
@@ -4325,10 +4322,10 @@
         <v>310</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I72" s="22" t="s">
         <v>301</v>
@@ -4354,7 +4351,7 @@
         <v>141</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I73" s="22" t="s">
         <v>104</v>
@@ -4380,7 +4377,7 @@
         <v>136</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I74" s="22" t="s">
         <v>104</v>
@@ -4406,7 +4403,7 @@
         <v>141</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I75" s="22" t="s">
         <v>104</v>
@@ -4432,7 +4429,7 @@
         <v>141</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H76" s="22" t="s">
         <v>333</v>
@@ -4461,7 +4458,7 @@
         <v>141</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I77" s="22" t="s">
         <v>124</v>
@@ -4491,13 +4488,13 @@
         <v>266</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I78" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K78" s="22" t="s">
         <v>102</v>
@@ -4520,13 +4517,13 @@
         <v>270</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I79" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K79" s="22" t="s">
         <v>102</v>
@@ -4546,16 +4543,16 @@
         <v>141</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I80" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K80" s="22" t="s">
         <v>102</v>
@@ -4575,16 +4572,16 @@
         <v>141</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I81" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J81" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K81" s="22" t="s">
         <v>102</v>
@@ -4604,16 +4601,16 @@
         <v>141</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I82" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J82" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K82" s="22" t="s">
         <v>102</v>
@@ -4633,16 +4630,16 @@
         <v>141</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I83" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J83" s="25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K83" s="22" t="s">
         <v>102</v>
@@ -4662,16 +4659,16 @@
         <v>141</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I84" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K84" s="22" t="s">
         <v>102</v>
@@ -4691,16 +4688,16 @@
         <v>141</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I85" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J85" s="25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K85" s="22" t="s">
         <v>102</v>
@@ -4720,16 +4717,16 @@
         <v>141</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I86" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J86" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K86" s="22" t="s">
         <v>102</v>
@@ -4749,16 +4746,16 @@
         <v>141</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I87" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J87" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K87" s="22" t="s">
         <v>102</v>
@@ -4778,16 +4775,16 @@
         <v>141</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I88" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J88" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K88" s="22" t="s">
         <v>102</v>
@@ -4807,16 +4804,16 @@
         <v>141</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I89" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J89" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K89" s="22" t="s">
         <v>102</v>
@@ -4836,13 +4833,13 @@
         <v>141</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I90" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J90" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K90" s="22" t="s">
         <v>102</v>
@@ -4862,13 +4859,13 @@
         <v>141</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I91" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J91" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K91" s="22" t="s">
         <v>102</v>
@@ -4888,13 +4885,13 @@
         <v>141</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I92" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J92" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K92" s="22" t="s">
         <v>102</v>
@@ -4914,13 +4911,13 @@
         <v>141</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I93" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J93" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K93" s="22" t="s">
         <v>102</v>
@@ -4940,13 +4937,13 @@
         <v>141</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I94" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J94" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K94" s="22" t="s">
         <v>102</v>
@@ -4966,13 +4963,13 @@
         <v>141</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I95" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J95" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K95" s="22" t="s">
         <v>102</v>
@@ -4992,13 +4989,13 @@
         <v>141</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I96" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J96" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K96" s="22" t="s">
         <v>102</v>
@@ -5018,13 +5015,13 @@
         <v>141</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I97" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J97" s="25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K97" s="22" t="s">
         <v>102</v>
@@ -5044,13 +5041,13 @@
         <v>141</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I98" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J98" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K98" s="22" t="s">
         <v>102</v>
@@ -6019,7 +6016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -6233,7 +6230,7 @@
         <v>293</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I7" s="22">
         <v>119342007</v>
@@ -6245,7 +6242,7 @@
         <v>160</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>146</v>
@@ -9180,7 +9177,7 @@
         <v>144</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>232</v>
@@ -9189,7 +9186,7 @@
         <v>266</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I78" s="22">
         <v>119342007</v>
@@ -9222,7 +9219,7 @@
         <v>144</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>232</v>
@@ -9231,7 +9228,7 @@
         <v>270</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I79" s="22">
         <v>119342007</v>
@@ -9263,16 +9260,16 @@
         <v>144</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I80" s="22">
         <v>119342007</v>
@@ -9284,7 +9281,7 @@
         <v>160</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M80" s="22" t="s">
         <v>146</v>
@@ -9304,16 +9301,16 @@
         <v>144</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G81" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="H81" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="I81" s="22">
         <v>119342007</v>
@@ -9325,7 +9322,7 @@
         <v>160</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M81" s="22" t="s">
         <v>146</v>
@@ -9345,16 +9342,16 @@
         <v>144</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G82" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="H82" s="22" t="s">
         <v>514</v>
-      </c>
-      <c r="H82" s="22" t="s">
-        <v>515</v>
       </c>
       <c r="I82" s="22">
         <v>119342007</v>
@@ -9366,7 +9363,7 @@
         <v>160</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M82" s="22" t="s">
         <v>146</v>
@@ -9386,16 +9383,16 @@
         <v>144</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G83" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="H83" s="22" t="s">
         <v>515</v>
-      </c>
-      <c r="H83" s="22" t="s">
-        <v>516</v>
       </c>
       <c r="I83" s="22">
         <v>119342007</v>
@@ -9407,7 +9404,7 @@
         <v>160</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M83" s="22" t="s">
         <v>146</v>
@@ -9427,16 +9424,16 @@
         <v>144</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G84" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="H84" s="22" t="s">
         <v>516</v>
-      </c>
-      <c r="H84" s="22" t="s">
-        <v>517</v>
       </c>
       <c r="I84" s="22">
         <v>119342007</v>
@@ -9448,7 +9445,7 @@
         <v>160</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M84" s="22" t="s">
         <v>146</v>
@@ -9468,16 +9465,16 @@
         <v>144</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I85" s="22">
         <v>119342007</v>
@@ -9489,7 +9486,7 @@
         <v>160</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M85" s="22" t="s">
         <v>146</v>
@@ -9509,16 +9506,16 @@
         <v>144</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I86" s="22">
         <v>119342007</v>
@@ -9530,7 +9527,7 @@
         <v>160</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M86" s="22" t="s">
         <v>146</v>
@@ -9550,16 +9547,16 @@
         <v>144</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I87" s="22">
         <v>119342007</v>
@@ -9571,7 +9568,7 @@
         <v>160</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M87" s="22" t="s">
         <v>146</v>
@@ -9591,16 +9588,16 @@
         <v>144</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G88" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="H88" s="22" t="s">
         <v>520</v>
-      </c>
-      <c r="H88" s="22" t="s">
-        <v>521</v>
       </c>
       <c r="I88" s="22">
         <v>119342007</v>
@@ -9612,7 +9609,7 @@
         <v>160</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M88" s="22" t="s">
         <v>146</v>
@@ -9632,16 +9629,16 @@
         <v>144</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I89" s="22">
         <v>119342007</v>
@@ -9653,7 +9650,7 @@
         <v>160</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M89" s="22" t="s">
         <v>146</v>
@@ -9673,16 +9670,16 @@
         <v>144</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I90" s="22">
         <v>119342007</v>
@@ -9694,7 +9691,7 @@
         <v>160</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M90" s="22" t="s">
         <v>146</v>
@@ -9714,16 +9711,16 @@
         <v>144</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G91" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="H91" s="22" t="s">
         <v>523</v>
-      </c>
-      <c r="H91" s="22" t="s">
-        <v>524</v>
       </c>
       <c r="I91" s="22">
         <v>119342007</v>
@@ -9735,7 +9732,7 @@
         <v>160</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M91" s="22" t="s">
         <v>146</v>
@@ -9755,16 +9752,16 @@
         <v>144</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G92" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="H92" s="22" t="s">
         <v>524</v>
-      </c>
-      <c r="H92" s="22" t="s">
-        <v>525</v>
       </c>
       <c r="I92" s="22">
         <v>119342007</v>
@@ -9776,7 +9773,7 @@
         <v>160</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M92" s="22" t="s">
         <v>146</v>
@@ -9796,16 +9793,16 @@
         <v>144</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I93" s="22">
         <v>119342007</v>
@@ -9817,7 +9814,7 @@
         <v>160</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M93" s="22" t="s">
         <v>146</v>
@@ -9837,16 +9834,16 @@
         <v>144</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G94" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="H94" s="22" t="s">
         <v>526</v>
-      </c>
-      <c r="H94" s="22" t="s">
-        <v>527</v>
       </c>
       <c r="I94" s="22">
         <v>119342007</v>
@@ -9858,7 +9855,7 @@
         <v>160</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M94" s="22" t="s">
         <v>146</v>
@@ -9878,16 +9875,16 @@
         <v>144</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I95" s="22">
         <v>119342007</v>
@@ -9899,7 +9896,7 @@
         <v>160</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M95" s="22" t="s">
         <v>146</v>
@@ -9919,16 +9916,16 @@
         <v>144</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I96" s="22">
         <v>119342007</v>
@@ -9940,7 +9937,7 @@
         <v>160</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M96" s="22" t="s">
         <v>146</v>
@@ -9960,16 +9957,16 @@
         <v>144</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I97" s="22">
         <v>119342007</v>
@@ -9981,7 +9978,7 @@
         <v>160</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M97" s="22" t="s">
         <v>146</v>
@@ -10001,16 +9998,16 @@
         <v>144</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I98" s="22">
         <v>119342007</v>
@@ -10022,7 +10019,7 @@
         <v>160</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M98" s="22" t="s">
         <v>146</v>
@@ -10781,8 +10778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44:H55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10866,7 +10863,7 @@
         <v>355</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>277</v>
@@ -10886,10 +10883,10 @@
         <v>114</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>278</v>
@@ -10912,7 +10909,7 @@
         <v>336</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>279</v>
@@ -10935,7 +10932,7 @@
         <v>335</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>280</v>
@@ -10955,10 +10952,10 @@
         <v>114</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>281</v>
@@ -10978,10 +10975,10 @@
         <v>114</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>282</v>
@@ -11001,10 +10998,10 @@
         <v>114</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>283</v>
@@ -11024,10 +11021,10 @@
         <v>114</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>284</v>
@@ -11047,10 +11044,10 @@
         <v>114</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>285</v>
@@ -11070,10 +11067,10 @@
         <v>114</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>290</v>
@@ -11096,7 +11093,7 @@
         <v>349</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>286</v>
@@ -11116,10 +11113,10 @@
         <v>114</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>287</v>
@@ -11142,7 +11139,7 @@
         <v>351</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I18" s="25" t="s">
         <v>288</v>
@@ -11162,10 +11159,10 @@
         <v>114</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>289</v>
@@ -11185,10 +11182,10 @@
         <v>114</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>291</v>
@@ -11208,10 +11205,10 @@
         <v>114</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>292</v>
@@ -11231,10 +11228,10 @@
         <v>114</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I22" s="25" t="s">
         <v>229</v>
@@ -11254,10 +11251,10 @@
         <v>114</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>241</v>
@@ -11277,10 +11274,10 @@
         <v>114</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I24" s="25" t="s">
         <v>240</v>
@@ -11300,10 +11297,10 @@
         <v>114</v>
       </c>
       <c r="G25" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>380</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>381</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>250</v>
@@ -11319,7 +11316,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I26" s="25" t="s">
         <v>253</v>
@@ -11335,7 +11332,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>257</v>
@@ -11351,7 +11348,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I28" s="25" t="s">
         <v>258</v>
@@ -11365,7 +11362,7 @@
         <v>112</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>259</v>
@@ -11379,7 +11376,7 @@
         <v>112</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I30" s="25" t="s">
         <v>262</v>
@@ -11393,7 +11390,7 @@
         <v>112</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I31" s="25" t="s">
         <v>263</v>
@@ -11407,7 +11404,7 @@
         <v>112</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I32" s="25" t="s">
         <v>264</v>
@@ -11421,7 +11418,7 @@
         <v>112</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I33" s="25" t="s">
         <v>268</v>
@@ -11435,7 +11432,7 @@
         <v>112</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I34" s="25" t="s">
         <v>269</v>
@@ -11449,7 +11446,7 @@
         <v>112</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I35" s="25" t="s">
         <v>272</v>
@@ -11463,7 +11460,7 @@
         <v>112</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I36" s="25" t="s">
         <v>273</v>
@@ -11477,7 +11474,7 @@
         <v>112</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>274</v>
@@ -11491,7 +11488,7 @@
         <v>112</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I38" s="25" t="s">
         <v>275</v>
@@ -11505,7 +11502,7 @@
         <v>112</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I39" s="25" t="s">
         <v>276</v>
@@ -11584,10 +11581,10 @@
         <v>266</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J44" s="29"/>
     </row>
@@ -11608,10 +11605,10 @@
         <v>270</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -11628,13 +11625,13 @@
         <v>114</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -11651,13 +11648,13 @@
         <v>114</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -11674,13 +11671,13 @@
         <v>114</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -11697,13 +11694,13 @@
         <v>114</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -11720,13 +11717,13 @@
         <v>114</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -11743,13 +11740,13 @@
         <v>114</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -11766,13 +11763,13 @@
         <v>114</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -11789,13 +11786,13 @@
         <v>114</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -11812,13 +11809,13 @@
         <v>114</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -11835,13 +11832,13 @@
         <v>114</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -11852,10 +11849,10 @@
         <v>112</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -11866,10 +11863,10 @@
         <v>112</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -11880,10 +11877,10 @@
         <v>112</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -11894,10 +11891,10 @@
         <v>112</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -11908,10 +11905,10 @@
         <v>112</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -11922,10 +11919,10 @@
         <v>112</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -11936,10 +11933,10 @@
         <v>112</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -11950,10 +11947,10 @@
         <v>112</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -11964,10 +11961,10 @@
         <v>112</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestdataOverview.xlsx
+++ b/TestData/TestdataOverview.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B-FAST\TestDataNEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schickkr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="486">
   <si>
     <t>Impfstoff</t>
   </si>
@@ -1114,9 +1114,6 @@
     <t>2020-12-01T09:13:09Z</t>
   </si>
   <si>
-    <t>2020-11-26T12:13:00Z</t>
-  </si>
-  <si>
     <t>2020-02-05T12:13:00Z</t>
   </si>
   <si>
@@ -1219,228 +1216,66 @@
     <t>2020-02-11T12:13:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:01Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:02Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:03Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:04Z</t>
-  </si>
-  <si>
     <t>2020-03-14T12:13:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:05Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:06Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:07Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:08Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:09Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:10Z</t>
-  </si>
-  <si>
     <t>2020-03-18T12:13:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:11Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:12Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:13Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:14Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:15Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:16Z</t>
-  </si>
-  <si>
     <t>2021-01-03T11:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:17Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:18Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:19Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:20Z</t>
-  </si>
-  <si>
-    <t>2021-01-04T11:00:00Z</t>
-  </si>
-  <si>
     <t>2021-01-06T16:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:21Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:22Z</t>
-  </si>
-  <si>
     <t>2021-01-08T14:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:23Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:24Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:25Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:26Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:27Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:28Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:29Z</t>
-  </si>
-  <si>
     <t>2021-01-06T08:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:30Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:31Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:32Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:33Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:34Z</t>
-  </si>
-  <si>
     <t>2021-01-07T14:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:35Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:36Z</t>
-  </si>
-  <si>
     <t>2021-01-08T13:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:37Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:38Z</t>
-  </si>
-  <si>
     <t>2021-01-03T12:00:00Z</t>
   </si>
   <si>
     <t>2021-01-09T13:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:39Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:40Z</t>
-  </si>
-  <si>
     <t>2021-01-10T20:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:41Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:42Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:43Z</t>
-  </si>
-  <si>
     <t>2021-01-10T18:00:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:44Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:45Z</t>
-  </si>
-  <si>
     <t>2021-01-03T15:00:00Z</t>
   </si>
   <si>
     <t>2021-01-03T19:40:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:46Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:47Z</t>
-  </si>
-  <si>
     <t>2021-01-04T10:40:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:48Z</t>
-  </si>
-  <si>
     <t>2021-01-06T15:00:00Z</t>
   </si>
   <si>
     <t>2021-01-06T17:34:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:49Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:50Z</t>
-  </si>
-  <si>
     <t>2021-01-07T12:34:00Z</t>
   </si>
   <si>
     <t>2021-01-08T15:25:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:51Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:52Z</t>
-  </si>
-  <si>
     <t>2021-01-04T15:46:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:53Z</t>
-  </si>
-  <si>
     <t>2021-01-05T09:46:00Z</t>
   </si>
   <si>
@@ -1459,45 +1294,6 @@
     <t>2021-01-03T13:48:00Z</t>
   </si>
   <si>
-    <t>2020-02-11T12:13:61Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:60Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:59Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:58Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:57Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:56Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:55Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:54Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:62Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:63Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:64Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:65Z</t>
-  </si>
-  <si>
-    <t>2020-02-11T12:13:66Z</t>
-  </si>
-  <si>
     <t>00000039</t>
   </si>
   <si>
@@ -1676,6 +1472,15 @@
   </si>
   <si>
     <t>2021-01-28T10:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-04T15:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-09T10:30:00Z</t>
+  </si>
+  <si>
+    <t>2021-01-09T11:30:00Z</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1522,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1748,12 +1553,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1778,7 +1577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1836,7 +1635,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -2313,8 +2111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2239,7 @@
         <v>355</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I6" s="22" t="s">
         <v>104</v>
@@ -2467,10 +2265,10 @@
         <v>103</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>104</v>
@@ -2499,7 +2297,7 @@
         <v>336</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>124</v>
@@ -2528,7 +2326,7 @@
         <v>335</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>124</v>
@@ -2554,10 +2352,10 @@
         <v>136</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>137</v>
@@ -2583,10 +2381,10 @@
         <v>136</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>138</v>
@@ -2612,10 +2410,10 @@
         <v>136</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I12" s="22" t="s">
         <v>137</v>
@@ -2641,10 +2439,10 @@
         <v>136</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>137</v>
@@ -2670,10 +2468,10 @@
         <v>136</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>142</v>
@@ -2699,10 +2497,10 @@
         <v>136</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>142</v>
@@ -2728,10 +2526,10 @@
         <v>139</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>104</v>
@@ -2757,10 +2555,10 @@
         <v>140</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I17" s="22" t="s">
         <v>137</v>
@@ -2786,10 +2584,10 @@
         <v>139</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I18" s="22" t="s">
         <v>104</v>
@@ -2815,10 +2613,10 @@
         <v>139</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>124</v>
@@ -2844,10 +2642,10 @@
         <v>139</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>104</v>
@@ -2873,10 +2671,10 @@
         <v>139</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>104</v>
@@ -2902,10 +2700,10 @@
         <v>141</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I22" s="22" t="s">
         <v>104</v>
@@ -2931,10 +2729,10 @@
         <v>136</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I23" s="22" t="s">
         <v>137</v>
@@ -2960,10 +2758,10 @@
         <v>139</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I24" s="22" t="s">
         <v>104</v>
@@ -2989,10 +2787,10 @@
         <v>139</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>104</v>
@@ -3018,10 +2816,10 @@
         <v>141</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I26" s="22" t="s">
         <v>104</v>
@@ -3047,10 +2845,10 @@
         <v>141</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>104</v>
@@ -3076,10 +2874,10 @@
         <v>136</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>104</v>
@@ -3105,10 +2903,10 @@
         <v>141</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I29" s="22" t="s">
         <v>104</v>
@@ -3134,10 +2932,10 @@
         <v>141</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I30" s="22" t="s">
         <v>104</v>
@@ -3163,10 +2961,10 @@
         <v>136</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>104</v>
@@ -3192,10 +2990,10 @@
         <v>141</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="I32" s="22" t="s">
         <v>104</v>
@@ -3221,10 +3019,10 @@
         <v>254</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="I33" s="22" t="s">
         <v>104</v>
@@ -3253,7 +3051,7 @@
         <v>141</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>104</v>
@@ -3282,7 +3080,7 @@
         <v>141</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="I35" s="22" t="s">
         <v>104</v>
@@ -3308,7 +3106,7 @@
         <v>141</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
       <c r="I36" s="22" t="s">
         <v>104</v>
@@ -3337,7 +3135,7 @@
         <v>141</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="I37" s="22" t="s">
         <v>104</v>
@@ -3366,7 +3164,7 @@
         <v>141</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="I38" s="22" t="s">
         <v>104</v>
@@ -3395,7 +3193,7 @@
         <v>141</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>431</v>
+        <v>375</v>
       </c>
       <c r="I39" s="22" t="s">
         <v>104</v>
@@ -3421,10 +3219,10 @@
         <v>136</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="I40" s="22" t="s">
         <v>104</v>
@@ -3450,10 +3248,10 @@
         <v>141</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I41" s="22" t="s">
         <v>104</v>
@@ -3479,7 +3277,7 @@
         <v>141</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="I42" s="22" t="s">
         <v>104</v>
@@ -3505,7 +3303,7 @@
         <v>141</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="I43" s="22" t="s">
         <v>104</v>
@@ -3531,7 +3329,7 @@
         <v>141</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="I44" s="22" t="s">
         <v>104</v>
@@ -3557,10 +3355,10 @@
         <v>136</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="I45" s="22" t="s">
         <v>104</v>
@@ -3586,7 +3384,7 @@
         <v>141</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="I46" s="22" t="s">
         <v>104</v>
@@ -3612,10 +3410,10 @@
         <v>141</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>441</v>
+        <v>373</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>442</v>
+        <v>404</v>
       </c>
       <c r="I47" s="22" t="s">
         <v>104</v>
@@ -3641,7 +3439,7 @@
         <v>141</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="I48" s="22" t="s">
         <v>104</v>
@@ -3667,10 +3465,10 @@
         <v>136</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>444</v>
+        <v>372</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="I49" s="22" t="s">
         <v>104</v>
@@ -3696,10 +3494,10 @@
         <v>141</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="I50" s="22" t="s">
         <v>104</v>
@@ -3725,10 +3523,10 @@
         <v>141</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="I51" s="22" t="s">
         <v>104</v>
@@ -3754,7 +3552,7 @@
         <v>254</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="I52" s="22" t="s">
         <v>104</v>
@@ -3780,7 +3578,7 @@
         <v>141</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>451</v>
+        <v>371</v>
       </c>
       <c r="I53" s="22" t="s">
         <v>104</v>
@@ -3806,10 +3604,10 @@
         <v>141</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>452</v>
+        <v>370</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="I54" s="22" t="s">
         <v>104</v>
@@ -3835,7 +3633,7 @@
         <v>254</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>454</v>
+        <v>408</v>
       </c>
       <c r="I55" s="22" t="s">
         <v>104</v>
@@ -3861,10 +3659,10 @@
         <v>303</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>456</v>
+        <v>409</v>
       </c>
       <c r="I56" s="22" t="s">
         <v>301</v>
@@ -3890,10 +3688,10 @@
         <v>140</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="I57" s="22" t="s">
         <v>301</v>
@@ -3919,10 +3717,10 @@
         <v>141</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="I58" s="22" t="s">
         <v>301</v>
@@ -3948,10 +3746,10 @@
         <v>141</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="I59" s="22" t="s">
         <v>301</v>
@@ -3977,10 +3775,10 @@
         <v>308</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="I60" s="22" t="s">
         <v>301</v>
@@ -4006,10 +3804,10 @@
         <v>310</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="I61" s="22" t="s">
         <v>301</v>
@@ -4035,10 +3833,10 @@
         <v>141</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="I62" s="22" t="s">
         <v>301</v>
@@ -4064,10 +3862,10 @@
         <v>312</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>469</v>
+        <v>416</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>470</v>
+        <v>416</v>
       </c>
       <c r="I63" s="22" t="s">
         <v>301</v>
@@ -4093,10 +3891,10 @@
         <v>314</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="I64" s="22" t="s">
         <v>301</v>
@@ -4122,10 +3920,10 @@
         <v>312</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>473</v>
+        <v>418</v>
       </c>
       <c r="I65" s="22" t="s">
         <v>301</v>
@@ -4151,10 +3949,10 @@
         <v>141</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>484</v>
+        <v>419</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="I66" s="22" t="s">
         <v>301</v>
@@ -4180,10 +3978,10 @@
         <v>141</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>483</v>
+        <v>420</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
       <c r="I67" s="22" t="s">
         <v>301</v>
@@ -4209,10 +4007,10 @@
         <v>141</v>
       </c>
       <c r="G68" s="22" t="s">
-        <v>482</v>
+        <v>421</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="I68" s="22" t="s">
         <v>301</v>
@@ -4238,10 +4036,10 @@
         <v>141</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>481</v>
+        <v>422</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="I69" s="22" t="s">
         <v>301</v>
@@ -4267,10 +4065,10 @@
         <v>141</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="I70" s="22" t="s">
         <v>301</v>
@@ -4296,10 +4094,10 @@
         <v>314</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>479</v>
+        <v>417</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="I71" s="22" t="s">
         <v>301</v>
@@ -4325,10 +4123,10 @@
         <v>310</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>478</v>
+        <v>414</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="I72" s="22" t="s">
         <v>301</v>
@@ -4354,7 +4152,7 @@
         <v>141</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>486</v>
+        <v>237</v>
       </c>
       <c r="I73" s="22" t="s">
         <v>104</v>
@@ -4380,7 +4178,7 @@
         <v>136</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>487</v>
+        <v>244</v>
       </c>
       <c r="I74" s="22" t="s">
         <v>104</v>
@@ -4406,7 +4204,7 @@
         <v>141</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>488</v>
+        <v>234</v>
       </c>
       <c r="I75" s="22" t="s">
         <v>104</v>
@@ -4432,10 +4230,10 @@
         <v>141</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>489</v>
+        <v>246</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="I76" s="22" t="s">
         <v>104</v>
@@ -4461,7 +4259,7 @@
         <v>141</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>490</v>
+        <v>248</v>
       </c>
       <c r="I77" s="22" t="s">
         <v>124</v>
@@ -4474,7 +4272,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="17"/>
       <c r="B78">
         <v>39</v>
       </c>
@@ -4491,13 +4289,13 @@
         <v>266</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="I78" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>491</v>
+        <v>423</v>
       </c>
       <c r="K78" s="22" t="s">
         <v>102</v>
@@ -4520,13 +4318,13 @@
         <v>270</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="I79" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>492</v>
+        <v>424</v>
       </c>
       <c r="K79" s="22" t="s">
         <v>102</v>
@@ -4546,16 +4344,16 @@
         <v>141</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>512</v>
+        <v>444</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>530</v>
+        <v>462</v>
       </c>
       <c r="I80" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J80" s="25" t="s">
-        <v>493</v>
+        <v>425</v>
       </c>
       <c r="K80" s="22" t="s">
         <v>102</v>
@@ -4575,16 +4373,16 @@
         <v>141</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>513</v>
+        <v>445</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="I81" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J81" s="25" t="s">
-        <v>494</v>
+        <v>426</v>
       </c>
       <c r="K81" s="22" t="s">
         <v>102</v>
@@ -4604,16 +4402,16 @@
         <v>141</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>514</v>
+        <v>446</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="I82" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J82" s="25" t="s">
-        <v>495</v>
+        <v>427</v>
       </c>
       <c r="K82" s="22" t="s">
         <v>102</v>
@@ -4633,16 +4431,16 @@
         <v>141</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
       <c r="I83" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J83" s="25" t="s">
-        <v>496</v>
+        <v>428</v>
       </c>
       <c r="K83" s="22" t="s">
         <v>102</v>
@@ -4662,16 +4460,16 @@
         <v>141</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="I84" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J84" s="25" t="s">
-        <v>497</v>
+        <v>429</v>
       </c>
       <c r="K84" s="22" t="s">
         <v>102</v>
@@ -4691,16 +4489,16 @@
         <v>141</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="I85" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J85" s="25" t="s">
-        <v>498</v>
+        <v>430</v>
       </c>
       <c r="K85" s="22" t="s">
         <v>102</v>
@@ -4720,16 +4518,16 @@
         <v>141</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>518</v>
+        <v>450</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="I86" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J86" s="25" t="s">
-        <v>499</v>
+        <v>431</v>
       </c>
       <c r="K86" s="22" t="s">
         <v>102</v>
@@ -4749,16 +4547,16 @@
         <v>141</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="I87" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J87" s="25" t="s">
-        <v>500</v>
+        <v>432</v>
       </c>
       <c r="K87" s="22" t="s">
         <v>102</v>
@@ -4778,16 +4576,16 @@
         <v>141</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="I88" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J88" s="25" t="s">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="K88" s="22" t="s">
         <v>102</v>
@@ -4807,16 +4605,16 @@
         <v>141</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="I89" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J89" s="25" t="s">
-        <v>502</v>
+        <v>434</v>
       </c>
       <c r="K89" s="22" t="s">
         <v>102</v>
@@ -4836,13 +4634,13 @@
         <v>141</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="I90" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J90" s="25" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
       <c r="K90" s="22" t="s">
         <v>102</v>
@@ -4862,13 +4660,13 @@
         <v>141</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="I91" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J91" s="25" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
       <c r="K91" s="22" t="s">
         <v>102</v>
@@ -4888,13 +4686,13 @@
         <v>141</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="I92" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J92" s="25" t="s">
-        <v>505</v>
+        <v>437</v>
       </c>
       <c r="K92" s="22" t="s">
         <v>102</v>
@@ -4914,13 +4712,13 @@
         <v>141</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="I93" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J93" s="25" t="s">
-        <v>506</v>
+        <v>438</v>
       </c>
       <c r="K93" s="22" t="s">
         <v>102</v>
@@ -4940,13 +4738,13 @@
         <v>141</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="I94" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J94" s="25" t="s">
-        <v>507</v>
+        <v>439</v>
       </c>
       <c r="K94" s="22" t="s">
         <v>102</v>
@@ -4966,13 +4764,13 @@
         <v>141</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="I95" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J95" s="25" t="s">
-        <v>508</v>
+        <v>440</v>
       </c>
       <c r="K95" s="22" t="s">
         <v>102</v>
@@ -4992,13 +4790,13 @@
         <v>141</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>528</v>
+        <v>460</v>
       </c>
       <c r="I96" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J96" s="25" t="s">
-        <v>509</v>
+        <v>441</v>
       </c>
       <c r="K96" s="22" t="s">
         <v>102</v>
@@ -5018,13 +4816,13 @@
         <v>141</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I97" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J97" s="25" t="s">
-        <v>510</v>
+        <v>442</v>
       </c>
       <c r="K97" s="22" t="s">
         <v>102</v>
@@ -5044,13 +4842,13 @@
         <v>141</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="I98" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J98" s="25" t="s">
-        <v>511</v>
+        <v>443</v>
       </c>
       <c r="K98" s="22" t="s">
         <v>102</v>
@@ -5089,21 +4887,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="30" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="30"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -6019,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O172"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6213,7 +6011,7 @@
         <v>49</v>
       </c>
       <c r="O6" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -6233,7 +6031,7 @@
         <v>293</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I7" s="22">
         <v>119342007</v>
@@ -6245,7 +6043,7 @@
         <v>160</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M7" s="22" t="s">
         <v>146</v>
@@ -6254,7 +6052,7 @@
         <v>49</v>
       </c>
       <c r="O7" s="24">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -6295,7 +6093,7 @@
         <v>49</v>
       </c>
       <c r="O8" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -6336,7 +6134,7 @@
         <v>49</v>
       </c>
       <c r="O9" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -6377,7 +6175,7 @@
         <v>49</v>
       </c>
       <c r="O10" s="24">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -6418,7 +6216,7 @@
         <v>49</v>
       </c>
       <c r="O11" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -6459,7 +6257,7 @@
         <v>49</v>
       </c>
       <c r="O12" s="24">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -6500,7 +6298,7 @@
         <v>49</v>
       </c>
       <c r="O13" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -6541,7 +6339,7 @@
         <v>49</v>
       </c>
       <c r="O14" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -6582,7 +6380,7 @@
         <v>49</v>
       </c>
       <c r="O15" s="24">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -6623,7 +6421,7 @@
         <v>49</v>
       </c>
       <c r="O16" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -6664,7 +6462,7 @@
         <v>49</v>
       </c>
       <c r="O17" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -6705,7 +6503,7 @@
         <v>49</v>
       </c>
       <c r="O18" s="24">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -6746,7 +6544,7 @@
         <v>49</v>
       </c>
       <c r="O19" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -6790,7 +6588,7 @@
         <v>49</v>
       </c>
       <c r="O20" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -6834,7 +6632,7 @@
         <v>49</v>
       </c>
       <c r="O21" s="24">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -6878,7 +6676,7 @@
         <v>49</v>
       </c>
       <c r="O22" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -6922,7 +6720,7 @@
         <v>49</v>
       </c>
       <c r="O23" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -6963,7 +6761,7 @@
         <v>49</v>
       </c>
       <c r="O24" s="24">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -7005,7 +6803,7 @@
         <v>49</v>
       </c>
       <c r="O25" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -7046,7 +6844,7 @@
         <v>49</v>
       </c>
       <c r="O26" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -7088,7 +6886,7 @@
         <v>49</v>
       </c>
       <c r="O27" s="24">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -7130,7 +6928,7 @@
         <v>49</v>
       </c>
       <c r="O28" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -7172,7 +6970,7 @@
         <v>49</v>
       </c>
       <c r="O29" s="24">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -7214,7 +7012,7 @@
         <v>49</v>
       </c>
       <c r="O30" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -7226,7 +7024,7 @@
         <v>144</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>232</v>
@@ -7256,7 +7054,7 @@
         <v>49</v>
       </c>
       <c r="O31" s="24">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -7298,7 +7096,7 @@
         <v>49</v>
       </c>
       <c r="O32" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -7340,7 +7138,7 @@
         <v>49</v>
       </c>
       <c r="O33" s="24">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -7384,7 +7182,7 @@
         <v>49</v>
       </c>
       <c r="O34" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -7428,7 +7226,7 @@
         <v>49</v>
       </c>
       <c r="O35" s="24">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -7472,7 +7270,7 @@
         <v>49</v>
       </c>
       <c r="O36" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -7513,7 +7311,7 @@
         <v>49</v>
       </c>
       <c r="O37" s="24">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -7530,7 +7328,7 @@
         <v>235</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>256</v>
@@ -7554,7 +7352,7 @@
         <v>49</v>
       </c>
       <c r="O38" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -7595,7 +7393,7 @@
         <v>49</v>
       </c>
       <c r="O39" s="24">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -7636,7 +7434,7 @@
         <v>49</v>
       </c>
       <c r="O40" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -7677,7 +7475,7 @@
         <v>49</v>
       </c>
       <c r="O41" s="24">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -7718,7 +7516,7 @@
         <v>49</v>
       </c>
       <c r="O42" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -7759,7 +7557,7 @@
         <v>49</v>
       </c>
       <c r="O43" s="24">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -7800,7 +7598,7 @@
         <v>49</v>
       </c>
       <c r="O44" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -7841,7 +7639,7 @@
         <v>49</v>
       </c>
       <c r="O45" s="24">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -7882,7 +7680,7 @@
         <v>49</v>
       </c>
       <c r="O46" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -7923,7 +7721,7 @@
         <v>49</v>
       </c>
       <c r="O47" s="24">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -7964,7 +7762,7 @@
         <v>49</v>
       </c>
       <c r="O48" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -8005,7 +7803,7 @@
         <v>49</v>
       </c>
       <c r="O49" s="24">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -8046,7 +7844,7 @@
         <v>49</v>
       </c>
       <c r="O50" s="24">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -8087,7 +7885,7 @@
         <v>49</v>
       </c>
       <c r="O51" s="24">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -9172,7 +8970,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="A78" s="17"/>
       <c r="B78">
         <v>39</v>
       </c>
@@ -9180,7 +8978,7 @@
         <v>144</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>491</v>
+        <v>423</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>232</v>
@@ -9189,7 +8987,7 @@
         <v>266</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>538</v>
+        <v>470</v>
       </c>
       <c r="I78" s="22">
         <v>119342007</v>
@@ -9222,7 +9020,7 @@
         <v>144</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>492</v>
+        <v>424</v>
       </c>
       <c r="F79" s="25" t="s">
         <v>232</v>
@@ -9231,7 +9029,7 @@
         <v>270</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>539</v>
+        <v>471</v>
       </c>
       <c r="I79" s="22">
         <v>119342007</v>
@@ -9263,16 +9061,16 @@
         <v>144</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>493</v>
+        <v>425</v>
       </c>
       <c r="F80" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>512</v>
+        <v>444</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>540</v>
+        <v>472</v>
       </c>
       <c r="I80" s="22">
         <v>119342007</v>
@@ -9284,7 +9082,7 @@
         <v>160</v>
       </c>
       <c r="L80" s="22" t="s">
-        <v>512</v>
+        <v>444</v>
       </c>
       <c r="M80" s="22" t="s">
         <v>146</v>
@@ -9304,16 +9102,16 @@
         <v>144</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>494</v>
+        <v>426</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>513</v>
+        <v>445</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>514</v>
+        <v>446</v>
       </c>
       <c r="I81" s="22">
         <v>119342007</v>
@@ -9325,7 +9123,7 @@
         <v>160</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>513</v>
+        <v>445</v>
       </c>
       <c r="M81" s="22" t="s">
         <v>146</v>
@@ -9345,16 +9143,16 @@
         <v>144</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>495</v>
+        <v>427</v>
       </c>
       <c r="F82" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>514</v>
+        <v>446</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="I82" s="22">
         <v>119342007</v>
@@ -9366,7 +9164,7 @@
         <v>160</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>514</v>
+        <v>446</v>
       </c>
       <c r="M82" s="22" t="s">
         <v>146</v>
@@ -9386,16 +9184,16 @@
         <v>144</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>496</v>
+        <v>428</v>
       </c>
       <c r="F83" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="I83" s="22">
         <v>119342007</v>
@@ -9407,7 +9205,7 @@
         <v>160</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="M83" s="22" t="s">
         <v>146</v>
@@ -9427,16 +9225,16 @@
         <v>144</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>497</v>
+        <v>429</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="I84" s="22">
         <v>119342007</v>
@@ -9448,7 +9246,7 @@
         <v>160</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="M84" s="22" t="s">
         <v>146</v>
@@ -9468,16 +9266,16 @@
         <v>144</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>498</v>
+        <v>430</v>
       </c>
       <c r="F85" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="I85" s="22">
         <v>119342007</v>
@@ -9489,7 +9287,7 @@
         <v>160</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="M85" s="22" t="s">
         <v>146</v>
@@ -9509,16 +9307,16 @@
         <v>144</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>499</v>
+        <v>431</v>
       </c>
       <c r="F86" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>518</v>
+        <v>450</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>542</v>
+        <v>474</v>
       </c>
       <c r="I86" s="22">
         <v>119342007</v>
@@ -9530,7 +9328,7 @@
         <v>160</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>518</v>
+        <v>450</v>
       </c>
       <c r="M86" s="22" t="s">
         <v>146</v>
@@ -9550,16 +9348,16 @@
         <v>144</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>500</v>
+        <v>432</v>
       </c>
       <c r="F87" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G87" s="22" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>543</v>
+        <v>475</v>
       </c>
       <c r="I87" s="22">
         <v>119342007</v>
@@ -9571,7 +9369,7 @@
         <v>160</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="M87" s="22" t="s">
         <v>146</v>
@@ -9591,16 +9389,16 @@
         <v>144</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="F88" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G88" s="22" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="H88" s="22" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="I88" s="22">
         <v>119342007</v>
@@ -9612,7 +9410,7 @@
         <v>160</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="M88" s="22" t="s">
         <v>146</v>
@@ -9632,16 +9430,16 @@
         <v>144</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>502</v>
+        <v>434</v>
       </c>
       <c r="F89" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>544</v>
+        <v>476</v>
       </c>
       <c r="I89" s="22">
         <v>119342007</v>
@@ -9653,7 +9451,7 @@
         <v>160</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="M89" s="22" t="s">
         <v>146</v>
@@ -9673,16 +9471,16 @@
         <v>144</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
       <c r="F90" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>545</v>
+        <v>477</v>
       </c>
       <c r="I90" s="22">
         <v>119342007</v>
@@ -9694,7 +9492,7 @@
         <v>160</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="M90" s="22" t="s">
         <v>146</v>
@@ -9714,16 +9512,16 @@
         <v>144</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
       <c r="F91" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="I91" s="22">
         <v>119342007</v>
@@ -9735,7 +9533,7 @@
         <v>160</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="M91" s="22" t="s">
         <v>146</v>
@@ -9755,16 +9553,16 @@
         <v>144</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>505</v>
+        <v>437</v>
       </c>
       <c r="F92" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="I92" s="22">
         <v>119342007</v>
@@ -9776,7 +9574,7 @@
         <v>160</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="M92" s="22" t="s">
         <v>146</v>
@@ -9796,16 +9594,16 @@
         <v>144</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>506</v>
+        <v>438</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>546</v>
+        <v>478</v>
       </c>
       <c r="I93" s="22">
         <v>119342007</v>
@@ -9817,7 +9615,7 @@
         <v>160</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="M93" s="22" t="s">
         <v>146</v>
@@ -9837,16 +9635,16 @@
         <v>144</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>507</v>
+        <v>439</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="I94" s="22">
         <v>119342007</v>
@@ -9858,7 +9656,7 @@
         <v>160</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="M94" s="22" t="s">
         <v>146</v>
@@ -9878,16 +9676,16 @@
         <v>144</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>508</v>
+        <v>440</v>
       </c>
       <c r="F95" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>547</v>
+        <v>479</v>
       </c>
       <c r="I95" s="22">
         <v>119342007</v>
@@ -9899,7 +9697,7 @@
         <v>160</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="M95" s="22" t="s">
         <v>146</v>
@@ -9919,16 +9717,16 @@
         <v>144</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>509</v>
+        <v>441</v>
       </c>
       <c r="F96" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G96" s="22" t="s">
-        <v>528</v>
+        <v>460</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>548</v>
+        <v>480</v>
       </c>
       <c r="I96" s="22">
         <v>119342007</v>
@@ -9940,7 +9738,7 @@
         <v>160</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>528</v>
+        <v>460</v>
       </c>
       <c r="M96" s="22" t="s">
         <v>146</v>
@@ -9960,16 +9758,16 @@
         <v>144</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>510</v>
+        <v>442</v>
       </c>
       <c r="F97" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G97" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>549</v>
+        <v>481</v>
       </c>
       <c r="I97" s="22">
         <v>119342007</v>
@@ -9981,7 +9779,7 @@
         <v>160</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M97" s="22" t="s">
         <v>146</v>
@@ -10001,16 +9799,16 @@
         <v>144</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>511</v>
+        <v>443</v>
       </c>
       <c r="F98" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G98" s="22" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>550</v>
+        <v>482</v>
       </c>
       <c r="I98" s="22">
         <v>119342007</v>
@@ -10022,7 +9820,7 @@
         <v>160</v>
       </c>
       <c r="L98" s="22" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="M98" s="22" t="s">
         <v>146</v>
@@ -10781,8 +10579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44:H55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10866,7 +10664,7 @@
         <v>355</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>277</v>
@@ -10886,10 +10684,10 @@
         <v>114</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>278</v>
@@ -10912,7 +10710,7 @@
         <v>336</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I8" s="25" t="s">
         <v>279</v>
@@ -10935,7 +10733,7 @@
         <v>335</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>280</v>
@@ -10955,10 +10753,10 @@
         <v>114</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>281</v>
@@ -10978,10 +10776,10 @@
         <v>114</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I11" s="25" t="s">
         <v>282</v>
@@ -11001,10 +10799,10 @@
         <v>114</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>283</v>
@@ -11024,10 +10822,10 @@
         <v>114</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>284</v>
@@ -11047,10 +10845,10 @@
         <v>114</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>285</v>
@@ -11070,10 +10868,10 @@
         <v>114</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>290</v>
@@ -11096,7 +10894,7 @@
         <v>349</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I16" s="25" t="s">
         <v>286</v>
@@ -11116,10 +10914,10 @@
         <v>114</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>287</v>
@@ -11142,7 +10940,7 @@
         <v>351</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I18" s="25" t="s">
         <v>288</v>
@@ -11162,10 +10960,10 @@
         <v>114</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>289</v>
@@ -11185,10 +10983,10 @@
         <v>114</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>291</v>
@@ -11208,10 +11006,10 @@
         <v>114</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>292</v>
@@ -11231,10 +11029,10 @@
         <v>114</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I22" s="25" t="s">
         <v>229</v>
@@ -11254,10 +11052,10 @@
         <v>114</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I23" s="25" t="s">
         <v>241</v>
@@ -11277,10 +11075,10 @@
         <v>114</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I24" s="25" t="s">
         <v>240</v>
@@ -11300,10 +11098,10 @@
         <v>114</v>
       </c>
       <c r="G25" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25" s="22" t="s">
         <v>380</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>381</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>250</v>
@@ -11319,7 +11117,7 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I26" s="25" t="s">
         <v>253</v>
@@ -11335,7 +11133,7 @@
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>257</v>
@@ -11351,7 +11149,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I28" s="25" t="s">
         <v>258</v>
@@ -11365,7 +11163,7 @@
         <v>112</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I29" s="25" t="s">
         <v>259</v>
@@ -11379,7 +11177,7 @@
         <v>112</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I30" s="25" t="s">
         <v>262</v>
@@ -11393,7 +11191,7 @@
         <v>112</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I31" s="25" t="s">
         <v>263</v>
@@ -11407,7 +11205,7 @@
         <v>112</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I32" s="25" t="s">
         <v>264</v>
@@ -11421,7 +11219,7 @@
         <v>112</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="I33" s="25" t="s">
         <v>268</v>
@@ -11435,7 +11233,7 @@
         <v>112</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I34" s="25" t="s">
         <v>269</v>
@@ -11449,7 +11247,7 @@
         <v>112</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I35" s="25" t="s">
         <v>272</v>
@@ -11463,7 +11261,7 @@
         <v>112</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I36" s="25" t="s">
         <v>273</v>
@@ -11477,7 +11275,7 @@
         <v>112</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>274</v>
@@ -11491,7 +11289,7 @@
         <v>112</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I38" s="25" t="s">
         <v>275</v>
@@ -11505,7 +11303,7 @@
         <v>112</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I39" s="25" t="s">
         <v>276</v>
@@ -11584,12 +11382,12 @@
         <v>266</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="J44" s="29"/>
+        <v>423</v>
+      </c>
+      <c r="J44" s="17"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45">
@@ -11608,10 +11406,10 @@
         <v>270</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>492</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -11628,13 +11426,13 @@
         <v>114</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>512</v>
+        <v>444</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>530</v>
+        <v>462</v>
       </c>
       <c r="I46" s="25" t="s">
-        <v>493</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -11651,13 +11449,13 @@
         <v>114</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>513</v>
+        <v>445</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="I47" s="25" t="s">
-        <v>494</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -11674,13 +11472,13 @@
         <v>114</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>514</v>
+        <v>446</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>495</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -11697,13 +11495,13 @@
         <v>114</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>515</v>
+        <v>447</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
       <c r="I49" s="25" t="s">
-        <v>496</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -11720,13 +11518,13 @@
         <v>114</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>497</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -11743,13 +11541,13 @@
         <v>114</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>517</v>
+        <v>449</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>498</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -11766,13 +11564,13 @@
         <v>114</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>518</v>
+        <v>450</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>535</v>
+        <v>467</v>
       </c>
       <c r="I52" s="25" t="s">
-        <v>499</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -11789,13 +11587,13 @@
         <v>114</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>519</v>
+        <v>451</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>500</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -11812,13 +11610,13 @@
         <v>114</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>520</v>
+        <v>452</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>536</v>
+        <v>468</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>501</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -11835,13 +11633,13 @@
         <v>114</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>521</v>
+        <v>453</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="I55" s="25" t="s">
-        <v>502</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -11852,10 +11650,10 @@
         <v>112</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>503</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -11866,10 +11664,10 @@
         <v>112</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="I57" s="25" t="s">
-        <v>504</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -11880,10 +11678,10 @@
         <v>112</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="I58" s="25" t="s">
-        <v>505</v>
+        <v>437</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -11894,10 +11692,10 @@
         <v>112</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>506</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
@@ -11908,10 +11706,10 @@
         <v>112</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>507</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -11922,10 +11720,10 @@
         <v>112</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>508</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -11936,10 +11734,10 @@
         <v>112</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>528</v>
+        <v>460</v>
       </c>
       <c r="I62" s="25" t="s">
-        <v>509</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -11950,10 +11748,10 @@
         <v>112</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I63" s="25" t="s">
-        <v>510</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -11964,16 +11762,17 @@
         <v>112</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="I64" s="25" t="s">
-        <v>511</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>